--- a/Bloque III/ProyectoPony/Resultados/Experiencia 5/dp_tunnedAHP_5.xlsx
+++ b/Bloque III/ProyectoPony/Resultados/Experiencia 5/dp_tunnedAHP_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/joscanege_alum_us_es/Documents/TFG/TFG_GITT_Joscanege/Bloque III/ProyectoPony/Resultados/Experiencia 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1615" documentId="13_ncr:1_{7BF2AEEA-675E-4CE0-9215-137092C8576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46C63A3F-599C-4046-8A0B-186794AF57DE}"/>
+  <xr:revisionPtr revIDLastSave="1616" documentId="13_ncr:1_{7BF2AEEA-675E-4CE0-9215-137092C8576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F65617B-8C87-43B7-9BE1-61FCF8C30B97}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{702144B3-34DA-4E85-91BD-3E4E0DCE50FE}"/>
+    <workbookView xWindow="-19320" yWindow="6075" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="6" xr2:uid="{702144B3-34DA-4E85-91BD-3E4E0DCE50FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe Previo" sheetId="1" r:id="rId1"/>
@@ -3544,6 +3544,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3574,65 +3634,146 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3644,9 +3785,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3655,22 +3823,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3709,170 +3868,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -7072,23 +7072,19 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Cálculos!$K$179:$K$182</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Cálculos!$K$179,Cálculos!$K$181:$K$182)</c:f>
+              <c:f>Cálculos!$K$179:$K$182</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Resultados de comportamiento</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Resultados académicos</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Resultados motivacionales</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Valoración global</c:v>
                 </c:pt>
               </c:strCache>
@@ -7096,24 +7092,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Cálculos!$L$179:$L$182</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Cálculos!$L$179,Cálculos!$L$181:$L$182)</c:f>
+              <c:f>Cálculos!$L$179:$L$182</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.55961754780652395</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4.631839517487391</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4.9424883367515298</c:v>
                 </c:pt>
               </c:numCache>
@@ -7157,23 +7149,23 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
+                        <c15:formulaRef>
                           <c15:sqref>Cálculos!$K$179:$K$182</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Cálculos!$K$179,Cálculos!$K$181:$K$182)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
                         <c:v>Resultados de comportamiento</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>Resultados académicos</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>Resultados motivacionales</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>Valoración global</c:v>
                       </c:pt>
                     </c:strCache>
@@ -7183,24 +7175,24 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
+                        <c15:formulaRef>
                           <c15:sqref>Cálculos!$L$179:$L$182</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>(Cálculos!$L$179,Cálculos!$L$181:$L$182)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
+                      <c:ptCount val="4"/>
                       <c:pt idx="0">
                         <c:v>5</c:v>
                       </c:pt>
                       <c:pt idx="1">
+                        <c:v>0.55961754780652395</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
                         <c:v>4.631839517487391</c:v>
                       </c:pt>
-                      <c:pt idx="2">
+                      <c:pt idx="3">
                         <c:v>4.9424883367515298</c:v>
                       </c:pt>
                     </c:numCache>
@@ -30863,7 +30855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A24442A-865B-4396-A6CD-AA01485454DA}">
   <dimension ref="A2:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31337,6 +31329,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -31347,11 +31344,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34118,14 +34110,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="233" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="228"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H3" s="24" t="s">
@@ -34133,7 +34125,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="229" t="s">
+      <c r="B4" s="234" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="214" t="s">
@@ -34157,7 +34149,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="229"/>
+      <c r="B5" s="234"/>
       <c r="C5" s="214"/>
       <c r="D5" s="17" t="s">
         <v>48</v>
@@ -34187,7 +34179,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="229"/>
+      <c r="B6" s="234"/>
       <c r="C6" s="214"/>
       <c r="D6" s="17" t="s">
         <v>55</v>
@@ -34213,7 +34205,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="229"/>
+      <c r="B7" s="234"/>
       <c r="C7" s="214" t="s">
         <v>54</v>
       </c>
@@ -34229,7 +34221,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="229"/>
+      <c r="B8" s="234"/>
       <c r="C8" s="214"/>
       <c r="D8" s="17" t="s">
         <v>48</v>
@@ -34243,7 +34235,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="229"/>
+      <c r="B9" s="234"/>
       <c r="C9" s="214"/>
       <c r="D9" s="17" t="s">
         <v>55</v>
@@ -34254,7 +34246,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="229" t="s">
+      <c r="B11" s="234" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="214" t="s">
@@ -34269,7 +34261,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="229"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="214"/>
       <c r="D12" s="17" t="s">
         <v>48</v>
@@ -34280,7 +34272,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="229"/>
+      <c r="B13" s="234"/>
       <c r="C13" s="214"/>
       <c r="D13" s="17" t="s">
         <v>55</v>
@@ -34291,7 +34283,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="229"/>
+      <c r="B14" s="234"/>
       <c r="C14" s="214" t="s">
         <v>54</v>
       </c>
@@ -34304,7 +34296,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="229"/>
+      <c r="B15" s="234"/>
       <c r="C15" s="214"/>
       <c r="D15" s="17" t="s">
         <v>48</v>
@@ -34315,7 +34307,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="229"/>
+      <c r="B16" s="234"/>
       <c r="C16" s="214"/>
       <c r="D16" s="17" t="s">
         <v>55</v>
@@ -34563,16 +34555,16 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
-      <c r="H44" s="230" t="e">
+      <c r="H44" s="222" t="e">
         <f>"t "&amp;IF(H35&gt;I41,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I35&gt;J41,LOWER(I29),LOWER(I28))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="231"/>
-      <c r="J44" s="231"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="231"/>
-      <c r="M44" s="231"/>
-      <c r="N44" s="232"/>
+      <c r="I44" s="223"/>
+      <c r="J44" s="223"/>
+      <c r="K44" s="223"/>
+      <c r="L44" s="223"/>
+      <c r="M44" s="223"/>
+      <c r="N44" s="224"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34732,27 +34724,27 @@
     </row>
     <row r="63" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="22"/>
-      <c r="H63" s="233" t="str">
+      <c r="H63" s="216" t="str">
         <f>"t "&amp;IF(I54&gt;J60,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I54&gt;J60,LOWER(I49),LOWER(I48))</f>
         <v>t &gt; valor crítico, por lo tanto se acepta la hipótesis alternativa: ha habido cambios positivos en los resultados academicos</v>
       </c>
-      <c r="I63" s="234"/>
-      <c r="J63" s="234"/>
-      <c r="K63" s="234"/>
-      <c r="L63" s="234"/>
-      <c r="M63" s="234"/>
-      <c r="N63" s="235"/>
+      <c r="I63" s="217"/>
+      <c r="J63" s="217"/>
+      <c r="K63" s="217"/>
+      <c r="L63" s="217"/>
+      <c r="M63" s="217"/>
+      <c r="N63" s="218"/>
       <c r="O63" s="23"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="22"/>
-      <c r="H64" s="236"/>
-      <c r="I64" s="237"/>
-      <c r="J64" s="237"/>
-      <c r="K64" s="237"/>
-      <c r="L64" s="237"/>
-      <c r="M64" s="237"/>
-      <c r="N64" s="238"/>
+      <c r="H64" s="219"/>
+      <c r="I64" s="220"/>
+      <c r="J64" s="220"/>
+      <c r="K64" s="220"/>
+      <c r="L64" s="220"/>
+      <c r="M64" s="220"/>
+      <c r="N64" s="221"/>
       <c r="O64" s="23"/>
     </row>
     <row r="65" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34928,16 +34920,16 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="22"/>
-      <c r="H84" s="230" t="e">
+      <c r="H84" s="222" t="e">
         <f>"t "&amp;IF(H75&gt;I81,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I75&gt;J81,LOWER(I69),LOWER(I68))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I84" s="231"/>
-      <c r="J84" s="231"/>
-      <c r="K84" s="231"/>
-      <c r="L84" s="231"/>
-      <c r="M84" s="231"/>
-      <c r="N84" s="232"/>
+      <c r="I84" s="223"/>
+      <c r="J84" s="223"/>
+      <c r="K84" s="223"/>
+      <c r="L84" s="223"/>
+      <c r="M84" s="223"/>
+      <c r="N84" s="224"/>
       <c r="O84" s="23"/>
     </row>
     <row r="85" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35097,27 +35089,27 @@
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="22"/>
-      <c r="H103" s="233" t="str">
+      <c r="H103" s="216" t="str">
         <f>"t "&amp;IF(I94&gt;J100,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I94&gt;J100,LOWER(I89),LOWER(I88))</f>
         <v>t &gt; valor crítico, por lo tanto se acepta la hipótesis alternativa: ha habido cambios positivos en los resultados academicos</v>
       </c>
-      <c r="I103" s="234"/>
-      <c r="J103" s="234"/>
-      <c r="K103" s="234"/>
-      <c r="L103" s="234"/>
-      <c r="M103" s="234"/>
-      <c r="N103" s="235"/>
+      <c r="I103" s="217"/>
+      <c r="J103" s="217"/>
+      <c r="K103" s="217"/>
+      <c r="L103" s="217"/>
+      <c r="M103" s="217"/>
+      <c r="N103" s="218"/>
       <c r="O103" s="23"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B104" s="22"/>
-      <c r="H104" s="236"/>
-      <c r="I104" s="237"/>
-      <c r="J104" s="237"/>
-      <c r="K104" s="237"/>
-      <c r="L104" s="237"/>
-      <c r="M104" s="237"/>
-      <c r="N104" s="238"/>
+      <c r="H104" s="219"/>
+      <c r="I104" s="220"/>
+      <c r="J104" s="220"/>
+      <c r="K104" s="220"/>
+      <c r="L104" s="220"/>
+      <c r="M104" s="220"/>
+      <c r="N104" s="221"/>
       <c r="O104" s="23"/>
     </row>
     <row r="105" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35137,14 +35129,14 @@
       <c r="O105" s="28"/>
     </row>
     <row r="107" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A107" s="228" t="s">
+      <c r="A107" s="233" t="s">
         <v>86</v>
       </c>
-      <c r="B107" s="228"/>
-      <c r="C107" s="228"/>
-      <c r="D107" s="228"/>
-      <c r="E107" s="228"/>
-      <c r="F107" s="228"/>
+      <c r="B107" s="233"/>
+      <c r="C107" s="233"/>
+      <c r="D107" s="233"/>
+      <c r="E107" s="233"/>
+      <c r="F107" s="233"/>
     </row>
     <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="35" t="s">
@@ -36240,14 +36232,14 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="228" t="s">
+      <c r="A156" s="233" t="s">
         <v>121</v>
       </c>
-      <c r="B156" s="228"/>
-      <c r="C156" s="228"/>
-      <c r="D156" s="228"/>
-      <c r="E156" s="228"/>
-      <c r="F156" s="228"/>
+      <c r="B156" s="233"/>
+      <c r="C156" s="233"/>
+      <c r="D156" s="233"/>
+      <c r="E156" s="233"/>
+      <c r="F156" s="233"/>
     </row>
     <row r="158" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="34" t="s">
@@ -36595,13 +36587,13 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B176" s="239" t="s">
+      <c r="B176" s="232" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="239"/>
-      <c r="D176" s="239"/>
-      <c r="E176" s="239"/>
-      <c r="F176" s="239"/>
+      <c r="C176" s="232"/>
+      <c r="D176" s="232"/>
+      <c r="E176" s="232"/>
+      <c r="F176" s="232"/>
     </row>
     <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="34" t="s">
@@ -36636,13 +36628,13 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="242" t="s">
+      <c r="A179" s="215" t="s">
         <v>521</v>
       </c>
-      <c r="B179" s="226" t="s">
+      <c r="B179" s="225" t="s">
         <v>250</v>
       </c>
-      <c r="C179" s="225">
+      <c r="C179" s="227">
         <f>IF($C$184="N/A",M230/(1-M231),M230)</f>
         <v>8.775201320470527E-2</v>
       </c>
@@ -36665,7 +36657,7 @@
         <f>G179*E179</f>
         <v>0.13064058275258678</v>
       </c>
-      <c r="I179" s="241" cm="1">
+      <c r="I179" s="230" cm="1">
         <f t="array" ref="I179">IF(E183="N/A",SUM(E179:E182*F179:F182),SUM(E179:E183*F179:F183))</f>
         <v>5</v>
       </c>
@@ -36679,9 +36671,9 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="242"/>
-      <c r="B180" s="226"/>
-      <c r="C180" s="240"/>
+      <c r="A180" s="215"/>
+      <c r="B180" s="225"/>
+      <c r="C180" s="228"/>
       <c r="D180" s="1" t="s">
         <v>136</v>
       </c>
@@ -36701,7 +36693,7 @@
         <f t="shared" ref="H180:H215" si="3">G180*E180</f>
         <v>7.2587838153917866E-2</v>
       </c>
-      <c r="I180" s="241"/>
+      <c r="I180" s="230"/>
       <c r="K180" s="51" t="str">
         <f>B184</f>
         <v>Resultados académicos</v>
@@ -36712,9 +36704,9 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="242"/>
-      <c r="B181" s="226"/>
-      <c r="C181" s="240"/>
+      <c r="A181" s="215"/>
+      <c r="B181" s="225"/>
+      <c r="C181" s="228"/>
       <c r="D181" s="1" t="s">
         <v>137</v>
       </c>
@@ -36734,7 +36726,7 @@
         <f t="shared" si="3"/>
         <v>0.12115233941987108</v>
       </c>
-      <c r="I181" s="241"/>
+      <c r="I181" s="230"/>
       <c r="K181" s="51" t="str">
         <f>B186</f>
         <v>Resultados motivacionales</v>
@@ -36745,9 +36737,9 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="242"/>
-      <c r="B182" s="226"/>
-      <c r="C182" s="240"/>
+      <c r="A182" s="215"/>
+      <c r="B182" s="225"/>
+      <c r="C182" s="228"/>
       <c r="D182" s="1" t="s">
         <v>138</v>
       </c>
@@ -36767,7 +36759,7 @@
         <f t="shared" si="3"/>
         <v>0.11437930569715066</v>
       </c>
-      <c r="I182" s="241"/>
+      <c r="I182" s="230"/>
       <c r="K182" s="51" t="s">
         <v>367</v>
       </c>
@@ -36777,9 +36769,9 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="242"/>
-      <c r="B183" s="226"/>
-      <c r="C183" s="240"/>
+      <c r="A183" s="215"/>
+      <c r="B183" s="225"/>
+      <c r="C183" s="228"/>
       <c r="D183" s="1" t="s">
         <v>251</v>
       </c>
@@ -36799,7 +36791,7 @@
         <f>IF(E183="N/A","N/A",G183*E183)</f>
         <v>N/A</v>
       </c>
-      <c r="I183" s="241"/>
+      <c r="I183" s="230"/>
       <c r="K183" s="51" t="str">
         <f>B209</f>
         <v>Diseño del contenido</v>
@@ -36810,11 +36802,11 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="242"/>
-      <c r="B184" s="226" t="s">
+      <c r="A184" s="215"/>
+      <c r="B184" s="225" t="s">
         <v>252</v>
       </c>
-      <c r="C184" s="225">
+      <c r="C184" s="227">
         <f>IF(E184="N/A","N/A",M231)</f>
         <v>0.48840466019622913</v>
       </c>
@@ -36837,7 +36829,7 @@
         <f>IF(G184="N/A","N/A",G184*E184)</f>
         <v>0.27331981827629237</v>
       </c>
-      <c r="I184" s="241" cm="1">
+      <c r="I184" s="230" cm="1">
         <f t="array" ref="I184">IF(H184="N/A","N/A",SUM(E184:E185*F184:F185))</f>
         <v>0.55961754780652395</v>
       </c>
@@ -36851,9 +36843,9 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="242"/>
-      <c r="B185" s="226"/>
-      <c r="C185" s="240"/>
+      <c r="A185" s="215"/>
+      <c r="B185" s="225"/>
+      <c r="C185" s="228"/>
       <c r="D185" s="1" t="s">
         <v>95</v>
       </c>
@@ -36873,7 +36865,7 @@
         <f>IF(G185="N/A","N/A",G185*E185)</f>
         <v>0</v>
       </c>
-      <c r="I185" s="241"/>
+      <c r="I185" s="230"/>
       <c r="K185" s="51" t="str">
         <f>B202</f>
         <v>Diseño técnico</v>
@@ -36884,11 +36876,11 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="242"/>
-      <c r="B186" s="226" t="s">
+      <c r="A186" s="215"/>
+      <c r="B186" s="225" t="s">
         <v>253</v>
       </c>
-      <c r="C186" s="225">
+      <c r="C186" s="227">
         <f>IF($C$184="N/A",M232/(1-M231),M232)</f>
         <v>0.29304642377743528</v>
       </c>
@@ -36911,15 +36903,15 @@
         <f t="shared" si="3"/>
         <v>0.18974158973874394</v>
       </c>
-      <c r="I186" s="241" cm="1">
+      <c r="I186" s="230" cm="1">
         <f t="array" ref="I186">SUM(E186:E194*F186:F194)</f>
         <v>4.631839517487391</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="242"/>
-      <c r="B187" s="226"/>
-      <c r="C187" s="240"/>
+      <c r="A187" s="215"/>
+      <c r="B187" s="225"/>
+      <c r="C187" s="228"/>
       <c r="D187" s="1" t="s">
         <v>107</v>
       </c>
@@ -36939,13 +36931,13 @@
         <f t="shared" si="3"/>
         <v>0.11729888634367683</v>
       </c>
-      <c r="I187" s="241"/>
+      <c r="I187" s="230"/>
       <c r="K187" s="11"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="242"/>
-      <c r="B188" s="226"/>
-      <c r="C188" s="240"/>
+      <c r="A188" s="215"/>
+      <c r="B188" s="225"/>
+      <c r="C188" s="228"/>
       <c r="D188" s="1" t="s">
         <v>108</v>
       </c>
@@ -36965,13 +36957,13 @@
         <f t="shared" si="3"/>
         <v>0.12602715911821091</v>
       </c>
-      <c r="I188" s="241"/>
+      <c r="I188" s="230"/>
       <c r="K188" s="11"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="242"/>
-      <c r="B189" s="226"/>
-      <c r="C189" s="240"/>
+      <c r="A189" s="215"/>
+      <c r="B189" s="225"/>
+      <c r="C189" s="228"/>
       <c r="D189" s="1" t="s">
         <v>109</v>
       </c>
@@ -36991,13 +36983,13 @@
         <f t="shared" si="3"/>
         <v>0.1686261108456612</v>
       </c>
-      <c r="I189" s="241"/>
+      <c r="I189" s="230"/>
       <c r="K189" s="11"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="242"/>
-      <c r="B190" s="226"/>
-      <c r="C190" s="240"/>
+      <c r="A190" s="215"/>
+      <c r="B190" s="225"/>
+      <c r="C190" s="228"/>
       <c r="D190" s="1" t="s">
         <v>110</v>
       </c>
@@ -37017,13 +37009,13 @@
         <f t="shared" si="3"/>
         <v>0.33020229669424556</v>
       </c>
-      <c r="I190" s="241"/>
+      <c r="I190" s="230"/>
       <c r="K190" s="11"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="242"/>
-      <c r="B191" s="226"/>
-      <c r="C191" s="240"/>
+      <c r="A191" s="215"/>
+      <c r="B191" s="225"/>
+      <c r="C191" s="228"/>
       <c r="D191" s="1" t="s">
         <v>111</v>
       </c>
@@ -37043,13 +37035,13 @@
         <f t="shared" si="3"/>
         <v>0.25255169856113246</v>
       </c>
-      <c r="I191" s="241"/>
+      <c r="I191" s="230"/>
       <c r="K191" s="11"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="242"/>
-      <c r="B192" s="226"/>
-      <c r="C192" s="240"/>
+      <c r="A192" s="215"/>
+      <c r="B192" s="225"/>
+      <c r="C192" s="228"/>
       <c r="D192" s="1" t="s">
         <v>112</v>
       </c>
@@ -37069,13 +37061,13 @@
         <f t="shared" si="3"/>
         <v>5.7857525737199017E-2</v>
       </c>
-      <c r="I192" s="241"/>
+      <c r="I192" s="230"/>
       <c r="K192" s="11"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="242"/>
-      <c r="B193" s="226"/>
-      <c r="C193" s="240"/>
+      <c r="A193" s="215"/>
+      <c r="B193" s="225"/>
+      <c r="C193" s="228"/>
       <c r="D193" s="1" t="s">
         <v>113</v>
       </c>
@@ -37095,13 +37087,13 @@
         <f t="shared" si="3"/>
         <v>5.7248219148069109E-2</v>
       </c>
-      <c r="I193" s="241"/>
+      <c r="I193" s="230"/>
       <c r="K193" s="11"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="242"/>
-      <c r="B194" s="226"/>
-      <c r="C194" s="240"/>
+      <c r="A194" s="215"/>
+      <c r="B194" s="225"/>
+      <c r="C194" s="228"/>
       <c r="D194" s="1" t="s">
         <v>114</v>
       </c>
@@ -37121,15 +37113,15 @@
         <f t="shared" si="3"/>
         <v>5.7790519923742331E-2</v>
       </c>
-      <c r="I194" s="241"/>
+      <c r="I194" s="230"/>
       <c r="K194" s="11"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="242"/>
-      <c r="B195" s="216" t="s">
+      <c r="A195" s="215"/>
+      <c r="B195" s="236" t="s">
         <v>367</v>
       </c>
-      <c r="C195" s="218">
+      <c r="C195" s="238">
         <f>IF($C$184="N/A",M233/(1-M231),M233)</f>
         <v>0.1307969028216302</v>
       </c>
@@ -37152,16 +37144,16 @@
         <f>G195*E195</f>
         <v>0.19007157097645694</v>
       </c>
-      <c r="I195" s="220" cm="1">
+      <c r="I195" s="240" cm="1">
         <f t="array" ref="I195">SUM(E195:E199*F195:F199)</f>
         <v>4.9424883367515298</v>
       </c>
       <c r="K195" s="11"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="242"/>
-      <c r="B196" s="217"/>
-      <c r="C196" s="219"/>
+      <c r="A196" s="215"/>
+      <c r="B196" s="237"/>
+      <c r="C196" s="239"/>
       <c r="D196" s="1" t="s">
         <v>373</v>
       </c>
@@ -37181,13 +37173,13 @@
         <f>G196*E196</f>
         <v>0.13038735543635493</v>
       </c>
-      <c r="I196" s="221"/>
+      <c r="I196" s="241"/>
       <c r="K196" s="11"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="242"/>
-      <c r="B197" s="217"/>
-      <c r="C197" s="219"/>
+      <c r="A197" s="215"/>
+      <c r="B197" s="237"/>
+      <c r="C197" s="239"/>
       <c r="D197" s="1" t="s">
         <v>368</v>
       </c>
@@ -37207,13 +37199,13 @@
         <f t="shared" ref="H197:H199" si="7">G197*E197</f>
         <v>7.4163137818646918E-2</v>
       </c>
-      <c r="I197" s="221"/>
+      <c r="I197" s="241"/>
       <c r="K197" s="11"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="242"/>
-      <c r="B198" s="217"/>
-      <c r="C198" s="219"/>
+      <c r="A198" s="215"/>
+      <c r="B198" s="237"/>
+      <c r="C198" s="239"/>
       <c r="D198" s="1" t="s">
         <v>369</v>
       </c>
@@ -37233,13 +37225,13 @@
         <f t="shared" si="7"/>
         <v>0.14517174089324381</v>
       </c>
-      <c r="I198" s="221"/>
+      <c r="I198" s="241"/>
       <c r="K198" s="11"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="242"/>
-      <c r="B199" s="217"/>
-      <c r="C199" s="219"/>
+      <c r="A199" s="215"/>
+      <c r="B199" s="237"/>
+      <c r="C199" s="239"/>
       <c r="D199" s="143" t="s">
         <v>370</v>
       </c>
@@ -37259,7 +37251,7 @@
         <f t="shared" si="7"/>
         <v>0.1066683615544279</v>
       </c>
-      <c r="I199" s="221"/>
+      <c r="I199" s="241"/>
       <c r="K199" s="11"/>
     </row>
     <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -37292,13 +37284,13 @@
       <c r="K201" s="11"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="242" t="s">
+      <c r="A202" s="215" t="s">
         <v>522</v>
       </c>
-      <c r="B202" s="243" t="s">
+      <c r="B202" s="226" t="s">
         <v>254</v>
       </c>
-      <c r="C202" s="244">
+      <c r="C202" s="229">
         <f>K244</f>
         <v>0.26855961518439536</v>
       </c>
@@ -37321,16 +37313,16 @@
         <f t="shared" si="3"/>
         <v>0.16607211331884891</v>
       </c>
-      <c r="I202" s="227" cm="1">
+      <c r="I202" s="231" cm="1">
         <f t="array" ref="I202">SUM(E202:E208*F202:F208)</f>
         <v>4.4321220068880818</v>
       </c>
       <c r="K202" s="11"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="242"/>
-      <c r="B203" s="226"/>
-      <c r="C203" s="240"/>
+      <c r="A203" s="215"/>
+      <c r="B203" s="225"/>
+      <c r="C203" s="228"/>
       <c r="D203" s="1" t="s">
         <v>103</v>
       </c>
@@ -37350,13 +37342,13 @@
         <f t="shared" si="3"/>
         <v>0.24120532441685236</v>
       </c>
-      <c r="I203" s="241"/>
+      <c r="I203" s="230"/>
       <c r="K203" s="11"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="242"/>
-      <c r="B204" s="226"/>
-      <c r="C204" s="240"/>
+      <c r="A204" s="215"/>
+      <c r="B204" s="225"/>
+      <c r="C204" s="228"/>
       <c r="D204" s="1" t="s">
         <v>104</v>
       </c>
@@ -37376,13 +37368,13 @@
         <f t="shared" si="3"/>
         <v>0.26918987279791334</v>
       </c>
-      <c r="I204" s="241"/>
+      <c r="I204" s="230"/>
       <c r="K204" s="11"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="242"/>
-      <c r="B205" s="226"/>
-      <c r="C205" s="240"/>
+      <c r="A205" s="215"/>
+      <c r="B205" s="225"/>
+      <c r="C205" s="228"/>
       <c r="D205" s="1" t="s">
         <v>139</v>
       </c>
@@ -37402,13 +37394,13 @@
         <f t="shared" si="3"/>
         <v>0.17831079727109245</v>
       </c>
-      <c r="I205" s="241"/>
+      <c r="I205" s="230"/>
       <c r="K205" s="11"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="242"/>
-      <c r="B206" s="226"/>
-      <c r="C206" s="240"/>
+      <c r="A206" s="215"/>
+      <c r="B206" s="225"/>
+      <c r="C206" s="228"/>
       <c r="D206" s="1" t="s">
         <v>141</v>
       </c>
@@ -37428,13 +37420,13 @@
         <f t="shared" si="3"/>
         <v>4.9807704603624686E-2</v>
       </c>
-      <c r="I206" s="241"/>
+      <c r="I206" s="230"/>
       <c r="K206" s="11"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="242"/>
-      <c r="B207" s="226"/>
-      <c r="C207" s="240"/>
+      <c r="A207" s="215"/>
+      <c r="B207" s="225"/>
+      <c r="C207" s="228"/>
       <c r="D207" s="1" t="s">
         <v>142</v>
       </c>
@@ -37454,13 +37446,13 @@
         <f t="shared" si="3"/>
         <v>0.16213866919686232</v>
       </c>
-      <c r="I207" s="241"/>
+      <c r="I207" s="230"/>
       <c r="K207" s="11"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="242"/>
-      <c r="B208" s="226"/>
-      <c r="C208" s="240"/>
+      <c r="A208" s="215"/>
+      <c r="B208" s="225"/>
+      <c r="C208" s="228"/>
       <c r="D208" s="1" t="s">
         <v>143</v>
       </c>
@@ -37480,15 +37472,15 @@
         <f t="shared" si="3"/>
         <v>0.12356449901495932</v>
       </c>
-      <c r="I208" s="241"/>
+      <c r="I208" s="230"/>
       <c r="K208" s="11"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="242"/>
-      <c r="B209" s="226" t="s">
+      <c r="A209" s="215"/>
+      <c r="B209" s="225" t="s">
         <v>255</v>
       </c>
-      <c r="C209" s="225">
+      <c r="C209" s="227">
         <f>K245</f>
         <v>0.38331856056126207</v>
       </c>
@@ -37511,16 +37503,16 @@
         <f t="shared" si="3"/>
         <v>0.66667281347281582</v>
       </c>
-      <c r="I209" s="241" cm="1">
+      <c r="I209" s="230" cm="1">
         <f t="array" ref="I209">SUM(E209:E212*F209:F212)</f>
         <v>4.5010138826140977</v>
       </c>
       <c r="K209" s="11"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="242"/>
-      <c r="B210" s="226"/>
-      <c r="C210" s="240"/>
+      <c r="A210" s="215"/>
+      <c r="B210" s="225"/>
+      <c r="C210" s="228"/>
       <c r="D210" s="1" t="s">
         <v>116</v>
       </c>
@@ -37540,13 +37532,13 @@
         <f t="shared" si="3"/>
         <v>0.44320475471229803</v>
       </c>
-      <c r="I210" s="241"/>
+      <c r="I210" s="230"/>
       <c r="K210" s="11"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="242"/>
-      <c r="B211" s="226"/>
-      <c r="C211" s="240"/>
+      <c r="A211" s="215"/>
+      <c r="B211" s="225"/>
+      <c r="C211" s="228"/>
       <c r="D211" s="1" t="s">
         <v>117</v>
       </c>
@@ -37566,13 +37558,13 @@
         <f t="shared" si="3"/>
         <v>0.48452286361467789</v>
       </c>
-      <c r="I211" s="241"/>
+      <c r="I211" s="230"/>
       <c r="K211" s="11"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="242"/>
-      <c r="B212" s="226"/>
-      <c r="C212" s="240"/>
+      <c r="A212" s="215"/>
+      <c r="B212" s="225"/>
+      <c r="C212" s="228"/>
       <c r="D212" s="1" t="s">
         <v>118</v>
       </c>
@@ -37592,15 +37584,15 @@
         <f t="shared" si="3"/>
         <v>0.13092173075010149</v>
       </c>
-      <c r="I212" s="241"/>
+      <c r="I212" s="230"/>
       <c r="K212" s="11"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="242"/>
-      <c r="B213" s="226" t="s">
+      <c r="A213" s="215"/>
+      <c r="B213" s="225" t="s">
         <v>256</v>
       </c>
-      <c r="C213" s="225">
+      <c r="C213" s="227">
         <f>K246</f>
         <v>0.34812182425434263</v>
       </c>
@@ -37623,16 +37615,16 @@
         <f t="shared" si="3"/>
         <v>0.42651230870605444</v>
       </c>
-      <c r="I213" s="220" cm="1">
+      <c r="I213" s="240" cm="1">
         <f t="array" ref="I213">SUM(E213:E219*F213:F219)</f>
         <v>4.5885046214001441</v>
       </c>
       <c r="K213" s="11"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="242"/>
-      <c r="B214" s="226"/>
-      <c r="C214" s="225"/>
+      <c r="A214" s="215"/>
+      <c r="B214" s="225"/>
+      <c r="C214" s="227"/>
       <c r="D214" s="1" t="s">
         <v>140</v>
       </c>
@@ -37652,13 +37644,13 @@
         <f t="shared" si="3"/>
         <v>0.33041815665645247</v>
       </c>
-      <c r="I214" s="221"/>
+      <c r="I214" s="241"/>
       <c r="K214" s="11"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="242"/>
-      <c r="B215" s="226"/>
-      <c r="C215" s="225"/>
+      <c r="A215" s="215"/>
+      <c r="B215" s="225"/>
+      <c r="C215" s="227"/>
       <c r="D215" s="1" t="s">
         <v>144</v>
       </c>
@@ -37678,13 +37670,13 @@
         <f t="shared" si="3"/>
         <v>0.24119255447752441</v>
       </c>
-      <c r="I215" s="221"/>
+      <c r="I215" s="241"/>
       <c r="K215" s="11"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="242"/>
-      <c r="B216" s="226"/>
-      <c r="C216" s="225"/>
+      <c r="A216" s="215"/>
+      <c r="B216" s="225"/>
+      <c r="C216" s="227"/>
       <c r="D216" s="1" t="s">
         <v>119</v>
       </c>
@@ -37704,13 +37696,13 @@
         <f>G216*E216</f>
         <v>0.2417205554365828</v>
       </c>
-      <c r="I216" s="221"/>
+      <c r="I216" s="241"/>
       <c r="K216" s="11"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="242"/>
-      <c r="B217" s="226"/>
-      <c r="C217" s="225"/>
+      <c r="A217" s="215"/>
+      <c r="B217" s="225"/>
+      <c r="C217" s="227"/>
       <c r="D217" s="1" t="s">
         <v>513</v>
       </c>
@@ -37730,13 +37722,13 @@
         <f t="shared" ref="H217:H219" si="12">G217*E217</f>
         <v>0.1891290706115609</v>
       </c>
-      <c r="I217" s="221"/>
+      <c r="I217" s="241"/>
       <c r="K217" s="11"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="242"/>
-      <c r="B218" s="226"/>
-      <c r="C218" s="225"/>
+      <c r="A218" s="215"/>
+      <c r="B218" s="225"/>
+      <c r="C218" s="227"/>
       <c r="D218" s="1" t="s">
         <v>514</v>
       </c>
@@ -37756,13 +37748,13 @@
         <f t="shared" si="12"/>
         <v>8.7712038693355893E-2</v>
       </c>
-      <c r="I218" s="221"/>
+      <c r="I218" s="241"/>
       <c r="K218" s="11"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="242"/>
-      <c r="B219" s="226"/>
-      <c r="C219" s="225"/>
+      <c r="A219" s="215"/>
+      <c r="B219" s="225"/>
+      <c r="C219" s="227"/>
       <c r="D219" s="1" t="s">
         <v>515</v>
       </c>
@@ -37782,7 +37774,7 @@
         <f t="shared" si="12"/>
         <v>8.0673914819769182E-2</v>
       </c>
-      <c r="I219" s="227"/>
+      <c r="I219" s="231"/>
       <c r="K219" s="11"/>
     </row>
     <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -37910,12 +37902,12 @@
       <c r="F229" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="G229" s="215" t="s">
+      <c r="G229" s="235" t="s">
         <v>276</v>
       </c>
-      <c r="H229" s="215"/>
-      <c r="I229" s="215"/>
-      <c r="J229" s="215"/>
+      <c r="H229" s="235"/>
+      <c r="I229" s="235"/>
+      <c r="J229" s="235"/>
       <c r="K229" s="75" t="s">
         <v>277</v>
       </c>
@@ -38328,11 +38320,11 @@
       <c r="E243" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="F243" s="215" t="s">
+      <c r="F243" s="235" t="s">
         <v>276</v>
       </c>
-      <c r="G243" s="215"/>
-      <c r="H243" s="215"/>
+      <c r="G243" s="235"/>
+      <c r="H243" s="235"/>
       <c r="I243" s="75" t="s">
         <v>277</v>
       </c>
@@ -38654,13 +38646,13 @@
       <c r="G256" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="H256" s="222" t="s">
+      <c r="H256" s="242" t="s">
         <v>276</v>
       </c>
-      <c r="I256" s="223"/>
-      <c r="J256" s="223"/>
-      <c r="K256" s="223"/>
-      <c r="L256" s="224"/>
+      <c r="I256" s="243"/>
+      <c r="J256" s="243"/>
+      <c r="K256" s="243"/>
+      <c r="L256" s="244"/>
       <c r="M256" s="75" t="s">
         <v>277</v>
       </c>
@@ -39169,10 +39161,10 @@
       <c r="D272" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="E272" s="222" t="s">
+      <c r="E272" s="242" t="s">
         <v>276</v>
       </c>
-      <c r="F272" s="223"/>
+      <c r="F272" s="243"/>
       <c r="G272" s="75" t="s">
         <v>277</v>
       </c>
@@ -39484,17 +39476,17 @@
       <c r="K285" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="L285" s="215" t="s">
+      <c r="L285" s="235" t="s">
         <v>276</v>
       </c>
-      <c r="M285" s="215"/>
-      <c r="N285" s="215"/>
-      <c r="O285" s="215"/>
-      <c r="P285" s="215"/>
-      <c r="Q285" s="215"/>
-      <c r="R285" s="215"/>
-      <c r="S285" s="215"/>
-      <c r="T285" s="215"/>
+      <c r="M285" s="235"/>
+      <c r="N285" s="235"/>
+      <c r="O285" s="235"/>
+      <c r="P285" s="235"/>
+      <c r="Q285" s="235"/>
+      <c r="R285" s="235"/>
+      <c r="S285" s="235"/>
+      <c r="T285" s="235"/>
       <c r="U285" s="75" t="s">
         <v>277</v>
       </c>
@@ -40559,15 +40551,15 @@
       <c r="I305" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="J305" s="222" t="s">
+      <c r="J305" s="242" t="s">
         <v>276</v>
       </c>
-      <c r="K305" s="223"/>
-      <c r="L305" s="223"/>
-      <c r="M305" s="223"/>
-      <c r="N305" s="223"/>
-      <c r="O305" s="223"/>
-      <c r="P305" s="224"/>
+      <c r="K305" s="243"/>
+      <c r="L305" s="243"/>
+      <c r="M305" s="243"/>
+      <c r="N305" s="243"/>
+      <c r="O305" s="243"/>
+      <c r="P305" s="244"/>
       <c r="Q305" s="75" t="s">
         <v>277</v>
       </c>
@@ -41723,15 +41715,15 @@
       <c r="I338" s="72" t="s">
         <v>515</v>
       </c>
-      <c r="J338" s="222" t="s">
+      <c r="J338" s="242" t="s">
         <v>276</v>
       </c>
-      <c r="K338" s="223"/>
-      <c r="L338" s="223"/>
-      <c r="M338" s="223"/>
-      <c r="N338" s="223"/>
-      <c r="O338" s="223"/>
-      <c r="P338" s="224"/>
+      <c r="K338" s="243"/>
+      <c r="L338" s="243"/>
+      <c r="M338" s="243"/>
+      <c r="N338" s="243"/>
+      <c r="O338" s="243"/>
+      <c r="P338" s="244"/>
       <c r="Q338" s="75" t="s">
         <v>277</v>
       </c>
@@ -42473,13 +42465,13 @@
       <c r="G356" s="72" t="s">
         <v>370</v>
       </c>
-      <c r="H356" s="215" t="s">
+      <c r="H356" s="235" t="s">
         <v>276</v>
       </c>
-      <c r="I356" s="215"/>
-      <c r="J356" s="215"/>
-      <c r="K356" s="215"/>
-      <c r="L356" s="215"/>
+      <c r="I356" s="235"/>
+      <c r="J356" s="235"/>
+      <c r="K356" s="235"/>
+      <c r="L356" s="235"/>
       <c r="M356" s="75" t="s">
         <v>277</v>
       </c>
@@ -42877,37 +42869,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A179:A199"/>
-    <mergeCell ref="A202:A219"/>
-    <mergeCell ref="H63:N64"/>
-    <mergeCell ref="H84:N84"/>
-    <mergeCell ref="B186:B194"/>
-    <mergeCell ref="B202:B208"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="C186:C194"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="I186:I194"/>
-    <mergeCell ref="I202:I208"/>
-    <mergeCell ref="I209:I212"/>
-    <mergeCell ref="C209:C212"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H103:N104"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="I179:I183"/>
-    <mergeCell ref="I184:I185"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B11:B16"/>
     <mergeCell ref="H356:L356"/>
     <mergeCell ref="B195:B199"/>
     <mergeCell ref="C195:C199"/>
@@ -42922,6 +42883,37 @@
     <mergeCell ref="F243:H243"/>
     <mergeCell ref="I213:I219"/>
     <mergeCell ref="J305:P305"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H103:N104"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="I179:I183"/>
+    <mergeCell ref="I184:I185"/>
+    <mergeCell ref="A179:A199"/>
+    <mergeCell ref="A202:A219"/>
+    <mergeCell ref="H63:N64"/>
+    <mergeCell ref="H84:N84"/>
+    <mergeCell ref="B186:B194"/>
+    <mergeCell ref="B202:B208"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="C186:C194"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="I186:I194"/>
+    <mergeCell ref="I202:I208"/>
+    <mergeCell ref="I209:I212"/>
+    <mergeCell ref="C209:C212"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42991,8 +42983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B55847A-8B51-4EA0-B2F1-2F7149944867}">
   <dimension ref="A1:U870"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="J360" sqref="J360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43010,20 +43002,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="296" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="277"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="298"/>
       <c r="G1" s="106" t="s">
         <v>305</v>
       </c>
       <c r="H1" s="98">
         <f ca="1">TODAY()</f>
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="K1" s="95"/>
       <c r="L1" s="95"/>
@@ -43086,19 +43078,19 @@
       <c r="U3" s="95"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="257" t="s">
+      <c r="A4" s="309" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="254"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="254" t="str">
+      <c r="B4" s="308"/>
+      <c r="C4" s="308"/>
+      <c r="D4" s="308" t="str">
         <f>'Informe Previo'!D4</f>
         <v>Juegos AJDA. Juego "CRASH. 4 EQUIPOS".</v>
       </c>
-      <c r="E4" s="254"/>
-      <c r="F4" s="254"/>
-      <c r="G4" s="254"/>
-      <c r="H4" s="255"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="308"/>
+      <c r="G4" s="308"/>
+      <c r="H4" s="310"/>
       <c r="I4" s="95"/>
       <c r="J4" s="95"/>
       <c r="K4" s="95"/>
@@ -43114,17 +43106,17 @@
       <c r="U4" s="95"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="299" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="248"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
       <c r="D5" s="105" t="str">
         <f>'Informe Previo'!D5</f>
         <v>2023-11-03</v>
       </c>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
       <c r="H5" s="99"/>
       <c r="I5" s="95"/>
       <c r="J5" s="95"/>
@@ -43141,19 +43133,19 @@
       <c r="U5" s="95"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="253" t="s">
+      <c r="A6" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="248"/>
-      <c r="C6" s="248"/>
-      <c r="D6" s="248" t="str">
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300" t="str">
         <f>'Informe Previo'!D10</f>
         <v>IES Joaquín Turina</v>
       </c>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="256"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="301"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
       <c r="K6" s="95"/>
@@ -43169,19 +43161,19 @@
       <c r="U6" s="95"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="253" t="s">
+      <c r="A7" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="248"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248" t="str">
+      <c r="B7" s="300"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300" t="str">
         <f>'Informe Previo'!D11</f>
         <v>1ºBachillerato. Ciencias</v>
       </c>
-      <c r="E7" s="248"/>
-      <c r="F7" s="248"/>
-      <c r="G7" s="248"/>
-      <c r="H7" s="256"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="301"/>
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
@@ -43197,19 +43189,19 @@
       <c r="U7" s="95"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="314" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262" t="str">
+      <c r="B8" s="315"/>
+      <c r="C8" s="315"/>
+      <c r="D8" s="315" t="str">
         <f>'Informe Previo'!D13</f>
         <v>Física y Química</v>
       </c>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="263"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="315"/>
+      <c r="G8" s="315"/>
+      <c r="H8" s="316"/>
       <c r="I8" s="95"/>
       <c r="J8" s="95"/>
       <c r="K8" s="95"/>
@@ -43225,19 +43217,19 @@
       <c r="U8" s="95"/>
     </row>
     <row r="9" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="264" t="s">
+      <c r="A9" s="317" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="265"/>
-      <c r="C9" s="265"/>
-      <c r="D9" s="266" t="str">
+      <c r="B9" s="318"/>
+      <c r="C9" s="318"/>
+      <c r="D9" s="319" t="str">
         <f>'Informe Previo'!D14</f>
         <v>Jesús Manuel Muñoz Calle</v>
       </c>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="266"/>
-      <c r="H9" s="267"/>
+      <c r="E9" s="319"/>
+      <c r="F9" s="319"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="320"/>
       <c r="I9" s="95"/>
       <c r="J9" s="95"/>
       <c r="K9" s="95"/>
@@ -43253,19 +43245,19 @@
       <c r="U9" s="95"/>
     </row>
     <row r="10" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="268" t="s">
+      <c r="A10" s="321" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="269"/>
-      <c r="C10" s="269"/>
-      <c r="D10" s="270" t="str">
+      <c r="B10" s="322"/>
+      <c r="C10" s="322"/>
+      <c r="D10" s="256" t="str">
         <f>'Informe Previo'!D15</f>
         <v>José Manuel Candilejo Egea</v>
       </c>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="271"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="257"/>
       <c r="I10" s="95"/>
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
@@ -43281,14 +43273,14 @@
       <c r="U10" s="95"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="248"/>
-      <c r="B11" s="248"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="248"/>
-      <c r="E11" s="248"/>
-      <c r="F11" s="248"/>
-      <c r="G11" s="248"/>
-      <c r="H11" s="248"/>
+      <c r="A11" s="300"/>
+      <c r="B11" s="300"/>
+      <c r="C11" s="300"/>
+      <c r="D11" s="300"/>
+      <c r="E11" s="300"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="300"/>
+      <c r="H11" s="300"/>
       <c r="I11" s="95"/>
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
@@ -43329,19 +43321,19 @@
       <c r="U12" s="95"/>
     </row>
     <row r="13" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="272" t="s">
+      <c r="A13" s="281" t="s">
         <v>625</v>
       </c>
-      <c r="B13" s="273"/>
+      <c r="B13" s="282"/>
       <c r="C13" s="101" t="str">
         <f>'Informe Previo'!D6</f>
         <v>2 Semanas</v>
       </c>
       <c r="D13" s="101"/>
-      <c r="E13" s="272" t="s">
+      <c r="E13" s="281" t="s">
         <v>623</v>
       </c>
-      <c r="F13" s="273"/>
+      <c r="F13" s="282"/>
       <c r="G13" s="101">
         <f>'Informe Previo'!D7</f>
         <v>2</v>
@@ -43371,10 +43363,10 @@
         <v>Si. 5 Positivos al equipo ganador en cada una de las partidas jugadas</v>
       </c>
       <c r="D14" s="176"/>
-      <c r="E14" s="282" t="s">
+      <c r="E14" s="283" t="s">
         <v>622</v>
       </c>
-      <c r="F14" s="283"/>
+      <c r="F14" s="284"/>
       <c r="G14" s="176" t="str">
         <f>IF('Informe Previo'!D8&lt;&gt;"",'Informe Previo'!D8,"Sin especificar")</f>
         <v>60 minutos</v>
@@ -43466,19 +43458,19 @@
       <c r="U17" s="95"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="257" t="s">
+      <c r="A18" s="309" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="254"/>
-      <c r="C18" s="254"/>
-      <c r="D18" s="254">
+      <c r="B18" s="308"/>
+      <c r="C18" s="308"/>
+      <c r="D18" s="308">
         <f>'Informe Previo'!D16</f>
         <v>11</v>
       </c>
-      <c r="E18" s="254"/>
-      <c r="F18" s="254"/>
-      <c r="G18" s="254"/>
-      <c r="H18" s="255"/>
+      <c r="E18" s="308"/>
+      <c r="F18" s="308"/>
+      <c r="G18" s="308"/>
+      <c r="H18" s="310"/>
       <c r="I18" s="95"/>
       <c r="J18" s="95"/>
       <c r="K18" s="95"/>
@@ -43494,21 +43486,21 @@
       <c r="U18" s="95"/>
     </row>
     <row r="19" spans="1:21" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="258" t="s">
+      <c r="A19" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="259"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="251" t="str">
+      <c r="B19" s="312"/>
+      <c r="C19" s="312"/>
+      <c r="D19" s="307" t="str">
         <f>'Informe Previo'!D19</f>
         <v>La prueba inicial refleja que el grupo es bastante heterogéneo, aunque con un nivel de partida bajo en general. Hay tres alumnos que muestran una situación de partida mejor que la media y otros tres que están por debajo.
 No hay alumnado con la materia pendiente al ser de 1ºBAC pero hay 3 alumnos que no cursaron la asignatura de Física y Química en 4ºESO.
 No hay alumnado repetidor.</v>
       </c>
-      <c r="E19" s="251"/>
-      <c r="F19" s="251"/>
-      <c r="G19" s="251"/>
-      <c r="H19" s="260"/>
+      <c r="E19" s="307"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="307"/>
+      <c r="H19" s="313"/>
       <c r="I19" s="95"/>
       <c r="J19" s="95"/>
       <c r="K19" s="95"/>
@@ -43524,13 +43516,13 @@
       <c r="U19" s="95"/>
     </row>
     <row r="20" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="272" t="s">
+      <c r="A20" s="281" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="273" t="s">
+      <c r="B20" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="273" t="s">
+      <c r="C20" s="282" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="101">
@@ -43538,8 +43530,8 @@
         <v>1</v>
       </c>
       <c r="E20" s="103"/>
-      <c r="F20" s="254"/>
-      <c r="G20" s="254"/>
+      <c r="F20" s="308"/>
+      <c r="G20" s="308"/>
       <c r="H20" s="102"/>
       <c r="I20" s="95"/>
       <c r="J20" s="95"/>
@@ -43556,13 +43548,13 @@
       <c r="U20" s="95"/>
     </row>
     <row r="21" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="282" t="s">
+      <c r="A21" s="283" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="283" t="s">
+      <c r="B21" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="283" t="s">
+      <c r="C21" s="284" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="176">
@@ -43588,13 +43580,13 @@
       <c r="U21" s="95"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="272" t="s">
+      <c r="A22" s="281" t="s">
         <v>311</v>
       </c>
-      <c r="B22" s="273" t="s">
+      <c r="B22" s="282" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="273" t="s">
+      <c r="C22" s="282" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="206">
@@ -43648,13 +43640,13 @@
       <c r="U23" s="95"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="250" t="s">
+      <c r="A24" s="306" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="251" t="s">
+      <c r="B24" s="307" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="251" t="s">
+      <c r="C24" s="307" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="208" t="str">
@@ -43680,13 +43672,13 @@
       <c r="U24" s="95"/>
     </row>
     <row r="25" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="250" t="s">
+      <c r="A25" s="306" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="251" t="s">
+      <c r="B25" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="251" t="s">
+      <c r="C25" s="307" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="208">
@@ -43712,11 +43704,11 @@
       <c r="U25" s="95"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="253" t="s">
+      <c r="A26" s="299" t="s">
         <v>627</v>
       </c>
-      <c r="B26" s="248"/>
-      <c r="C26" s="248"/>
+      <c r="B26" s="300"/>
+      <c r="C26" s="300"/>
       <c r="D26" s="210">
         <f>'Informe Previo'!D26</f>
         <v>0.97</v>
@@ -43740,11 +43732,11 @@
       <c r="U26" s="95"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="253" t="s">
+      <c r="A27" s="299" t="s">
         <v>628</v>
       </c>
-      <c r="B27" s="248"/>
-      <c r="C27" s="248"/>
+      <c r="B27" s="300"/>
+      <c r="C27" s="300"/>
       <c r="D27" s="208">
         <f>'Informe Previo'!D27</f>
         <v>8</v>
@@ -43768,11 +43760,11 @@
       <c r="U27" s="95"/>
     </row>
     <row r="28" spans="1:21" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="261" t="s">
+      <c r="A28" s="314" t="s">
         <v>629</v>
       </c>
-      <c r="B28" s="262"/>
-      <c r="C28" s="262"/>
+      <c r="B28" s="315"/>
+      <c r="C28" s="315"/>
       <c r="D28" s="211">
         <f>'Informe Previo'!D28</f>
         <v>0</v>
@@ -43796,14 +43788,14 @@
       <c r="U28" s="95"/>
     </row>
     <row r="29" spans="1:21" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="248"/>
-      <c r="B29" s="248"/>
-      <c r="C29" s="248"/>
-      <c r="D29" s="248"/>
-      <c r="E29" s="248"/>
-      <c r="F29" s="248"/>
-      <c r="G29" s="248"/>
-      <c r="H29" s="248"/>
+      <c r="A29" s="300"/>
+      <c r="B29" s="300"/>
+      <c r="C29" s="300"/>
+      <c r="D29" s="300"/>
+      <c r="E29" s="300"/>
+      <c r="F29" s="300"/>
+      <c r="G29" s="300"/>
+      <c r="H29" s="300"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
       <c r="K29" s="95"/>
@@ -43998,18 +43990,18 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
-      <c r="B37" s="278" t="s">
+      <c r="B37" s="302" t="s">
         <v>318</v>
       </c>
-      <c r="C37" s="278"/>
-      <c r="D37" s="279" t="s">
+      <c r="C37" s="302"/>
+      <c r="D37" s="303" t="s">
         <v>316</v>
       </c>
-      <c r="E37" s="279"/>
-      <c r="F37" s="279" t="s">
+      <c r="E37" s="303"/>
+      <c r="F37" s="303" t="s">
         <v>315</v>
       </c>
-      <c r="G37" s="279"/>
+      <c r="G37" s="303"/>
       <c r="H37" s="111"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -44027,8 +44019,8 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
-      <c r="B38" s="278"/>
-      <c r="C38" s="278"/>
+      <c r="B38" s="302"/>
+      <c r="C38" s="302"/>
       <c r="D38" s="115" t="s">
         <v>47</v>
       </c>
@@ -44058,10 +44050,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
-      <c r="B39" s="280" t="s">
+      <c r="B39" s="304" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="280"/>
+      <c r="C39" s="304"/>
       <c r="D39" s="117">
         <f>IF(D33="No","N/A",Cálculos!E4)</f>
         <v>1.9181818181818182</v>
@@ -44095,10 +44087,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
-      <c r="B40" s="280" t="s">
+      <c r="B40" s="304" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="280"/>
+      <c r="C40" s="304"/>
       <c r="D40" s="117">
         <f>IF(D33="No","N/A",Cálculos!E7)</f>
         <v>2.8227272727272723</v>
@@ -44155,18 +44147,18 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
-      <c r="B42" s="278" t="s">
+      <c r="B42" s="302" t="s">
         <v>319</v>
       </c>
-      <c r="C42" s="278"/>
-      <c r="D42" s="279" t="s">
+      <c r="C42" s="302"/>
+      <c r="D42" s="303" t="s">
         <v>316</v>
       </c>
-      <c r="E42" s="279"/>
-      <c r="F42" s="279" t="s">
+      <c r="E42" s="303"/>
+      <c r="F42" s="303" t="s">
         <v>315</v>
       </c>
-      <c r="G42" s="279"/>
+      <c r="G42" s="303"/>
       <c r="H42" s="111"/>
       <c r="I42" s="95"/>
       <c r="J42" s="95"/>
@@ -44184,8 +44176,8 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
-      <c r="B43" s="278"/>
-      <c r="C43" s="278"/>
+      <c r="B43" s="302"/>
+      <c r="C43" s="302"/>
       <c r="D43" s="116" t="s">
         <v>53</v>
       </c>
@@ -44215,7 +44207,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
-      <c r="B44" s="281" t="s">
+      <c r="B44" s="305" t="s">
         <v>316</v>
       </c>
       <c r="C44" s="116" t="s">
@@ -44252,7 +44244,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
-      <c r="B45" s="281"/>
+      <c r="B45" s="305"/>
       <c r="C45" s="116" t="s">
         <v>54</v>
       </c>
@@ -44287,7 +44279,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
-      <c r="B46" s="249" t="s">
+      <c r="B46" s="324" t="s">
         <v>315</v>
       </c>
       <c r="C46" s="116" t="s">
@@ -44324,7 +44316,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
-      <c r="B47" s="249"/>
+      <c r="B47" s="324"/>
       <c r="C47" s="116" t="s">
         <v>54</v>
       </c>
@@ -44844,15 +44836,15 @@
       <c r="U68" s="95"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="274" t="str">
+      <c r="A69" s="323" t="str">
         <f>Cálculos!B111</f>
         <v>Pregunta</v>
       </c>
-      <c r="B69" s="274"/>
-      <c r="C69" s="274"/>
-      <c r="D69" s="274"/>
-      <c r="E69" s="274"/>
-      <c r="F69" s="274"/>
+      <c r="B69" s="323"/>
+      <c r="C69" s="323"/>
+      <c r="D69" s="323"/>
+      <c r="E69" s="323"/>
+      <c r="F69" s="323"/>
       <c r="G69" s="118" t="str">
         <f>Cálculos!C111</f>
         <v>Media</v>
@@ -44879,13 +44871,13 @@
       <c r="A70" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="252" t="s">
+      <c r="B70" s="285" t="s">
         <v>489</v>
       </c>
-      <c r="C70" s="252"/>
-      <c r="D70" s="252"/>
-      <c r="E70" s="252"/>
-      <c r="F70" s="252"/>
+      <c r="C70" s="285"/>
+      <c r="D70" s="285"/>
+      <c r="E70" s="285"/>
+      <c r="F70" s="285"/>
       <c r="G70" s="120">
         <f>Cálculos!C112</f>
         <v>16.272727272727273</v>
@@ -44912,15 +44904,15 @@
       <c r="A71" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="288" t="s">
+      <c r="B71" s="286" t="s">
         <v>490</v>
       </c>
-      <c r="C71" s="289"/>
-      <c r="D71" s="289"/>
-      <c r="E71" s="289"/>
-      <c r="F71" s="289"/>
-      <c r="G71" s="289"/>
-      <c r="H71" s="290"/>
+      <c r="C71" s="287"/>
+      <c r="D71" s="287"/>
+      <c r="E71" s="287"/>
+      <c r="F71" s="287"/>
+      <c r="G71" s="287"/>
+      <c r="H71" s="288"/>
       <c r="I71" s="95"/>
       <c r="J71" s="95"/>
       <c r="K71" s="95"/>
@@ -44936,17 +44928,17 @@
       <c r="U71" s="95"/>
     </row>
     <row r="72" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="285" t="str">
+      <c r="A72" s="289" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D6:CY6)</f>
         <v>Española   //   Española/Brasileña   //   Salvadoreña   //   Venezolana   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española</v>
       </c>
-      <c r="B72" s="286"/>
-      <c r="C72" s="286"/>
-      <c r="D72" s="286"/>
-      <c r="E72" s="286"/>
-      <c r="F72" s="286"/>
-      <c r="G72" s="286"/>
-      <c r="H72" s="287"/>
+      <c r="B72" s="290"/>
+      <c r="C72" s="290"/>
+      <c r="D72" s="290"/>
+      <c r="E72" s="290"/>
+      <c r="F72" s="290"/>
+      <c r="G72" s="290"/>
+      <c r="H72" s="291"/>
       <c r="I72" s="95"/>
       <c r="J72" s="95"/>
       <c r="K72" s="95"/>
@@ -44965,18 +44957,18 @@
       <c r="A73" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="288" t="s">
+      <c r="B73" s="286" t="s">
         <v>491</v>
       </c>
-      <c r="C73" s="289"/>
-      <c r="D73" s="289"/>
-      <c r="E73" s="289"/>
-      <c r="F73" s="289"/>
-      <c r="G73" s="289" t="str">
+      <c r="C73" s="287"/>
+      <c r="D73" s="287"/>
+      <c r="E73" s="287"/>
+      <c r="F73" s="287"/>
+      <c r="G73" s="287" t="str">
         <f>Cálculos!C114</f>
         <v>N/A</v>
       </c>
-      <c r="H73" s="290" t="str">
+      <c r="H73" s="288" t="str">
         <f>Cálculos!D114</f>
         <v>N/A</v>
       </c>
@@ -44995,18 +44987,18 @@
       <c r="U73" s="95"/>
     </row>
     <row r="74" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="285" t="str">
+      <c r="A74" s="289" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D7:CY7)</f>
         <v>Masculino   //   Otro   //   Femenino   //   Femenino_x000D_
    //   Femenino   //   Masculino   //   Femenino   //   Femenino   //   Masculino   //   Masculino   //   Masculino</v>
       </c>
-      <c r="B74" s="286"/>
-      <c r="C74" s="286"/>
-      <c r="D74" s="286"/>
-      <c r="E74" s="286"/>
-      <c r="F74" s="286"/>
-      <c r="G74" s="286"/>
-      <c r="H74" s="287"/>
+      <c r="B74" s="290"/>
+      <c r="C74" s="290"/>
+      <c r="D74" s="290"/>
+      <c r="E74" s="290"/>
+      <c r="F74" s="290"/>
+      <c r="G74" s="290"/>
+      <c r="H74" s="291"/>
       <c r="I74" s="95"/>
       <c r="J74" s="95"/>
       <c r="K74" s="95"/>
@@ -45025,18 +45017,18 @@
       <c r="A75" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="288" t="s">
+      <c r="B75" s="286" t="s">
         <v>377</v>
       </c>
-      <c r="C75" s="289"/>
-      <c r="D75" s="289"/>
-      <c r="E75" s="289"/>
-      <c r="F75" s="289"/>
-      <c r="G75" s="289" t="str">
+      <c r="C75" s="287"/>
+      <c r="D75" s="287"/>
+      <c r="E75" s="287"/>
+      <c r="F75" s="287"/>
+      <c r="G75" s="287" t="str">
         <f>Cálculos!C115</f>
         <v>N/A</v>
       </c>
-      <c r="H75" s="290" t="str">
+      <c r="H75" s="288" t="str">
         <f>Cálculos!D115</f>
         <v>N/A</v>
       </c>
@@ -45055,17 +45047,17 @@
       <c r="U75" s="95"/>
     </row>
     <row r="76" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="285" t="str">
+      <c r="A76" s="289" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D8:CY8)</f>
         <v>1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato   //   1º Bachillerato</v>
       </c>
-      <c r="B76" s="286"/>
-      <c r="C76" s="286"/>
-      <c r="D76" s="286"/>
-      <c r="E76" s="286"/>
-      <c r="F76" s="286"/>
-      <c r="G76" s="286"/>
-      <c r="H76" s="287"/>
+      <c r="B76" s="290"/>
+      <c r="C76" s="290"/>
+      <c r="D76" s="290"/>
+      <c r="E76" s="290"/>
+      <c r="F76" s="290"/>
+      <c r="G76" s="290"/>
+      <c r="H76" s="291"/>
       <c r="I76" s="95"/>
       <c r="J76" s="95"/>
       <c r="K76" s="95"/>
@@ -45084,13 +45076,13 @@
       <c r="A77" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="252" t="s">
+      <c r="B77" s="285" t="s">
         <v>492</v>
       </c>
-      <c r="C77" s="252"/>
-      <c r="D77" s="252"/>
-      <c r="E77" s="252"/>
-      <c r="F77" s="252"/>
+      <c r="C77" s="285"/>
+      <c r="D77" s="285"/>
+      <c r="E77" s="285"/>
+      <c r="F77" s="285"/>
       <c r="G77" s="120">
         <f>Cálculos!C116</f>
         <v>4.4545454545454541</v>
@@ -45117,13 +45109,13 @@
       <c r="A78" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="252" t="s">
+      <c r="B78" s="285" t="s">
         <v>322</v>
       </c>
-      <c r="C78" s="252"/>
-      <c r="D78" s="252"/>
-      <c r="E78" s="252"/>
-      <c r="F78" s="252"/>
+      <c r="C78" s="285"/>
+      <c r="D78" s="285"/>
+      <c r="E78" s="285"/>
+      <c r="F78" s="285"/>
       <c r="G78" s="120">
         <f>Cálculos!C117</f>
         <v>4.1818181818181817</v>
@@ -45150,13 +45142,13 @@
       <c r="A79" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="252" t="s">
+      <c r="B79" s="285" t="s">
         <v>323</v>
       </c>
-      <c r="C79" s="252"/>
-      <c r="D79" s="252"/>
-      <c r="E79" s="252"/>
-      <c r="F79" s="252"/>
+      <c r="C79" s="285"/>
+      <c r="D79" s="285"/>
+      <c r="E79" s="285"/>
+      <c r="F79" s="285"/>
       <c r="G79" s="120">
         <f>Cálculos!C118</f>
         <v>4.6363636363636367</v>
@@ -45183,13 +45175,13 @@
       <c r="A80" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="252" t="s">
+      <c r="B80" s="285" t="s">
         <v>545</v>
       </c>
-      <c r="C80" s="252"/>
-      <c r="D80" s="252"/>
-      <c r="E80" s="252"/>
-      <c r="F80" s="252"/>
+      <c r="C80" s="285"/>
+      <c r="D80" s="285"/>
+      <c r="E80" s="285"/>
+      <c r="F80" s="285"/>
       <c r="G80" s="120">
         <f>Cálculos!C119</f>
         <v>4.8181818181818183</v>
@@ -45216,13 +45208,13 @@
       <c r="A81" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="252" t="s">
+      <c r="B81" s="285" t="s">
         <v>546</v>
       </c>
-      <c r="C81" s="252"/>
-      <c r="D81" s="252"/>
-      <c r="E81" s="252"/>
-      <c r="F81" s="252"/>
+      <c r="C81" s="285"/>
+      <c r="D81" s="285"/>
+      <c r="E81" s="285"/>
+      <c r="F81" s="285"/>
       <c r="G81" s="120">
         <f>Cálculos!C120</f>
         <v>4.3636363636363633</v>
@@ -45249,13 +45241,13 @@
       <c r="A82" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="252" t="s">
+      <c r="B82" s="285" t="s">
         <v>324</v>
       </c>
-      <c r="C82" s="252"/>
-      <c r="D82" s="252"/>
-      <c r="E82" s="252"/>
-      <c r="F82" s="252"/>
+      <c r="C82" s="285"/>
+      <c r="D82" s="285"/>
+      <c r="E82" s="285"/>
+      <c r="F82" s="285"/>
       <c r="G82" s="120">
         <f>Cálculos!C121</f>
         <v>4.3636363636363633</v>
@@ -45282,13 +45274,13 @@
       <c r="A83" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="252" t="s">
+      <c r="B83" s="285" t="s">
         <v>325</v>
       </c>
-      <c r="C83" s="252"/>
-      <c r="D83" s="252"/>
-      <c r="E83" s="252"/>
-      <c r="F83" s="252"/>
+      <c r="C83" s="285"/>
+      <c r="D83" s="285"/>
+      <c r="E83" s="285"/>
+      <c r="F83" s="285"/>
       <c r="G83" s="120">
         <f>Cálculos!C122</f>
         <v>4.5454545454545459</v>
@@ -45315,13 +45307,13 @@
       <c r="A84" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="252" t="s">
+      <c r="B84" s="285" t="s">
         <v>547</v>
       </c>
-      <c r="C84" s="252"/>
-      <c r="D84" s="252"/>
-      <c r="E84" s="252"/>
-      <c r="F84" s="252"/>
+      <c r="C84" s="285"/>
+      <c r="D84" s="285"/>
+      <c r="E84" s="285"/>
+      <c r="F84" s="285"/>
       <c r="G84" s="120">
         <f>Cálculos!C123</f>
         <v>4.8181818181818183</v>
@@ -45348,13 +45340,13 @@
       <c r="A85" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="252" t="s">
+      <c r="B85" s="285" t="s">
         <v>326</v>
       </c>
-      <c r="C85" s="252"/>
-      <c r="D85" s="252"/>
-      <c r="E85" s="252"/>
-      <c r="F85" s="252"/>
+      <c r="C85" s="285"/>
+      <c r="D85" s="285"/>
+      <c r="E85" s="285"/>
+      <c r="F85" s="285"/>
       <c r="G85" s="120">
         <f>Cálculos!C124</f>
         <v>4.6363636363636367</v>
@@ -45381,13 +45373,13 @@
       <c r="A86" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="252" t="s">
+      <c r="B86" s="285" t="s">
         <v>327</v>
       </c>
-      <c r="C86" s="252"/>
-      <c r="D86" s="252"/>
-      <c r="E86" s="252"/>
-      <c r="F86" s="252"/>
+      <c r="C86" s="285"/>
+      <c r="D86" s="285"/>
+      <c r="E86" s="285"/>
+      <c r="F86" s="285"/>
       <c r="G86" s="120">
         <f>Cálculos!C125</f>
         <v>5</v>
@@ -45414,13 +45406,13 @@
       <c r="A87" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="252" t="s">
+      <c r="B87" s="285" t="s">
         <v>328</v>
       </c>
-      <c r="C87" s="252"/>
-      <c r="D87" s="252"/>
-      <c r="E87" s="252"/>
-      <c r="F87" s="252"/>
+      <c r="C87" s="285"/>
+      <c r="D87" s="285"/>
+      <c r="E87" s="285"/>
+      <c r="F87" s="285"/>
       <c r="G87" s="120">
         <f>Cálculos!C126</f>
         <v>4.2727272727272725</v>
@@ -45447,13 +45439,13 @@
       <c r="A88" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="252" t="s">
+      <c r="B88" s="285" t="s">
         <v>329</v>
       </c>
-      <c r="C88" s="252"/>
-      <c r="D88" s="252"/>
-      <c r="E88" s="252"/>
-      <c r="F88" s="252"/>
+      <c r="C88" s="285"/>
+      <c r="D88" s="285"/>
+      <c r="E88" s="285"/>
+      <c r="F88" s="285"/>
       <c r="G88" s="120">
         <f>Cálculos!C127</f>
         <v>4.6363636363636367</v>
@@ -45480,13 +45472,13 @@
       <c r="A89" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="252" t="s">
+      <c r="B89" s="285" t="s">
         <v>330</v>
       </c>
-      <c r="C89" s="252"/>
-      <c r="D89" s="252"/>
-      <c r="E89" s="252"/>
-      <c r="F89" s="252"/>
+      <c r="C89" s="285"/>
+      <c r="D89" s="285"/>
+      <c r="E89" s="285"/>
+      <c r="F89" s="285"/>
       <c r="G89" s="120">
         <f>Cálculos!C128</f>
         <v>4.4545454545454541</v>
@@ -45513,13 +45505,13 @@
       <c r="A90" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="252" t="s">
+      <c r="B90" s="285" t="s">
         <v>331</v>
       </c>
-      <c r="C90" s="252"/>
-      <c r="D90" s="252"/>
-      <c r="E90" s="252"/>
-      <c r="F90" s="252"/>
+      <c r="C90" s="285"/>
+      <c r="D90" s="285"/>
+      <c r="E90" s="285"/>
+      <c r="F90" s="285"/>
       <c r="G90" s="120">
         <f>Cálculos!C129</f>
         <v>4</v>
@@ -45546,13 +45538,13 @@
       <c r="A91" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="252" t="s">
+      <c r="B91" s="285" t="s">
         <v>332</v>
       </c>
-      <c r="C91" s="252"/>
-      <c r="D91" s="252"/>
-      <c r="E91" s="252"/>
-      <c r="F91" s="252"/>
+      <c r="C91" s="285"/>
+      <c r="D91" s="285"/>
+      <c r="E91" s="285"/>
+      <c r="F91" s="285"/>
       <c r="G91" s="120">
         <f>Cálculos!C130</f>
         <v>4.2727272727272725</v>
@@ -45579,13 +45571,13 @@
       <c r="A92" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="252" t="s">
+      <c r="B92" s="285" t="s">
         <v>333</v>
       </c>
-      <c r="C92" s="252"/>
-      <c r="D92" s="252"/>
-      <c r="E92" s="252"/>
-      <c r="F92" s="252"/>
+      <c r="C92" s="285"/>
+      <c r="D92" s="285"/>
+      <c r="E92" s="285"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="120">
         <f>Cálculos!C131</f>
         <v>4.6363636363636367</v>
@@ -45612,18 +45604,18 @@
       <c r="A93" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="288" t="s">
+      <c r="B93" s="286" t="s">
         <v>548</v>
       </c>
-      <c r="C93" s="289"/>
-      <c r="D93" s="289"/>
-      <c r="E93" s="289"/>
-      <c r="F93" s="289"/>
-      <c r="G93" s="289" t="str">
+      <c r="C93" s="287"/>
+      <c r="D93" s="287"/>
+      <c r="E93" s="287"/>
+      <c r="F93" s="287"/>
+      <c r="G93" s="287" t="str">
         <f>Cálculos!C132</f>
         <v>N/A</v>
       </c>
-      <c r="H93" s="290" t="str">
+      <c r="H93" s="288" t="str">
         <f>Cálculos!D132</f>
         <v>N/A</v>
       </c>
@@ -45642,17 +45634,17 @@
       <c r="U93" s="95"/>
     </row>
     <row r="94" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="285" t="str">
+      <c r="A94" s="289" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D25:CY25)</f>
         <v>No   //   La haría más larga   //   Más larga, es agradable   //   Más larga   //   No   //   Tal y como está.   //   Veo bien la dureción   //   No cambiaría nada   //   No le cambiaría la duración   //   Está perfecto   //   Como está</v>
       </c>
-      <c r="B94" s="286"/>
-      <c r="C94" s="286"/>
-      <c r="D94" s="286"/>
-      <c r="E94" s="286"/>
-      <c r="F94" s="286"/>
-      <c r="G94" s="286"/>
-      <c r="H94" s="287"/>
+      <c r="B94" s="290"/>
+      <c r="C94" s="290"/>
+      <c r="D94" s="290"/>
+      <c r="E94" s="290"/>
+      <c r="F94" s="290"/>
+      <c r="G94" s="290"/>
+      <c r="H94" s="291"/>
       <c r="I94" s="95"/>
       <c r="J94" s="95"/>
       <c r="K94" s="95"/>
@@ -45671,13 +45663,13 @@
       <c r="A95" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="252" t="s">
+      <c r="B95" s="285" t="s">
         <v>334</v>
       </c>
-      <c r="C95" s="252"/>
-      <c r="D95" s="252"/>
-      <c r="E95" s="252"/>
-      <c r="F95" s="252"/>
+      <c r="C95" s="285"/>
+      <c r="D95" s="285"/>
+      <c r="E95" s="285"/>
+      <c r="F95" s="285"/>
       <c r="G95" s="120">
         <f>Cálculos!C133</f>
         <v>4.7272727272727275</v>
@@ -45704,13 +45696,13 @@
       <c r="A96" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="B96" s="252" t="s">
+      <c r="B96" s="285" t="s">
         <v>335</v>
       </c>
-      <c r="C96" s="252"/>
-      <c r="D96" s="252"/>
-      <c r="E96" s="252"/>
-      <c r="F96" s="252"/>
+      <c r="C96" s="285"/>
+      <c r="D96" s="285"/>
+      <c r="E96" s="285"/>
+      <c r="F96" s="285"/>
       <c r="G96" s="120">
         <f>Cálculos!C134</f>
         <v>4.7272727272727275</v>
@@ -45737,13 +45729,13 @@
       <c r="A97" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="252" t="s">
+      <c r="B97" s="285" t="s">
         <v>336</v>
       </c>
-      <c r="C97" s="252"/>
-      <c r="D97" s="252"/>
-      <c r="E97" s="252"/>
-      <c r="F97" s="252"/>
+      <c r="C97" s="285"/>
+      <c r="D97" s="285"/>
+      <c r="E97" s="285"/>
+      <c r="F97" s="285"/>
       <c r="G97" s="120">
         <f>Cálculos!C135</f>
         <v>4.9090909090909092</v>
@@ -45770,13 +45762,13 @@
       <c r="A98" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="252" t="s">
+      <c r="B98" s="285" t="s">
         <v>337</v>
       </c>
-      <c r="C98" s="252"/>
-      <c r="D98" s="252"/>
-      <c r="E98" s="252"/>
-      <c r="F98" s="252"/>
+      <c r="C98" s="285"/>
+      <c r="D98" s="285"/>
+      <c r="E98" s="285"/>
+      <c r="F98" s="285"/>
       <c r="G98" s="120">
         <f>Cálculos!C136</f>
         <v>4.9090909090909092</v>
@@ -45803,13 +45795,13 @@
       <c r="A99" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="252" t="s">
+      <c r="B99" s="285" t="s">
         <v>338</v>
       </c>
-      <c r="C99" s="252"/>
-      <c r="D99" s="252"/>
-      <c r="E99" s="252"/>
-      <c r="F99" s="252"/>
+      <c r="C99" s="285"/>
+      <c r="D99" s="285"/>
+      <c r="E99" s="285"/>
+      <c r="F99" s="285"/>
       <c r="G99" s="120">
         <f>Cálculos!C137</f>
         <v>4.8181818181818183</v>
@@ -45836,13 +45828,13 @@
       <c r="A100" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="B100" s="252" t="s">
+      <c r="B100" s="285" t="s">
         <v>339</v>
       </c>
-      <c r="C100" s="252"/>
-      <c r="D100" s="252"/>
-      <c r="E100" s="252"/>
-      <c r="F100" s="252"/>
+      <c r="C100" s="285"/>
+      <c r="D100" s="285"/>
+      <c r="E100" s="285"/>
+      <c r="F100" s="285"/>
       <c r="G100" s="120">
         <f>Cálculos!C138</f>
         <v>5</v>
@@ -45869,13 +45861,13 @@
       <c r="A101" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="252" t="s">
+      <c r="B101" s="285" t="s">
         <v>340</v>
       </c>
-      <c r="C101" s="252"/>
-      <c r="D101" s="252"/>
-      <c r="E101" s="252"/>
-      <c r="F101" s="252"/>
+      <c r="C101" s="285"/>
+      <c r="D101" s="285"/>
+      <c r="E101" s="285"/>
+      <c r="F101" s="285"/>
       <c r="G101" s="120">
         <f>Cálculos!C139</f>
         <v>4.9090909090909092</v>
@@ -45902,13 +45894,13 @@
       <c r="A102" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="B102" s="252" t="s">
+      <c r="B102" s="285" t="s">
         <v>341</v>
       </c>
-      <c r="C102" s="252"/>
-      <c r="D102" s="252"/>
-      <c r="E102" s="252"/>
-      <c r="F102" s="252"/>
+      <c r="C102" s="285"/>
+      <c r="D102" s="285"/>
+      <c r="E102" s="285"/>
+      <c r="F102" s="285"/>
       <c r="G102" s="120">
         <f>Cálculos!C140</f>
         <v>4.7272727272727275</v>
@@ -45935,13 +45927,13 @@
       <c r="A103" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="252" t="s">
+      <c r="B103" s="285" t="s">
         <v>342</v>
       </c>
-      <c r="C103" s="252"/>
-      <c r="D103" s="252"/>
-      <c r="E103" s="252"/>
-      <c r="F103" s="252"/>
+      <c r="C103" s="285"/>
+      <c r="D103" s="285"/>
+      <c r="E103" s="285"/>
+      <c r="F103" s="285"/>
       <c r="G103" s="120">
         <f>Cálculos!C141</f>
         <v>4.5454545454545459</v>
@@ -45968,13 +45960,13 @@
       <c r="A104" s="183" t="s">
         <v>366</v>
       </c>
-      <c r="B104" s="252" t="s">
+      <c r="B104" s="285" t="s">
         <v>343</v>
       </c>
-      <c r="C104" s="252"/>
-      <c r="D104" s="252"/>
-      <c r="E104" s="252"/>
-      <c r="F104" s="252"/>
+      <c r="C104" s="285"/>
+      <c r="D104" s="285"/>
+      <c r="E104" s="285"/>
+      <c r="F104" s="285"/>
       <c r="G104" s="120">
         <f>Cálculos!C142</f>
         <v>4.7272727272727275</v>
@@ -46001,13 +45993,13 @@
       <c r="A105" s="183" t="s">
         <v>386</v>
       </c>
-      <c r="B105" s="252" t="s">
+      <c r="B105" s="285" t="s">
         <v>344</v>
       </c>
-      <c r="C105" s="252"/>
-      <c r="D105" s="252"/>
-      <c r="E105" s="252"/>
-      <c r="F105" s="252"/>
+      <c r="C105" s="285"/>
+      <c r="D105" s="285"/>
+      <c r="E105" s="285"/>
+      <c r="F105" s="285"/>
       <c r="G105" s="120">
         <f>Cálculos!C143</f>
         <v>4.7272727272727275</v>
@@ -46034,13 +46026,13 @@
       <c r="A106" s="183" t="s">
         <v>387</v>
       </c>
-      <c r="B106" s="252" t="s">
+      <c r="B106" s="285" t="s">
         <v>345</v>
       </c>
-      <c r="C106" s="252"/>
-      <c r="D106" s="252"/>
-      <c r="E106" s="252"/>
-      <c r="F106" s="252"/>
+      <c r="C106" s="285"/>
+      <c r="D106" s="285"/>
+      <c r="E106" s="285"/>
+      <c r="F106" s="285"/>
       <c r="G106" s="120">
         <f>Cálculos!C144</f>
         <v>4.6363636363636367</v>
@@ -46067,13 +46059,13 @@
       <c r="A107" s="183" t="s">
         <v>499</v>
       </c>
-      <c r="B107" s="252" t="s">
+      <c r="B107" s="285" t="s">
         <v>346</v>
       </c>
-      <c r="C107" s="252"/>
-      <c r="D107" s="252"/>
-      <c r="E107" s="252"/>
-      <c r="F107" s="252"/>
+      <c r="C107" s="285"/>
+      <c r="D107" s="285"/>
+      <c r="E107" s="285"/>
+      <c r="F107" s="285"/>
       <c r="G107" s="120">
         <f>Cálculos!C145</f>
         <v>4.4545454545454541</v>
@@ -46100,13 +46092,13 @@
       <c r="A108" s="183" t="s">
         <v>500</v>
       </c>
-      <c r="B108" s="252" t="s">
+      <c r="B108" s="285" t="s">
         <v>347</v>
       </c>
-      <c r="C108" s="252"/>
-      <c r="D108" s="252"/>
-      <c r="E108" s="252"/>
-      <c r="F108" s="252"/>
+      <c r="C108" s="285"/>
+      <c r="D108" s="285"/>
+      <c r="E108" s="285"/>
+      <c r="F108" s="285"/>
       <c r="G108" s="120">
         <f>Cálculos!C146</f>
         <v>4.0999999999999996</v>
@@ -46133,13 +46125,13 @@
       <c r="A109" s="183" t="s">
         <v>501</v>
       </c>
-      <c r="B109" s="252" t="s">
+      <c r="B109" s="285" t="s">
         <v>493</v>
       </c>
-      <c r="C109" s="252"/>
-      <c r="D109" s="252"/>
-      <c r="E109" s="252"/>
-      <c r="F109" s="252"/>
+      <c r="C109" s="285"/>
+      <c r="D109" s="285"/>
+      <c r="E109" s="285"/>
+      <c r="F109" s="285"/>
       <c r="G109" s="120">
         <f>Cálculos!C147</f>
         <v>4.0909090909090908</v>
@@ -46166,18 +46158,18 @@
       <c r="A110" s="183" t="s">
         <v>502</v>
       </c>
-      <c r="B110" s="288" t="s">
+      <c r="B110" s="286" t="s">
         <v>549</v>
       </c>
-      <c r="C110" s="289"/>
-      <c r="D110" s="289"/>
-      <c r="E110" s="289"/>
-      <c r="F110" s="289"/>
-      <c r="G110" s="289" t="str">
+      <c r="C110" s="287"/>
+      <c r="D110" s="287"/>
+      <c r="E110" s="287"/>
+      <c r="F110" s="287"/>
+      <c r="G110" s="287" t="str">
         <f>Cálculos!C148</f>
         <v>N/A</v>
       </c>
-      <c r="H110" s="290" t="str">
+      <c r="H110" s="288" t="str">
         <f>Cálculos!D148</f>
         <v>N/A</v>
       </c>
@@ -46196,17 +46188,17 @@
       <c r="U110" s="95"/>
     </row>
     <row r="111" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="285" t="str">
+      <c r="A111" s="289" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D41:CY41)</f>
         <v>Las haría más juntas   //   Haría las sesiones más juntas   //   Más juntas   //   Una por semana me gustaría   //   No   //   Quizá más puntualmente   //   Veo bien la frecuencia   //   No   //   La haría más a menudo con una separación intermedia.   //   Sí. Claro que haría más sesiones   //   Más juntas</v>
       </c>
-      <c r="B111" s="286"/>
-      <c r="C111" s="286"/>
-      <c r="D111" s="286"/>
-      <c r="E111" s="286"/>
-      <c r="F111" s="286"/>
-      <c r="G111" s="286"/>
-      <c r="H111" s="287"/>
+      <c r="B111" s="290"/>
+      <c r="C111" s="290"/>
+      <c r="D111" s="290"/>
+      <c r="E111" s="290"/>
+      <c r="F111" s="290"/>
+      <c r="G111" s="290"/>
+      <c r="H111" s="291"/>
       <c r="I111" s="95"/>
       <c r="J111" s="95"/>
       <c r="K111" s="95"/>
@@ -46225,13 +46217,13 @@
       <c r="A112" s="183" t="s">
         <v>503</v>
       </c>
-      <c r="B112" s="252" t="s">
+      <c r="B112" s="285" t="s">
         <v>494</v>
       </c>
-      <c r="C112" s="252"/>
-      <c r="D112" s="252"/>
-      <c r="E112" s="252"/>
-      <c r="F112" s="252"/>
+      <c r="C112" s="285"/>
+      <c r="D112" s="285"/>
+      <c r="E112" s="285"/>
+      <c r="F112" s="285"/>
       <c r="G112" s="120">
         <f>Cálculos!C149</f>
         <v>4.6363636363636367</v>
@@ -46258,18 +46250,18 @@
       <c r="A113" s="183" t="s">
         <v>504</v>
       </c>
-      <c r="B113" s="288" t="s">
+      <c r="B113" s="286" t="s">
         <v>550</v>
       </c>
-      <c r="C113" s="289"/>
-      <c r="D113" s="289"/>
-      <c r="E113" s="289"/>
-      <c r="F113" s="289"/>
-      <c r="G113" s="289" t="str">
+      <c r="C113" s="287"/>
+      <c r="D113" s="287"/>
+      <c r="E113" s="287"/>
+      <c r="F113" s="287"/>
+      <c r="G113" s="287" t="str">
         <f>Cálculos!C150</f>
         <v>N/A</v>
       </c>
-      <c r="H113" s="290" t="str">
+      <c r="H113" s="288" t="str">
         <f>Cálculos!D150</f>
         <v>N/A</v>
       </c>
@@ -46288,17 +46280,17 @@
       <c r="U113" s="95"/>
     </row>
     <row r="114" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="285" t="str">
+      <c r="A114" s="289" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D43:CY43)</f>
         <v>No   //   No   //   Más pequeños   //   Me parecen adecuados   //   No   //   Está bien   //   Está bien repartido   //   No   //   No lo cambiaría aunque me da igual el tamaño, pero prefiero grupos pequeños porque así se organiza mejor el grupo.   //   No. Están bien los grupos pequeños   //   No</v>
       </c>
-      <c r="B114" s="286"/>
-      <c r="C114" s="286"/>
-      <c r="D114" s="286"/>
-      <c r="E114" s="286"/>
-      <c r="F114" s="286"/>
-      <c r="G114" s="286"/>
-      <c r="H114" s="287"/>
+      <c r="B114" s="290"/>
+      <c r="C114" s="290"/>
+      <c r="D114" s="290"/>
+      <c r="E114" s="290"/>
+      <c r="F114" s="290"/>
+      <c r="G114" s="290"/>
+      <c r="H114" s="291"/>
       <c r="I114" s="95"/>
       <c r="J114" s="95"/>
       <c r="K114" s="95"/>
@@ -46317,13 +46309,13 @@
       <c r="A115" s="183" t="s">
         <v>505</v>
       </c>
-      <c r="B115" s="252" t="s">
+      <c r="B115" s="285" t="s">
         <v>495</v>
       </c>
-      <c r="C115" s="252"/>
-      <c r="D115" s="252"/>
-      <c r="E115" s="252"/>
-      <c r="F115" s="252"/>
+      <c r="C115" s="285"/>
+      <c r="D115" s="285"/>
+      <c r="E115" s="285"/>
+      <c r="F115" s="285"/>
       <c r="G115" s="120">
         <f>Cálculos!C151</f>
         <v>5</v>
@@ -46350,13 +46342,13 @@
       <c r="A116" s="183" t="s">
         <v>551</v>
       </c>
-      <c r="B116" s="252" t="s">
+      <c r="B116" s="285" t="s">
         <v>496</v>
       </c>
-      <c r="C116" s="252"/>
-      <c r="D116" s="252"/>
-      <c r="E116" s="252"/>
-      <c r="F116" s="252"/>
+      <c r="C116" s="285"/>
+      <c r="D116" s="285"/>
+      <c r="E116" s="285"/>
+      <c r="F116" s="285"/>
       <c r="G116" s="120">
         <f>Cálculos!C152</f>
         <v>9.454545454545455</v>
@@ -46383,18 +46375,18 @@
       <c r="A117" s="183" t="s">
         <v>552</v>
       </c>
-      <c r="B117" s="288" t="s">
+      <c r="B117" s="286" t="s">
         <v>497</v>
       </c>
-      <c r="C117" s="289"/>
-      <c r="D117" s="289"/>
-      <c r="E117" s="289"/>
-      <c r="F117" s="289"/>
-      <c r="G117" s="289" t="str">
+      <c r="C117" s="287"/>
+      <c r="D117" s="287"/>
+      <c r="E117" s="287"/>
+      <c r="F117" s="287"/>
+      <c r="G117" s="287" t="str">
         <f>Cálculos!C153</f>
         <v>N/A</v>
       </c>
-      <c r="H117" s="290" t="str">
+      <c r="H117" s="288" t="str">
         <f>Cálculos!D153</f>
         <v>N/A</v>
       </c>
@@ -46413,17 +46405,17 @@
       <c r="U117" s="95"/>
     </row>
     <row r="118" spans="1:21" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="285" t="str">
+      <c r="A118" s="289" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D46:CY46)</f>
         <v>Me parece una muy buena manera de reforzar los conocimientos.   //   Divertida, pues liberamos dopamina cuando hacemos algo que nos gusta y aprendemos más fácil, y es lo que me pasó.    //   Entretenida, me encanta el tener que trabajar en equipo pero tiene que tener una mejor explicación de la respuesta correcta.    //   Me divertí mucho y aprendí mientras hacía la actividad. El premio es gratificante.   //   Todo bien   //   Experiencia muy entretenida y muy didáctica en mi opinión   //   Ha estado muy bien y he aprendido más   //   Me han gustado los juegos porque he disfrutado y no he visto competitividad de mi parte y de los compañeros.    //   Aprendí sobre la materia junto a mis compañeros mientras me divertía y de esa forma se me hacía más fácil aprender.    //   Es un buen cambio de escenario, es más divertido    //   Muy bueno porque es práctica y ayuda a asimilar.</v>
       </c>
-      <c r="B118" s="286"/>
-      <c r="C118" s="286"/>
-      <c r="D118" s="286"/>
-      <c r="E118" s="286"/>
-      <c r="F118" s="286"/>
-      <c r="G118" s="286"/>
-      <c r="H118" s="287"/>
+      <c r="B118" s="290"/>
+      <c r="C118" s="290"/>
+      <c r="D118" s="290"/>
+      <c r="E118" s="290"/>
+      <c r="F118" s="290"/>
+      <c r="G118" s="290"/>
+      <c r="H118" s="291"/>
       <c r="I118" s="95"/>
       <c r="J118" s="95"/>
       <c r="K118" s="95"/>
@@ -46442,18 +46434,18 @@
       <c r="A119" s="183" t="s">
         <v>511</v>
       </c>
-      <c r="B119" s="288" t="s">
+      <c r="B119" s="286" t="s">
         <v>498</v>
       </c>
-      <c r="C119" s="289"/>
-      <c r="D119" s="289"/>
-      <c r="E119" s="289"/>
-      <c r="F119" s="289"/>
-      <c r="G119" s="289" t="str">
+      <c r="C119" s="287"/>
+      <c r="D119" s="287"/>
+      <c r="E119" s="287"/>
+      <c r="F119" s="287"/>
+      <c r="G119" s="287" t="str">
         <f>Cálculos!C154</f>
         <v>N/A</v>
       </c>
-      <c r="H119" s="290" t="str">
+      <c r="H119" s="288" t="str">
         <f>Cálculos!D154</f>
         <v>N/A</v>
       </c>
@@ -46472,17 +46464,17 @@
       <c r="U119" s="95"/>
     </row>
     <row r="120" spans="1:21" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="285" t="str">
+      <c r="A120" s="289" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D47:CY47)</f>
         <v xml:space="preserve">Nada que mejorar, está muy conseguida.   //   El tiempo para contestar las preguntas.   //   Una breve explicación sobre el resultado.   //   Me gusta la dinámica en general, pero en mi opinión el diseño de la actividad es un poco anticuado.   //       //   En este momento no se me ocurren mejoras, está muy completo.   //   No creo que se deba mejorar nada.   //   Me ha gustado las preguntas y la forma en la que se juega.   //   Tal vez hacer trabajos cooperativos o juegos.   //       //    </v>
       </c>
-      <c r="B120" s="286"/>
-      <c r="C120" s="286"/>
-      <c r="D120" s="286"/>
-      <c r="E120" s="286"/>
-      <c r="F120" s="286"/>
-      <c r="G120" s="286"/>
-      <c r="H120" s="287"/>
+      <c r="B120" s="290"/>
+      <c r="C120" s="290"/>
+      <c r="D120" s="290"/>
+      <c r="E120" s="290"/>
+      <c r="F120" s="290"/>
+      <c r="G120" s="290"/>
+      <c r="H120" s="291"/>
       <c r="I120" s="95"/>
       <c r="J120" s="95"/>
       <c r="K120" s="95"/>
@@ -47019,15 +47011,15 @@
       <c r="A144" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="B144" s="245" t="s">
+      <c r="B144" s="292" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="245"/>
-      <c r="D144" s="245"/>
-      <c r="E144" s="245"/>
-      <c r="F144" s="245"/>
-      <c r="G144" s="245"/>
-      <c r="H144" s="245"/>
+      <c r="C144" s="292"/>
+      <c r="D144" s="292"/>
+      <c r="E144" s="292"/>
+      <c r="F144" s="292"/>
+      <c r="G144" s="292"/>
+      <c r="H144" s="292"/>
       <c r="I144" s="95"/>
       <c r="J144" s="95"/>
       <c r="K144" s="95"/>
@@ -47043,16 +47035,16 @@
       <c r="U144" s="95"/>
     </row>
     <row r="145" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="245" t="e">
+      <c r="B145" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C145" s="245"/>
-      <c r="D145" s="245"/>
-      <c r="E145" s="245"/>
-      <c r="F145" s="245"/>
-      <c r="G145" s="245"/>
-      <c r="H145" s="245"/>
+      <c r="C145" s="292"/>
+      <c r="D145" s="292"/>
+      <c r="E145" s="292"/>
+      <c r="F145" s="292"/>
+      <c r="G145" s="292"/>
+      <c r="H145" s="292"/>
       <c r="I145" s="95"/>
       <c r="J145" s="95"/>
       <c r="K145" s="95"/>
@@ -47071,16 +47063,16 @@
       <c r="A146" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B146" s="245" t="e">
+      <c r="B146" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C146" s="245"/>
-      <c r="D146" s="245"/>
-      <c r="E146" s="245"/>
-      <c r="F146" s="245"/>
-      <c r="G146" s="245"/>
-      <c r="H146" s="245"/>
+      <c r="C146" s="292"/>
+      <c r="D146" s="292"/>
+      <c r="E146" s="292"/>
+      <c r="F146" s="292"/>
+      <c r="G146" s="292"/>
+      <c r="H146" s="292"/>
       <c r="I146" s="95"/>
       <c r="J146" s="95"/>
       <c r="K146" s="95"/>
@@ -47100,16 +47092,16 @@
         <f>Cálculos!D159</f>
         <v>10</v>
       </c>
-      <c r="B147" s="245" t="e">
+      <c r="B147" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C147" s="245"/>
-      <c r="D147" s="245"/>
-      <c r="E147" s="245"/>
-      <c r="F147" s="245"/>
-      <c r="G147" s="245"/>
-      <c r="H147" s="245"/>
+      <c r="C147" s="292"/>
+      <c r="D147" s="292"/>
+      <c r="E147" s="292"/>
+      <c r="F147" s="292"/>
+      <c r="G147" s="292"/>
+      <c r="H147" s="292"/>
       <c r="I147" s="95"/>
       <c r="J147" s="95"/>
       <c r="K147" s="95"/>
@@ -47126,16 +47118,16 @@
     </row>
     <row r="148" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="127"/>
-      <c r="B148" s="245" t="e">
+      <c r="B148" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C148" s="245"/>
-      <c r="D148" s="245"/>
-      <c r="E148" s="245"/>
-      <c r="F148" s="245"/>
-      <c r="G148" s="245"/>
-      <c r="H148" s="245"/>
+      <c r="C148" s="292"/>
+      <c r="D148" s="292"/>
+      <c r="E148" s="292"/>
+      <c r="F148" s="292"/>
+      <c r="G148" s="292"/>
+      <c r="H148" s="292"/>
       <c r="I148" s="95"/>
       <c r="J148" s="95"/>
       <c r="K148" s="95"/>
@@ -47152,16 +47144,16 @@
     </row>
     <row r="149" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="126"/>
-      <c r="B149" s="246" t="e">
+      <c r="B149" s="293" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C149" s="246"/>
-      <c r="D149" s="246"/>
-      <c r="E149" s="246"/>
-      <c r="F149" s="246"/>
-      <c r="G149" s="246"/>
-      <c r="H149" s="246"/>
+      <c r="C149" s="293"/>
+      <c r="D149" s="293"/>
+      <c r="E149" s="293"/>
+      <c r="F149" s="293"/>
+      <c r="G149" s="293"/>
+      <c r="H149" s="293"/>
       <c r="I149" s="95"/>
       <c r="J149" s="95"/>
       <c r="K149" s="95"/>
@@ -47180,15 +47172,15 @@
       <c r="A150" s="127" t="s">
         <v>350</v>
       </c>
-      <c r="B150" s="284" t="s">
+      <c r="B150" s="295" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="284"/>
-      <c r="D150" s="284"/>
-      <c r="E150" s="284"/>
-      <c r="F150" s="284"/>
-      <c r="G150" s="284"/>
-      <c r="H150" s="284"/>
+      <c r="C150" s="295"/>
+      <c r="D150" s="295"/>
+      <c r="E150" s="295"/>
+      <c r="F150" s="295"/>
+      <c r="G150" s="295"/>
+      <c r="H150" s="295"/>
       <c r="I150" s="95"/>
       <c r="J150" s="95"/>
       <c r="K150" s="95"/>
@@ -47204,16 +47196,16 @@
       <c r="U150" s="95"/>
     </row>
     <row r="151" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="245" t="e">
+      <c r="B151" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C151" s="245"/>
-      <c r="D151" s="245"/>
-      <c r="E151" s="245"/>
-      <c r="F151" s="245"/>
-      <c r="G151" s="245"/>
-      <c r="H151" s="245"/>
+      <c r="C151" s="292"/>
+      <c r="D151" s="292"/>
+      <c r="E151" s="292"/>
+      <c r="F151" s="292"/>
+      <c r="G151" s="292"/>
+      <c r="H151" s="292"/>
       <c r="I151" s="95"/>
       <c r="J151" s="95"/>
       <c r="K151" s="95"/>
@@ -47232,16 +47224,16 @@
       <c r="A152" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B152" s="245" t="e">
+      <c r="B152" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C152" s="245"/>
-      <c r="D152" s="245"/>
-      <c r="E152" s="245"/>
-      <c r="F152" s="245"/>
-      <c r="G152" s="245"/>
-      <c r="H152" s="245"/>
+      <c r="C152" s="292"/>
+      <c r="D152" s="292"/>
+      <c r="E152" s="292"/>
+      <c r="F152" s="292"/>
+      <c r="G152" s="292"/>
+      <c r="H152" s="292"/>
       <c r="I152" s="95"/>
       <c r="J152" s="95"/>
       <c r="K152" s="95"/>
@@ -47261,16 +47253,16 @@
         <f>Cálculos!D160</f>
         <v>10</v>
       </c>
-      <c r="B153" s="245" t="e">
+      <c r="B153" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C153" s="245"/>
-      <c r="D153" s="245"/>
-      <c r="E153" s="245"/>
-      <c r="F153" s="245"/>
-      <c r="G153" s="245"/>
-      <c r="H153" s="245"/>
+      <c r="C153" s="292"/>
+      <c r="D153" s="292"/>
+      <c r="E153" s="292"/>
+      <c r="F153" s="292"/>
+      <c r="G153" s="292"/>
+      <c r="H153" s="292"/>
       <c r="I153" s="95"/>
       <c r="J153" s="95"/>
       <c r="K153" s="95"/>
@@ -47287,16 +47279,16 @@
     </row>
     <row r="154" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="127"/>
-      <c r="B154" s="245" t="e">
+      <c r="B154" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C154" s="245"/>
-      <c r="D154" s="245"/>
-      <c r="E154" s="245"/>
-      <c r="F154" s="245"/>
-      <c r="G154" s="245"/>
-      <c r="H154" s="245"/>
+      <c r="C154" s="292"/>
+      <c r="D154" s="292"/>
+      <c r="E154" s="292"/>
+      <c r="F154" s="292"/>
+      <c r="G154" s="292"/>
+      <c r="H154" s="292"/>
       <c r="I154" s="95"/>
       <c r="J154" s="95"/>
       <c r="K154" s="95"/>
@@ -47313,16 +47305,16 @@
     </row>
     <row r="155" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="126"/>
-      <c r="B155" s="246" t="e">
+      <c r="B155" s="293" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C155" s="246"/>
-      <c r="D155" s="246"/>
-      <c r="E155" s="246"/>
-      <c r="F155" s="246"/>
-      <c r="G155" s="246"/>
-      <c r="H155" s="246"/>
+      <c r="C155" s="293"/>
+      <c r="D155" s="293"/>
+      <c r="E155" s="293"/>
+      <c r="F155" s="293"/>
+      <c r="G155" s="293"/>
+      <c r="H155" s="293"/>
       <c r="I155" s="95"/>
       <c r="J155" s="95"/>
       <c r="K155" s="95"/>
@@ -47341,15 +47333,15 @@
       <c r="A156" s="125" t="s">
         <v>351</v>
       </c>
-      <c r="B156" s="284" t="s">
+      <c r="B156" s="295" t="s">
         <v>124</v>
       </c>
-      <c r="C156" s="284"/>
-      <c r="D156" s="284"/>
-      <c r="E156" s="284"/>
-      <c r="F156" s="284"/>
-      <c r="G156" s="284"/>
-      <c r="H156" s="284"/>
+      <c r="C156" s="295"/>
+      <c r="D156" s="295"/>
+      <c r="E156" s="295"/>
+      <c r="F156" s="295"/>
+      <c r="G156" s="295"/>
+      <c r="H156" s="295"/>
       <c r="I156" s="95"/>
       <c r="J156" s="95"/>
       <c r="K156" s="95"/>
@@ -47365,16 +47357,16 @@
       <c r="U156" s="95"/>
     </row>
     <row r="157" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="245" t="e">
+      <c r="B157" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C157" s="245"/>
-      <c r="D157" s="245"/>
-      <c r="E157" s="245"/>
-      <c r="F157" s="245"/>
-      <c r="G157" s="245"/>
-      <c r="H157" s="245"/>
+      <c r="C157" s="292"/>
+      <c r="D157" s="292"/>
+      <c r="E157" s="292"/>
+      <c r="F157" s="292"/>
+      <c r="G157" s="292"/>
+      <c r="H157" s="292"/>
       <c r="I157" s="95"/>
       <c r="J157" s="95"/>
       <c r="K157" s="95"/>
@@ -47393,16 +47385,16 @@
       <c r="A158" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B158" s="245" t="e">
+      <c r="B158" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C158" s="245"/>
-      <c r="D158" s="245"/>
-      <c r="E158" s="245"/>
-      <c r="F158" s="245"/>
-      <c r="G158" s="245"/>
-      <c r="H158" s="245"/>
+      <c r="C158" s="292"/>
+      <c r="D158" s="292"/>
+      <c r="E158" s="292"/>
+      <c r="F158" s="292"/>
+      <c r="G158" s="292"/>
+      <c r="H158" s="292"/>
       <c r="I158" s="95"/>
       <c r="J158" s="95"/>
       <c r="K158" s="95"/>
@@ -47422,16 +47414,16 @@
         <f>Cálculos!D161</f>
         <v>10</v>
       </c>
-      <c r="B159" s="245" t="e">
+      <c r="B159" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C159" s="245"/>
-      <c r="D159" s="245"/>
-      <c r="E159" s="245"/>
-      <c r="F159" s="245"/>
-      <c r="G159" s="245"/>
-      <c r="H159" s="245"/>
+      <c r="C159" s="292"/>
+      <c r="D159" s="292"/>
+      <c r="E159" s="292"/>
+      <c r="F159" s="292"/>
+      <c r="G159" s="292"/>
+      <c r="H159" s="292"/>
       <c r="I159" s="95"/>
       <c r="J159" s="95"/>
       <c r="K159" s="95"/>
@@ -47448,16 +47440,16 @@
     </row>
     <row r="160" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="127"/>
-      <c r="B160" s="245" t="e">
+      <c r="B160" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C160" s="245"/>
-      <c r="D160" s="245"/>
-      <c r="E160" s="245"/>
-      <c r="F160" s="245"/>
-      <c r="G160" s="245"/>
-      <c r="H160" s="245"/>
+      <c r="C160" s="292"/>
+      <c r="D160" s="292"/>
+      <c r="E160" s="292"/>
+      <c r="F160" s="292"/>
+      <c r="G160" s="292"/>
+      <c r="H160" s="292"/>
       <c r="I160" s="95"/>
       <c r="J160" s="95"/>
       <c r="K160" s="95"/>
@@ -47474,16 +47466,16 @@
     </row>
     <row r="161" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="126"/>
-      <c r="B161" s="246" t="e">
+      <c r="B161" s="293" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C161" s="246"/>
-      <c r="D161" s="246"/>
-      <c r="E161" s="246"/>
-      <c r="F161" s="246"/>
-      <c r="G161" s="246"/>
-      <c r="H161" s="246"/>
+      <c r="C161" s="293"/>
+      <c r="D161" s="293"/>
+      <c r="E161" s="293"/>
+      <c r="F161" s="293"/>
+      <c r="G161" s="293"/>
+      <c r="H161" s="293"/>
       <c r="I161" s="95"/>
       <c r="J161" s="95"/>
       <c r="K161" s="95"/>
@@ -47502,15 +47494,15 @@
       <c r="A162" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="B162" s="247" t="s">
+      <c r="B162" s="294" t="s">
         <v>125</v>
       </c>
-      <c r="C162" s="247"/>
-      <c r="D162" s="247"/>
-      <c r="E162" s="247"/>
-      <c r="F162" s="247"/>
-      <c r="G162" s="247"/>
-      <c r="H162" s="247"/>
+      <c r="C162" s="294"/>
+      <c r="D162" s="294"/>
+      <c r="E162" s="294"/>
+      <c r="F162" s="294"/>
+      <c r="G162" s="294"/>
+      <c r="H162" s="294"/>
       <c r="I162" s="95"/>
       <c r="J162" s="95"/>
       <c r="K162" s="95"/>
@@ -47526,16 +47518,16 @@
       <c r="U162" s="95"/>
     </row>
     <row r="163" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="245" t="e">
+      <c r="B163" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C163" s="245"/>
-      <c r="D163" s="245"/>
-      <c r="E163" s="245"/>
-      <c r="F163" s="245"/>
-      <c r="G163" s="245"/>
-      <c r="H163" s="245"/>
+      <c r="C163" s="292"/>
+      <c r="D163" s="292"/>
+      <c r="E163" s="292"/>
+      <c r="F163" s="292"/>
+      <c r="G163" s="292"/>
+      <c r="H163" s="292"/>
       <c r="I163" s="95"/>
       <c r="J163" s="95"/>
       <c r="K163" s="95"/>
@@ -47554,16 +47546,16 @@
       <c r="A164" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B164" s="245" t="e">
+      <c r="B164" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C164" s="245"/>
-      <c r="D164" s="245"/>
-      <c r="E164" s="245"/>
-      <c r="F164" s="245"/>
-      <c r="G164" s="245"/>
-      <c r="H164" s="245"/>
+      <c r="C164" s="292"/>
+      <c r="D164" s="292"/>
+      <c r="E164" s="292"/>
+      <c r="F164" s="292"/>
+      <c r="G164" s="292"/>
+      <c r="H164" s="292"/>
       <c r="I164" s="95"/>
       <c r="J164" s="95"/>
       <c r="K164" s="95"/>
@@ -47583,16 +47575,16 @@
         <f>Cálculos!D162</f>
         <v>10</v>
       </c>
-      <c r="B165" s="245" t="e">
+      <c r="B165" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C165" s="245"/>
-      <c r="D165" s="245"/>
-      <c r="E165" s="245"/>
-      <c r="F165" s="245"/>
-      <c r="G165" s="245"/>
-      <c r="H165" s="245"/>
+      <c r="C165" s="292"/>
+      <c r="D165" s="292"/>
+      <c r="E165" s="292"/>
+      <c r="F165" s="292"/>
+      <c r="G165" s="292"/>
+      <c r="H165" s="292"/>
       <c r="I165" s="95"/>
       <c r="J165" s="95"/>
       <c r="K165" s="95"/>
@@ -47609,16 +47601,16 @@
     </row>
     <row r="166" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="127"/>
-      <c r="B166" s="245" t="e">
+      <c r="B166" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C166" s="245"/>
-      <c r="D166" s="245"/>
-      <c r="E166" s="245"/>
-      <c r="F166" s="245"/>
-      <c r="G166" s="245"/>
-      <c r="H166" s="245"/>
+      <c r="C166" s="292"/>
+      <c r="D166" s="292"/>
+      <c r="E166" s="292"/>
+      <c r="F166" s="292"/>
+      <c r="G166" s="292"/>
+      <c r="H166" s="292"/>
       <c r="I166" s="95"/>
       <c r="J166" s="95"/>
       <c r="K166" s="95"/>
@@ -47635,16 +47627,16 @@
     </row>
     <row r="167" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="126"/>
-      <c r="B167" s="245" t="e">
+      <c r="B167" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C167" s="245"/>
-      <c r="D167" s="245"/>
-      <c r="E167" s="245"/>
-      <c r="F167" s="245"/>
-      <c r="G167" s="245"/>
-      <c r="H167" s="245"/>
+      <c r="C167" s="292"/>
+      <c r="D167" s="292"/>
+      <c r="E167" s="292"/>
+      <c r="F167" s="292"/>
+      <c r="G167" s="292"/>
+      <c r="H167" s="292"/>
       <c r="I167" s="95"/>
       <c r="J167" s="95"/>
       <c r="K167" s="95"/>
@@ -47663,15 +47655,15 @@
       <c r="A168" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="B168" s="246" t="s">
+      <c r="B168" s="293" t="s">
         <v>126</v>
       </c>
-      <c r="C168" s="246"/>
-      <c r="D168" s="246"/>
-      <c r="E168" s="246"/>
-      <c r="F168" s="246"/>
-      <c r="G168" s="246"/>
-      <c r="H168" s="246"/>
+      <c r="C168" s="293"/>
+      <c r="D168" s="293"/>
+      <c r="E168" s="293"/>
+      <c r="F168" s="293"/>
+      <c r="G168" s="293"/>
+      <c r="H168" s="293"/>
       <c r="I168" s="95"/>
       <c r="J168" s="95"/>
       <c r="K168" s="95"/>
@@ -47687,16 +47679,16 @@
       <c r="U168" s="95"/>
     </row>
     <row r="169" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="245" t="e">
+      <c r="B169" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C169" s="245"/>
-      <c r="D169" s="245"/>
-      <c r="E169" s="245"/>
-      <c r="F169" s="245"/>
-      <c r="G169" s="245"/>
-      <c r="H169" s="245"/>
+      <c r="C169" s="292"/>
+      <c r="D169" s="292"/>
+      <c r="E169" s="292"/>
+      <c r="F169" s="292"/>
+      <c r="G169" s="292"/>
+      <c r="H169" s="292"/>
       <c r="I169" s="95"/>
       <c r="J169" s="95"/>
       <c r="K169" s="95"/>
@@ -47715,16 +47707,16 @@
       <c r="A170" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B170" s="245" t="e">
+      <c r="B170" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C170" s="245"/>
-      <c r="D170" s="245"/>
-      <c r="E170" s="245"/>
-      <c r="F170" s="245"/>
-      <c r="G170" s="245"/>
-      <c r="H170" s="245"/>
+      <c r="C170" s="292"/>
+      <c r="D170" s="292"/>
+      <c r="E170" s="292"/>
+      <c r="F170" s="292"/>
+      <c r="G170" s="292"/>
+      <c r="H170" s="292"/>
       <c r="I170" s="95"/>
       <c r="J170" s="95"/>
       <c r="K170" s="95"/>
@@ -47744,16 +47736,16 @@
         <f>Cálculos!#REF! &amp; " (Copy)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B171" s="245" t="e">
+      <c r="B171" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C171" s="245"/>
-      <c r="D171" s="245"/>
-      <c r="E171" s="245"/>
-      <c r="F171" s="245"/>
-      <c r="G171" s="245"/>
-      <c r="H171" s="245"/>
+      <c r="C171" s="292"/>
+      <c r="D171" s="292"/>
+      <c r="E171" s="292"/>
+      <c r="F171" s="292"/>
+      <c r="G171" s="292"/>
+      <c r="H171" s="292"/>
       <c r="I171" s="95"/>
       <c r="J171" s="95"/>
       <c r="K171" s="95"/>
@@ -47773,16 +47765,16 @@
         <f>Cálculos!#REF!&amp; " (DDHH)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B172" s="245" t="e">
+      <c r="B172" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C172" s="245"/>
-      <c r="D172" s="245"/>
-      <c r="E172" s="245"/>
-      <c r="F172" s="245"/>
-      <c r="G172" s="245"/>
-      <c r="H172" s="245"/>
+      <c r="C172" s="292"/>
+      <c r="D172" s="292"/>
+      <c r="E172" s="292"/>
+      <c r="F172" s="292"/>
+      <c r="G172" s="292"/>
+      <c r="H172" s="292"/>
       <c r="I172" s="95"/>
       <c r="J172" s="95"/>
       <c r="K172" s="95"/>
@@ -47799,16 +47791,16 @@
     </row>
     <row r="173" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="126"/>
-      <c r="B173" s="246" t="e">
+      <c r="B173" s="293" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C173" s="246"/>
-      <c r="D173" s="246"/>
-      <c r="E173" s="246"/>
-      <c r="F173" s="246"/>
-      <c r="G173" s="246"/>
-      <c r="H173" s="246"/>
+      <c r="C173" s="293"/>
+      <c r="D173" s="293"/>
+      <c r="E173" s="293"/>
+      <c r="F173" s="293"/>
+      <c r="G173" s="293"/>
+      <c r="H173" s="293"/>
       <c r="I173" s="95"/>
       <c r="J173" s="95"/>
       <c r="K173" s="95"/>
@@ -47827,15 +47819,15 @@
       <c r="A174" s="126" t="s">
         <v>354</v>
       </c>
-      <c r="B174" s="247" t="s">
+      <c r="B174" s="294" t="s">
         <v>127</v>
       </c>
-      <c r="C174" s="247"/>
-      <c r="D174" s="247"/>
-      <c r="E174" s="247"/>
-      <c r="F174" s="247"/>
-      <c r="G174" s="247"/>
-      <c r="H174" s="247"/>
+      <c r="C174" s="294"/>
+      <c r="D174" s="294"/>
+      <c r="E174" s="294"/>
+      <c r="F174" s="294"/>
+      <c r="G174" s="294"/>
+      <c r="H174" s="294"/>
       <c r="I174" s="95"/>
       <c r="J174" s="95"/>
       <c r="K174" s="95"/>
@@ -47851,16 +47843,16 @@
       <c r="U174" s="95"/>
     </row>
     <row r="175" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="245" t="e">
+      <c r="B175" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C175" s="245"/>
-      <c r="D175" s="245"/>
-      <c r="E175" s="245"/>
-      <c r="F175" s="245"/>
-      <c r="G175" s="245"/>
-      <c r="H175" s="245"/>
+      <c r="C175" s="292"/>
+      <c r="D175" s="292"/>
+      <c r="E175" s="292"/>
+      <c r="F175" s="292"/>
+      <c r="G175" s="292"/>
+      <c r="H175" s="292"/>
       <c r="I175" s="95"/>
       <c r="J175" s="95"/>
       <c r="K175" s="95"/>
@@ -47879,16 +47871,16 @@
       <c r="A176" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B176" s="245" t="e">
+      <c r="B176" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C176" s="245"/>
-      <c r="D176" s="245"/>
-      <c r="E176" s="245"/>
-      <c r="F176" s="245"/>
-      <c r="G176" s="245"/>
-      <c r="H176" s="245"/>
+      <c r="C176" s="292"/>
+      <c r="D176" s="292"/>
+      <c r="E176" s="292"/>
+      <c r="F176" s="292"/>
+      <c r="G176" s="292"/>
+      <c r="H176" s="292"/>
       <c r="I176" s="95"/>
       <c r="J176" s="95"/>
       <c r="K176" s="95"/>
@@ -47908,16 +47900,16 @@
         <f>Cálculos!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B177" s="245" t="e">
+      <c r="B177" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C177" s="245"/>
-      <c r="D177" s="245"/>
-      <c r="E177" s="245"/>
-      <c r="F177" s="245"/>
-      <c r="G177" s="245"/>
-      <c r="H177" s="245"/>
+      <c r="C177" s="292"/>
+      <c r="D177" s="292"/>
+      <c r="E177" s="292"/>
+      <c r="F177" s="292"/>
+      <c r="G177" s="292"/>
+      <c r="H177" s="292"/>
       <c r="I177" s="95"/>
       <c r="J177" s="95"/>
       <c r="K177" s="95"/>
@@ -47934,16 +47926,16 @@
     </row>
     <row r="178" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="127"/>
-      <c r="B178" s="245" t="e">
+      <c r="B178" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C178" s="245"/>
-      <c r="D178" s="245"/>
-      <c r="E178" s="245"/>
-      <c r="F178" s="245"/>
-      <c r="G178" s="245"/>
-      <c r="H178" s="245"/>
+      <c r="C178" s="292"/>
+      <c r="D178" s="292"/>
+      <c r="E178" s="292"/>
+      <c r="F178" s="292"/>
+      <c r="G178" s="292"/>
+      <c r="H178" s="292"/>
       <c r="I178" s="95"/>
       <c r="J178" s="95"/>
       <c r="K178" s="95"/>
@@ -47960,16 +47952,16 @@
     </row>
     <row r="179" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="126"/>
-      <c r="B179" s="246" t="e">
+      <c r="B179" s="293" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C179" s="246"/>
-      <c r="D179" s="246"/>
-      <c r="E179" s="246"/>
-      <c r="F179" s="246"/>
-      <c r="G179" s="246"/>
-      <c r="H179" s="246"/>
+      <c r="C179" s="293"/>
+      <c r="D179" s="293"/>
+      <c r="E179" s="293"/>
+      <c r="F179" s="293"/>
+      <c r="G179" s="293"/>
+      <c r="H179" s="293"/>
       <c r="I179" s="95"/>
       <c r="J179" s="95"/>
       <c r="K179" s="95"/>
@@ -47988,15 +47980,15 @@
       <c r="A180" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="B180" s="247" t="s">
+      <c r="B180" s="294" t="s">
         <v>128</v>
       </c>
-      <c r="C180" s="247"/>
-      <c r="D180" s="247"/>
-      <c r="E180" s="247"/>
-      <c r="F180" s="247"/>
-      <c r="G180" s="247"/>
-      <c r="H180" s="247"/>
+      <c r="C180" s="294"/>
+      <c r="D180" s="294"/>
+      <c r="E180" s="294"/>
+      <c r="F180" s="294"/>
+      <c r="G180" s="294"/>
+      <c r="H180" s="294"/>
       <c r="I180" s="95"/>
       <c r="J180" s="95"/>
       <c r="K180" s="95"/>
@@ -48012,16 +48004,16 @@
       <c r="U180" s="95"/>
     </row>
     <row r="181" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="245" t="e">
+      <c r="B181" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C181" s="245"/>
-      <c r="D181" s="245"/>
-      <c r="E181" s="245"/>
-      <c r="F181" s="245"/>
-      <c r="G181" s="245"/>
-      <c r="H181" s="245"/>
+      <c r="C181" s="292"/>
+      <c r="D181" s="292"/>
+      <c r="E181" s="292"/>
+      <c r="F181" s="292"/>
+      <c r="G181" s="292"/>
+      <c r="H181" s="292"/>
       <c r="I181" s="95"/>
       <c r="J181" s="95"/>
       <c r="K181" s="95"/>
@@ -48040,16 +48032,16 @@
       <c r="A182" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B182" s="245" t="e">
+      <c r="B182" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C182" s="245"/>
-      <c r="D182" s="245"/>
-      <c r="E182" s="245"/>
-      <c r="F182" s="245"/>
-      <c r="G182" s="245"/>
-      <c r="H182" s="245"/>
+      <c r="C182" s="292"/>
+      <c r="D182" s="292"/>
+      <c r="E182" s="292"/>
+      <c r="F182" s="292"/>
+      <c r="G182" s="292"/>
+      <c r="H182" s="292"/>
       <c r="I182" s="95"/>
       <c r="J182" s="95"/>
       <c r="K182" s="95"/>
@@ -48069,16 +48061,16 @@
         <f>Cálculos!D163</f>
         <v>10</v>
       </c>
-      <c r="B183" s="245" t="e">
+      <c r="B183" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C183" s="245"/>
-      <c r="D183" s="245"/>
-      <c r="E183" s="245"/>
-      <c r="F183" s="245"/>
-      <c r="G183" s="245"/>
-      <c r="H183" s="245"/>
+      <c r="C183" s="292"/>
+      <c r="D183" s="292"/>
+      <c r="E183" s="292"/>
+      <c r="F183" s="292"/>
+      <c r="G183" s="292"/>
+      <c r="H183" s="292"/>
       <c r="I183" s="95"/>
       <c r="J183" s="95"/>
       <c r="K183" s="95"/>
@@ -48095,16 +48087,16 @@
     </row>
     <row r="184" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="127"/>
-      <c r="B184" s="245" t="e">
+      <c r="B184" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C184" s="245"/>
-      <c r="D184" s="245"/>
-      <c r="E184" s="245"/>
-      <c r="F184" s="245"/>
-      <c r="G184" s="245"/>
-      <c r="H184" s="245"/>
+      <c r="C184" s="292"/>
+      <c r="D184" s="292"/>
+      <c r="E184" s="292"/>
+      <c r="F184" s="292"/>
+      <c r="G184" s="292"/>
+      <c r="H184" s="292"/>
       <c r="I184" s="95"/>
       <c r="J184" s="95"/>
       <c r="K184" s="95"/>
@@ -48121,16 +48113,16 @@
     </row>
     <row r="185" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="126"/>
-      <c r="B185" s="246" t="e">
+      <c r="B185" s="293" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C185" s="246"/>
-      <c r="D185" s="246"/>
-      <c r="E185" s="246"/>
-      <c r="F185" s="246"/>
-      <c r="G185" s="246"/>
-      <c r="H185" s="246"/>
+      <c r="C185" s="293"/>
+      <c r="D185" s="293"/>
+      <c r="E185" s="293"/>
+      <c r="F185" s="293"/>
+      <c r="G185" s="293"/>
+      <c r="H185" s="293"/>
       <c r="I185" s="95"/>
       <c r="J185" s="95"/>
       <c r="K185" s="95"/>
@@ -48149,15 +48141,15 @@
       <c r="A186" s="126" t="s">
         <v>356</v>
       </c>
-      <c r="B186" s="247" t="s">
+      <c r="B186" s="294" t="s">
         <v>129</v>
       </c>
-      <c r="C186" s="247"/>
-      <c r="D186" s="247"/>
-      <c r="E186" s="247"/>
-      <c r="F186" s="247"/>
-      <c r="G186" s="247"/>
-      <c r="H186" s="247"/>
+      <c r="C186" s="294"/>
+      <c r="D186" s="294"/>
+      <c r="E186" s="294"/>
+      <c r="F186" s="294"/>
+      <c r="G186" s="294"/>
+      <c r="H186" s="294"/>
       <c r="I186" s="95"/>
       <c r="J186" s="95"/>
       <c r="K186" s="95"/>
@@ -48173,16 +48165,16 @@
       <c r="U186" s="95"/>
     </row>
     <row r="187" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="245" t="e">
+      <c r="B187" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C187" s="245"/>
-      <c r="D187" s="245"/>
-      <c r="E187" s="245"/>
-      <c r="F187" s="245"/>
-      <c r="G187" s="245"/>
-      <c r="H187" s="245"/>
+      <c r="C187" s="292"/>
+      <c r="D187" s="292"/>
+      <c r="E187" s="292"/>
+      <c r="F187" s="292"/>
+      <c r="G187" s="292"/>
+      <c r="H187" s="292"/>
       <c r="I187" s="95"/>
       <c r="J187" s="95"/>
       <c r="K187" s="95"/>
@@ -48201,16 +48193,16 @@
       <c r="A188" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B188" s="245" t="e">
+      <c r="B188" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C188" s="245"/>
-      <c r="D188" s="245"/>
-      <c r="E188" s="245"/>
-      <c r="F188" s="245"/>
-      <c r="G188" s="245"/>
-      <c r="H188" s="245"/>
+      <c r="C188" s="292"/>
+      <c r="D188" s="292"/>
+      <c r="E188" s="292"/>
+      <c r="F188" s="292"/>
+      <c r="G188" s="292"/>
+      <c r="H188" s="292"/>
       <c r="I188" s="95"/>
       <c r="J188" s="95"/>
       <c r="K188" s="95"/>
@@ -48230,16 +48222,16 @@
         <f>Cálculos!D164</f>
         <v>10</v>
       </c>
-      <c r="B189" s="245" t="e">
+      <c r="B189" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C189" s="245"/>
-      <c r="D189" s="245"/>
-      <c r="E189" s="245"/>
-      <c r="F189" s="245"/>
-      <c r="G189" s="245"/>
-      <c r="H189" s="245"/>
+      <c r="C189" s="292"/>
+      <c r="D189" s="292"/>
+      <c r="E189" s="292"/>
+      <c r="F189" s="292"/>
+      <c r="G189" s="292"/>
+      <c r="H189" s="292"/>
       <c r="I189" s="95"/>
       <c r="J189" s="95"/>
       <c r="K189" s="95"/>
@@ -48256,16 +48248,16 @@
     </row>
     <row r="190" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="127"/>
-      <c r="B190" s="245" t="e">
+      <c r="B190" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C190" s="245"/>
-      <c r="D190" s="245"/>
-      <c r="E190" s="245"/>
-      <c r="F190" s="245"/>
-      <c r="G190" s="245"/>
-      <c r="H190" s="245"/>
+      <c r="C190" s="292"/>
+      <c r="D190" s="292"/>
+      <c r="E190" s="292"/>
+      <c r="F190" s="292"/>
+      <c r="G190" s="292"/>
+      <c r="H190" s="292"/>
       <c r="I190" s="95"/>
       <c r="J190" s="95"/>
       <c r="K190" s="95"/>
@@ -48282,16 +48274,16 @@
     </row>
     <row r="191" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="126"/>
-      <c r="B191" s="246" t="e">
+      <c r="B191" s="293" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C191" s="246"/>
-      <c r="D191" s="246"/>
-      <c r="E191" s="246"/>
-      <c r="F191" s="246"/>
-      <c r="G191" s="246"/>
-      <c r="H191" s="246"/>
+      <c r="C191" s="293"/>
+      <c r="D191" s="293"/>
+      <c r="E191" s="293"/>
+      <c r="F191" s="293"/>
+      <c r="G191" s="293"/>
+      <c r="H191" s="293"/>
       <c r="I191" s="95"/>
       <c r="J191" s="95"/>
       <c r="K191" s="95"/>
@@ -48310,15 +48302,15 @@
       <c r="A192" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="B192" s="247" t="s">
+      <c r="B192" s="294" t="s">
         <v>130</v>
       </c>
-      <c r="C192" s="247"/>
-      <c r="D192" s="247"/>
-      <c r="E192" s="247"/>
-      <c r="F192" s="247"/>
-      <c r="G192" s="247"/>
-      <c r="H192" s="247"/>
+      <c r="C192" s="294"/>
+      <c r="D192" s="294"/>
+      <c r="E192" s="294"/>
+      <c r="F192" s="294"/>
+      <c r="G192" s="294"/>
+      <c r="H192" s="294"/>
       <c r="I192" s="95"/>
       <c r="J192" s="95"/>
       <c r="K192" s="95"/>
@@ -48334,16 +48326,16 @@
       <c r="U192" s="95"/>
     </row>
     <row r="193" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="245" t="e">
+      <c r="B193" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C193" s="245"/>
-      <c r="D193" s="245"/>
-      <c r="E193" s="245"/>
-      <c r="F193" s="245"/>
-      <c r="G193" s="245"/>
-      <c r="H193" s="245"/>
+      <c r="C193" s="292"/>
+      <c r="D193" s="292"/>
+      <c r="E193" s="292"/>
+      <c r="F193" s="292"/>
+      <c r="G193" s="292"/>
+      <c r="H193" s="292"/>
       <c r="I193" s="95"/>
       <c r="J193" s="95"/>
       <c r="K193" s="95"/>
@@ -48362,16 +48354,16 @@
       <c r="A194" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B194" s="245" t="e">
+      <c r="B194" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C194" s="245"/>
-      <c r="D194" s="245"/>
-      <c r="E194" s="245"/>
-      <c r="F194" s="245"/>
-      <c r="G194" s="245"/>
-      <c r="H194" s="245"/>
+      <c r="C194" s="292"/>
+      <c r="D194" s="292"/>
+      <c r="E194" s="292"/>
+      <c r="F194" s="292"/>
+      <c r="G194" s="292"/>
+      <c r="H194" s="292"/>
       <c r="I194" s="95"/>
       <c r="J194" s="95"/>
       <c r="K194" s="95"/>
@@ -48391,16 +48383,16 @@
         <f>Cálculos!D165</f>
         <v>10</v>
       </c>
-      <c r="B195" s="245" t="e">
+      <c r="B195" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C195" s="245"/>
-      <c r="D195" s="245"/>
-      <c r="E195" s="245"/>
-      <c r="F195" s="245"/>
-      <c r="G195" s="245"/>
-      <c r="H195" s="245"/>
+      <c r="C195" s="292"/>
+      <c r="D195" s="292"/>
+      <c r="E195" s="292"/>
+      <c r="F195" s="292"/>
+      <c r="G195" s="292"/>
+      <c r="H195" s="292"/>
       <c r="I195" s="95"/>
       <c r="J195" s="95"/>
       <c r="K195" s="95"/>
@@ -48417,16 +48409,16 @@
     </row>
     <row r="196" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="127"/>
-      <c r="B196" s="245" t="e">
+      <c r="B196" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C196" s="245"/>
-      <c r="D196" s="245"/>
-      <c r="E196" s="245"/>
-      <c r="F196" s="245"/>
-      <c r="G196" s="245"/>
-      <c r="H196" s="245"/>
+      <c r="C196" s="292"/>
+      <c r="D196" s="292"/>
+      <c r="E196" s="292"/>
+      <c r="F196" s="292"/>
+      <c r="G196" s="292"/>
+      <c r="H196" s="292"/>
       <c r="I196" s="95"/>
       <c r="J196" s="95"/>
       <c r="K196" s="95"/>
@@ -48443,16 +48435,16 @@
     </row>
     <row r="197" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="126"/>
-      <c r="B197" s="245" t="e">
+      <c r="B197" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C197" s="245"/>
-      <c r="D197" s="245"/>
-      <c r="E197" s="245"/>
-      <c r="F197" s="245"/>
-      <c r="G197" s="245"/>
-      <c r="H197" s="245"/>
+      <c r="C197" s="292"/>
+      <c r="D197" s="292"/>
+      <c r="E197" s="292"/>
+      <c r="F197" s="292"/>
+      <c r="G197" s="292"/>
+      <c r="H197" s="292"/>
       <c r="I197" s="95"/>
       <c r="J197" s="95"/>
       <c r="K197" s="95"/>
@@ -48471,15 +48463,15 @@
       <c r="A198" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="B198" s="246" t="s">
+      <c r="B198" s="293" t="s">
         <v>131</v>
       </c>
-      <c r="C198" s="246"/>
-      <c r="D198" s="246"/>
-      <c r="E198" s="246"/>
-      <c r="F198" s="246"/>
-      <c r="G198" s="246"/>
-      <c r="H198" s="246"/>
+      <c r="C198" s="293"/>
+      <c r="D198" s="293"/>
+      <c r="E198" s="293"/>
+      <c r="F198" s="293"/>
+      <c r="G198" s="293"/>
+      <c r="H198" s="293"/>
       <c r="I198" s="95"/>
       <c r="J198" s="95"/>
       <c r="K198" s="95"/>
@@ -48495,16 +48487,16 @@
       <c r="U198" s="95"/>
     </row>
     <row r="199" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="245" t="e">
+      <c r="B199" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C199" s="245"/>
-      <c r="D199" s="245"/>
-      <c r="E199" s="245"/>
-      <c r="F199" s="245"/>
-      <c r="G199" s="245"/>
-      <c r="H199" s="245"/>
+      <c r="C199" s="292"/>
+      <c r="D199" s="292"/>
+      <c r="E199" s="292"/>
+      <c r="F199" s="292"/>
+      <c r="G199" s="292"/>
+      <c r="H199" s="292"/>
       <c r="I199" s="95"/>
       <c r="J199" s="95"/>
       <c r="K199" s="95"/>
@@ -48523,16 +48515,16 @@
       <c r="A200" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B200" s="245" t="e">
+      <c r="B200" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C200" s="245"/>
-      <c r="D200" s="245"/>
-      <c r="E200" s="245"/>
-      <c r="F200" s="245"/>
-      <c r="G200" s="245"/>
-      <c r="H200" s="245"/>
+      <c r="C200" s="292"/>
+      <c r="D200" s="292"/>
+      <c r="E200" s="292"/>
+      <c r="F200" s="292"/>
+      <c r="G200" s="292"/>
+      <c r="H200" s="292"/>
       <c r="I200" s="95"/>
       <c r="J200" s="95"/>
       <c r="K200" s="95"/>
@@ -48552,16 +48544,16 @@
         <f>Cálculos!D166</f>
         <v>10</v>
       </c>
-      <c r="B201" s="245" t="e">
+      <c r="B201" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C201" s="245"/>
-      <c r="D201" s="245"/>
-      <c r="E201" s="245"/>
-      <c r="F201" s="245"/>
-      <c r="G201" s="245"/>
-      <c r="H201" s="245"/>
+      <c r="C201" s="292"/>
+      <c r="D201" s="292"/>
+      <c r="E201" s="292"/>
+      <c r="F201" s="292"/>
+      <c r="G201" s="292"/>
+      <c r="H201" s="292"/>
       <c r="I201" s="95"/>
       <c r="J201" s="95"/>
       <c r="K201" s="95"/>
@@ -48578,16 +48570,16 @@
     </row>
     <row r="202" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="127"/>
-      <c r="B202" s="245" t="e">
+      <c r="B202" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C202" s="245"/>
-      <c r="D202" s="245"/>
-      <c r="E202" s="245"/>
-      <c r="F202" s="245"/>
-      <c r="G202" s="245"/>
-      <c r="H202" s="245"/>
+      <c r="C202" s="292"/>
+      <c r="D202" s="292"/>
+      <c r="E202" s="292"/>
+      <c r="F202" s="292"/>
+      <c r="G202" s="292"/>
+      <c r="H202" s="292"/>
       <c r="I202" s="95"/>
       <c r="J202" s="95"/>
       <c r="K202" s="95"/>
@@ -48604,16 +48596,16 @@
     </row>
     <row r="203" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="126"/>
-      <c r="B203" s="245" t="e">
+      <c r="B203" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C203" s="245"/>
-      <c r="D203" s="245"/>
-      <c r="E203" s="245"/>
-      <c r="F203" s="245"/>
-      <c r="G203" s="245"/>
-      <c r="H203" s="245"/>
+      <c r="C203" s="292"/>
+      <c r="D203" s="292"/>
+      <c r="E203" s="292"/>
+      <c r="F203" s="292"/>
+      <c r="G203" s="292"/>
+      <c r="H203" s="292"/>
       <c r="I203" s="95"/>
       <c r="J203" s="95"/>
       <c r="K203" s="95"/>
@@ -48632,15 +48624,15 @@
       <c r="A204" s="126" t="s">
         <v>359</v>
       </c>
-      <c r="B204" s="246" t="s">
+      <c r="B204" s="293" t="s">
         <v>132</v>
       </c>
-      <c r="C204" s="246"/>
-      <c r="D204" s="246"/>
-      <c r="E204" s="246"/>
-      <c r="F204" s="246"/>
-      <c r="G204" s="246"/>
-      <c r="H204" s="246"/>
+      <c r="C204" s="293"/>
+      <c r="D204" s="293"/>
+      <c r="E204" s="293"/>
+      <c r="F204" s="293"/>
+      <c r="G204" s="293"/>
+      <c r="H204" s="293"/>
       <c r="I204" s="95"/>
       <c r="J204" s="95"/>
       <c r="K204" s="95"/>
@@ -48656,16 +48648,16 @@
       <c r="U204" s="95"/>
     </row>
     <row r="205" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="245" t="e">
+      <c r="B205" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C205" s="245"/>
-      <c r="D205" s="245"/>
-      <c r="E205" s="245"/>
-      <c r="F205" s="245"/>
-      <c r="G205" s="245"/>
-      <c r="H205" s="245"/>
+      <c r="C205" s="292"/>
+      <c r="D205" s="292"/>
+      <c r="E205" s="292"/>
+      <c r="F205" s="292"/>
+      <c r="G205" s="292"/>
+      <c r="H205" s="292"/>
       <c r="I205" s="95"/>
       <c r="J205" s="95"/>
       <c r="K205" s="95"/>
@@ -48684,16 +48676,16 @@
       <c r="A206" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B206" s="245" t="e">
+      <c r="B206" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C206" s="245"/>
-      <c r="D206" s="245"/>
-      <c r="E206" s="245"/>
-      <c r="F206" s="245"/>
-      <c r="G206" s="245"/>
-      <c r="H206" s="245"/>
+      <c r="C206" s="292"/>
+      <c r="D206" s="292"/>
+      <c r="E206" s="292"/>
+      <c r="F206" s="292"/>
+      <c r="G206" s="292"/>
+      <c r="H206" s="292"/>
       <c r="I206" s="95"/>
       <c r="J206" s="95"/>
       <c r="K206" s="95"/>
@@ -48713,16 +48705,16 @@
         <f>Cálculos!D167</f>
         <v>10</v>
       </c>
-      <c r="B207" s="245" t="e">
+      <c r="B207" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C207" s="245"/>
-      <c r="D207" s="245"/>
-      <c r="E207" s="245"/>
-      <c r="F207" s="245"/>
-      <c r="G207" s="245"/>
-      <c r="H207" s="245"/>
+      <c r="C207" s="292"/>
+      <c r="D207" s="292"/>
+      <c r="E207" s="292"/>
+      <c r="F207" s="292"/>
+      <c r="G207" s="292"/>
+      <c r="H207" s="292"/>
       <c r="I207" s="95"/>
       <c r="J207" s="95"/>
       <c r="K207" s="95"/>
@@ -48739,16 +48731,16 @@
     </row>
     <row r="208" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="127"/>
-      <c r="B208" s="245" t="e">
+      <c r="B208" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C208" s="245"/>
-      <c r="D208" s="245"/>
-      <c r="E208" s="245"/>
-      <c r="F208" s="245"/>
-      <c r="G208" s="245"/>
-      <c r="H208" s="245"/>
+      <c r="C208" s="292"/>
+      <c r="D208" s="292"/>
+      <c r="E208" s="292"/>
+      <c r="F208" s="292"/>
+      <c r="G208" s="292"/>
+      <c r="H208" s="292"/>
       <c r="I208" s="95"/>
       <c r="J208" s="95"/>
       <c r="K208" s="95"/>
@@ -48765,16 +48757,16 @@
     </row>
     <row r="209" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="126"/>
-      <c r="B209" s="245" t="e">
+      <c r="B209" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C209" s="245"/>
-      <c r="D209" s="245"/>
-      <c r="E209" s="245"/>
-      <c r="F209" s="245"/>
-      <c r="G209" s="245"/>
-      <c r="H209" s="245"/>
+      <c r="C209" s="292"/>
+      <c r="D209" s="292"/>
+      <c r="E209" s="292"/>
+      <c r="F209" s="292"/>
+      <c r="G209" s="292"/>
+      <c r="H209" s="292"/>
       <c r="I209" s="95"/>
       <c r="J209" s="95"/>
       <c r="K209" s="95"/>
@@ -48793,15 +48785,15 @@
       <c r="A210" s="126" t="s">
         <v>360</v>
       </c>
-      <c r="B210" s="246" t="s">
+      <c r="B210" s="293" t="s">
         <v>133</v>
       </c>
-      <c r="C210" s="246"/>
-      <c r="D210" s="246"/>
-      <c r="E210" s="246"/>
-      <c r="F210" s="246"/>
-      <c r="G210" s="246"/>
-      <c r="H210" s="246"/>
+      <c r="C210" s="293"/>
+      <c r="D210" s="293"/>
+      <c r="E210" s="293"/>
+      <c r="F210" s="293"/>
+      <c r="G210" s="293"/>
+      <c r="H210" s="293"/>
       <c r="I210" s="95"/>
       <c r="J210" s="95"/>
       <c r="K210" s="95"/>
@@ -48817,16 +48809,16 @@
       <c r="U210" s="95"/>
     </row>
     <row r="211" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="245" t="e">
+      <c r="B211" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C211" s="245"/>
-      <c r="D211" s="245"/>
-      <c r="E211" s="245"/>
-      <c r="F211" s="245"/>
-      <c r="G211" s="245"/>
-      <c r="H211" s="245"/>
+      <c r="C211" s="292"/>
+      <c r="D211" s="292"/>
+      <c r="E211" s="292"/>
+      <c r="F211" s="292"/>
+      <c r="G211" s="292"/>
+      <c r="H211" s="292"/>
       <c r="I211" s="95"/>
       <c r="J211" s="95"/>
       <c r="K211" s="95"/>
@@ -48845,16 +48837,16 @@
       <c r="A212" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B212" s="245" t="e">
+      <c r="B212" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C212" s="245"/>
-      <c r="D212" s="245"/>
-      <c r="E212" s="245"/>
-      <c r="F212" s="245"/>
-      <c r="G212" s="245"/>
-      <c r="H212" s="245"/>
+      <c r="C212" s="292"/>
+      <c r="D212" s="292"/>
+      <c r="E212" s="292"/>
+      <c r="F212" s="292"/>
+      <c r="G212" s="292"/>
+      <c r="H212" s="292"/>
       <c r="I212" s="95"/>
       <c r="J212" s="95"/>
       <c r="K212" s="95"/>
@@ -48874,16 +48866,16 @@
         <f>Cálculos!D168</f>
         <v>5</v>
       </c>
-      <c r="B213" s="245" t="e">
+      <c r="B213" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C213" s="245"/>
-      <c r="D213" s="245"/>
-      <c r="E213" s="245"/>
-      <c r="F213" s="245"/>
-      <c r="G213" s="245"/>
-      <c r="H213" s="245"/>
+      <c r="C213" s="292"/>
+      <c r="D213" s="292"/>
+      <c r="E213" s="292"/>
+      <c r="F213" s="292"/>
+      <c r="G213" s="292"/>
+      <c r="H213" s="292"/>
       <c r="I213" s="95"/>
       <c r="J213" s="95"/>
       <c r="K213" s="95"/>
@@ -48900,16 +48892,16 @@
     </row>
     <row r="214" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="127"/>
-      <c r="B214" s="245" t="e">
+      <c r="B214" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C214" s="245"/>
-      <c r="D214" s="245"/>
-      <c r="E214" s="245"/>
-      <c r="F214" s="245"/>
-      <c r="G214" s="245"/>
-      <c r="H214" s="245"/>
+      <c r="C214" s="292"/>
+      <c r="D214" s="292"/>
+      <c r="E214" s="292"/>
+      <c r="F214" s="292"/>
+      <c r="G214" s="292"/>
+      <c r="H214" s="292"/>
       <c r="I214" s="95"/>
       <c r="J214" s="95"/>
       <c r="K214" s="95"/>
@@ -48926,16 +48918,16 @@
     </row>
     <row r="215" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="126"/>
-      <c r="B215" s="245" t="e">
+      <c r="B215" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C215" s="245"/>
-      <c r="D215" s="245"/>
-      <c r="E215" s="245"/>
-      <c r="F215" s="245"/>
-      <c r="G215" s="245"/>
-      <c r="H215" s="245"/>
+      <c r="C215" s="292"/>
+      <c r="D215" s="292"/>
+      <c r="E215" s="292"/>
+      <c r="F215" s="292"/>
+      <c r="G215" s="292"/>
+      <c r="H215" s="292"/>
       <c r="I215" s="95"/>
       <c r="J215" s="95"/>
       <c r="K215" s="95"/>
@@ -48954,15 +48946,15 @@
       <c r="A216" s="126" t="s">
         <v>361</v>
       </c>
-      <c r="B216" s="246" t="s">
+      <c r="B216" s="293" t="s">
         <v>362</v>
       </c>
-      <c r="C216" s="246"/>
-      <c r="D216" s="246"/>
-      <c r="E216" s="246"/>
-      <c r="F216" s="246"/>
-      <c r="G216" s="246"/>
-      <c r="H216" s="246"/>
+      <c r="C216" s="293"/>
+      <c r="D216" s="293"/>
+      <c r="E216" s="293"/>
+      <c r="F216" s="293"/>
+      <c r="G216" s="293"/>
+      <c r="H216" s="293"/>
       <c r="I216" s="95"/>
       <c r="J216" s="95"/>
       <c r="K216" s="95"/>
@@ -48978,16 +48970,16 @@
       <c r="U216" s="95"/>
     </row>
     <row r="217" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="245" t="e">
+      <c r="B217" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C217" s="245"/>
-      <c r="D217" s="245"/>
-      <c r="E217" s="245"/>
-      <c r="F217" s="245"/>
-      <c r="G217" s="245"/>
-      <c r="H217" s="245"/>
+      <c r="C217" s="292"/>
+      <c r="D217" s="292"/>
+      <c r="E217" s="292"/>
+      <c r="F217" s="292"/>
+      <c r="G217" s="292"/>
+      <c r="H217" s="292"/>
       <c r="I217" s="95"/>
       <c r="J217" s="95"/>
       <c r="K217" s="95"/>
@@ -49006,16 +48998,16 @@
       <c r="A218" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B218" s="245" t="e">
+      <c r="B218" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C218" s="245"/>
-      <c r="D218" s="245"/>
-      <c r="E218" s="245"/>
-      <c r="F218" s="245"/>
-      <c r="G218" s="245"/>
-      <c r="H218" s="245"/>
+      <c r="C218" s="292"/>
+      <c r="D218" s="292"/>
+      <c r="E218" s="292"/>
+      <c r="F218" s="292"/>
+      <c r="G218" s="292"/>
+      <c r="H218" s="292"/>
       <c r="I218" s="95"/>
       <c r="J218" s="95"/>
       <c r="K218" s="95"/>
@@ -49035,16 +49027,16 @@
         <f>Cálculos!D169</f>
         <v>N/A</v>
       </c>
-      <c r="B219" s="245" t="e">
+      <c r="B219" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C219" s="245"/>
-      <c r="D219" s="245"/>
-      <c r="E219" s="245"/>
-      <c r="F219" s="245"/>
-      <c r="G219" s="245"/>
-      <c r="H219" s="245"/>
+      <c r="C219" s="292"/>
+      <c r="D219" s="292"/>
+      <c r="E219" s="292"/>
+      <c r="F219" s="292"/>
+      <c r="G219" s="292"/>
+      <c r="H219" s="292"/>
       <c r="I219" s="95"/>
       <c r="J219" s="95"/>
       <c r="K219" s="95"/>
@@ -49061,16 +49053,16 @@
     </row>
     <row r="220" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="127"/>
-      <c r="B220" s="245" t="e">
+      <c r="B220" s="292" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C220" s="245"/>
-      <c r="D220" s="245"/>
-      <c r="E220" s="245"/>
-      <c r="F220" s="245"/>
-      <c r="G220" s="245"/>
-      <c r="H220" s="245"/>
+      <c r="C220" s="292"/>
+      <c r="D220" s="292"/>
+      <c r="E220" s="292"/>
+      <c r="F220" s="292"/>
+      <c r="G220" s="292"/>
+      <c r="H220" s="292"/>
       <c r="I220" s="95"/>
       <c r="J220" s="95"/>
       <c r="K220" s="95"/>
@@ -49087,16 +49079,16 @@
     </row>
     <row r="221" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="126"/>
-      <c r="B221" s="246" t="e">
+      <c r="B221" s="293" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C221" s="246"/>
-      <c r="D221" s="246"/>
-      <c r="E221" s="246"/>
-      <c r="F221" s="246"/>
-      <c r="G221" s="246"/>
-      <c r="H221" s="246"/>
+      <c r="C221" s="293"/>
+      <c r="D221" s="293"/>
+      <c r="E221" s="293"/>
+      <c r="F221" s="293"/>
+      <c r="G221" s="293"/>
+      <c r="H221" s="293"/>
       <c r="I221" s="95"/>
       <c r="J221" s="95"/>
       <c r="K221" s="95"/>
@@ -49398,17 +49390,17 @@
         <v>554</v>
       </c>
       <c r="B234" s="214"/>
-      <c r="C234" s="292" t="s">
+      <c r="C234" s="279" t="s">
         <v>555</v>
       </c>
-      <c r="D234" s="292"/>
-      <c r="E234" s="292">
+      <c r="D234" s="279"/>
+      <c r="E234" s="279">
         <f>'Resultados Informe Final'!D3</f>
         <v>10</v>
       </c>
-      <c r="F234" s="292"/>
-      <c r="G234" s="292"/>
-      <c r="H234" s="292"/>
+      <c r="F234" s="279"/>
+      <c r="G234" s="279"/>
+      <c r="H234" s="279"/>
       <c r="I234" s="95"/>
       <c r="J234" s="95"/>
       <c r="K234" s="95"/>
@@ -49426,17 +49418,17 @@
     <row r="235" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="214"/>
       <c r="B235" s="214"/>
-      <c r="C235" s="292" t="s">
+      <c r="C235" s="279" t="s">
         <v>556</v>
       </c>
-      <c r="D235" s="292"/>
-      <c r="E235" s="292" t="str">
+      <c r="D235" s="279"/>
+      <c r="E235" s="279" t="str">
         <f>'Resultados Informe Final'!D4</f>
         <v>Mejoras en: motivación, dinámica de la clase, actitud hacia el estudio, integración, aprendizaje, mejora de los resultados académicos. La herramienta ha sido muy útil, indispensable no sería el término adecuado.</v>
       </c>
-      <c r="F235" s="292"/>
-      <c r="G235" s="292"/>
-      <c r="H235" s="292"/>
+      <c r="F235" s="279"/>
+      <c r="G235" s="279"/>
+      <c r="H235" s="279"/>
       <c r="I235" s="95"/>
       <c r="J235" s="95"/>
       <c r="K235" s="95"/>
@@ -49456,17 +49448,17 @@
         <v>557</v>
       </c>
       <c r="B236" s="214"/>
-      <c r="C236" s="292" t="s">
+      <c r="C236" s="279" t="s">
         <v>558</v>
       </c>
-      <c r="D236" s="292"/>
-      <c r="E236" s="292">
+      <c r="D236" s="279"/>
+      <c r="E236" s="279">
         <f>'Resultados Informe Final'!D5</f>
         <v>10</v>
       </c>
-      <c r="F236" s="292"/>
-      <c r="G236" s="292"/>
-      <c r="H236" s="292"/>
+      <c r="F236" s="279"/>
+      <c r="G236" s="279"/>
+      <c r="H236" s="279"/>
       <c r="I236" s="95"/>
       <c r="J236" s="95"/>
       <c r="K236" s="95"/>
@@ -49484,17 +49476,17 @@
     <row r="237" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="214"/>
       <c r="B237" s="214"/>
-      <c r="C237" s="292" t="s">
+      <c r="C237" s="279" t="s">
         <v>559</v>
       </c>
-      <c r="D237" s="292"/>
-      <c r="E237" s="292" t="str">
+      <c r="D237" s="279"/>
+      <c r="E237" s="279" t="str">
         <f>'Resultados Informe Final'!D6</f>
         <v>Todo ha funcionado perfectamente, incluso ha superado mis expectativas. La herramienta ha funcionado sin ningún problema. Concretamente, la herramienta utilizada ha sido el juego del Proyecto AJDA 'CRASH. 4 EQUIPOS'. Proceso en el aula: se carga la página web de la herramienta, se cargan la configuración de la partida y el fichero de preguntas. Se desarrolla el juego. Se guardan los resultados. Todo muy fácil, rápido y ágil.</v>
       </c>
-      <c r="F237" s="292"/>
-      <c r="G237" s="292"/>
-      <c r="H237" s="292"/>
+      <c r="F237" s="279"/>
+      <c r="G237" s="279"/>
+      <c r="H237" s="279"/>
       <c r="I237" s="95"/>
       <c r="J237" s="95"/>
       <c r="K237" s="95"/>
@@ -49514,17 +49506,17 @@
         <v>560</v>
       </c>
       <c r="B238" s="214"/>
-      <c r="C238" s="292" t="s">
+      <c r="C238" s="279" t="s">
         <v>561</v>
       </c>
-      <c r="D238" s="292"/>
-      <c r="E238" s="292">
+      <c r="D238" s="279"/>
+      <c r="E238" s="279">
         <f>'Resultados Informe Final'!D7</f>
         <v>10</v>
       </c>
-      <c r="F238" s="292"/>
-      <c r="G238" s="292"/>
-      <c r="H238" s="292"/>
+      <c r="F238" s="279"/>
+      <c r="G238" s="279"/>
+      <c r="H238" s="279"/>
       <c r="I238" s="95"/>
       <c r="J238" s="95"/>
       <c r="K238" s="95"/>
@@ -49542,17 +49534,17 @@
     <row r="239" spans="1:21" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="214"/>
       <c r="B239" s="214"/>
-      <c r="C239" s="292" t="s">
+      <c r="C239" s="279" t="s">
         <v>562</v>
       </c>
-      <c r="D239" s="292"/>
-      <c r="E239" s="292" t="str">
+      <c r="D239" s="279"/>
+      <c r="E239" s="279" t="str">
         <f>'Resultados Informe Final'!D8</f>
         <v>Los resultados han sido estupendos en todos los sentidos y lógicamente puede ser empleada en otras experiencias, aunque normalmente suele dar mejor resultado cambiar el juego por otro diferente del Proyecto AJDA.</v>
       </c>
-      <c r="F239" s="292"/>
-      <c r="G239" s="292"/>
-      <c r="H239" s="292"/>
+      <c r="F239" s="279"/>
+      <c r="G239" s="279"/>
+      <c r="H239" s="279"/>
       <c r="I239" s="95"/>
       <c r="J239" s="95"/>
       <c r="K239" s="95"/>
@@ -49568,21 +49560,21 @@
       <c r="U239" s="95"/>
     </row>
     <row r="240" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="291" t="s">
+      <c r="A240" s="280" t="s">
         <v>563</v>
       </c>
-      <c r="B240" s="291"/>
-      <c r="C240" s="292" t="s">
+      <c r="B240" s="280"/>
+      <c r="C240" s="279" t="s">
         <v>617</v>
       </c>
-      <c r="D240" s="292"/>
-      <c r="E240" s="292">
+      <c r="D240" s="279"/>
+      <c r="E240" s="279">
         <f>'Resultados Informe Final'!D9</f>
         <v>10</v>
       </c>
-      <c r="F240" s="292"/>
-      <c r="G240" s="292"/>
-      <c r="H240" s="292"/>
+      <c r="F240" s="279"/>
+      <c r="G240" s="279"/>
+      <c r="H240" s="279"/>
       <c r="I240" s="95"/>
       <c r="J240" s="95"/>
       <c r="K240" s="95"/>
@@ -49598,19 +49590,19 @@
       <c r="U240" s="95"/>
     </row>
     <row r="241" spans="1:21" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="291"/>
-      <c r="B241" s="291"/>
-      <c r="C241" s="292" t="s">
+      <c r="A241" s="280"/>
+      <c r="B241" s="280"/>
+      <c r="C241" s="279" t="s">
         <v>564</v>
       </c>
-      <c r="D241" s="292"/>
-      <c r="E241" s="292" t="str">
+      <c r="D241" s="279"/>
+      <c r="E241" s="279" t="str">
         <f>'Resultados Informe Final'!D10</f>
         <v>Todo bajo control. La herramienta lo ha permitido llevar el transcurso de la partida perfectamente, ya que permite que el profesor controle el transcurso de la misma, sus tiempos, grabar los resultados o la partida completa en cualquier momento.</v>
       </c>
-      <c r="F241" s="292"/>
-      <c r="G241" s="292"/>
-      <c r="H241" s="292"/>
+      <c r="F241" s="279"/>
+      <c r="G241" s="279"/>
+      <c r="H241" s="279"/>
       <c r="I241" s="95"/>
       <c r="J241" s="95"/>
       <c r="K241" s="95"/>
@@ -49630,17 +49622,17 @@
         <v>565</v>
       </c>
       <c r="B242" s="214"/>
-      <c r="C242" s="292" t="s">
+      <c r="C242" s="279" t="s">
         <v>618</v>
       </c>
-      <c r="D242" s="292"/>
-      <c r="E242" s="292">
+      <c r="D242" s="279"/>
+      <c r="E242" s="279">
         <f>'Resultados Informe Final'!D11</f>
         <v>10</v>
       </c>
-      <c r="F242" s="292"/>
-      <c r="G242" s="292"/>
-      <c r="H242" s="292"/>
+      <c r="F242" s="279"/>
+      <c r="G242" s="279"/>
+      <c r="H242" s="279"/>
       <c r="I242" s="95"/>
       <c r="J242" s="95"/>
       <c r="K242" s="95"/>
@@ -49658,17 +49650,17 @@
     <row r="243" spans="1:21" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="214"/>
       <c r="B243" s="214"/>
-      <c r="C243" s="292" t="s">
+      <c r="C243" s="279" t="s">
         <v>566</v>
       </c>
-      <c r="D243" s="292"/>
-      <c r="E243" s="292" t="str">
+      <c r="D243" s="279"/>
+      <c r="E243" s="279" t="str">
         <f>'Resultados Informe Final'!D12</f>
         <v>El juego se proyecta en pantalla grande con altavoces, conectada a un ordenador. Los jugadores cuentan con tarjetas de respuestas. El profesor explica las reglas, se organiza y se juega de forma dinámica. Los alumnos más contestan a las preguntas con sus tarjetas, siguiendo el ritmo del juego y las indicaciones del profesor. Después se guardan los resultados. El profesor previamente realizó 4 equipos compensados según las notas del primer examen, cada uno de ellos tenía un capitán. Los alumnos conocían la composición de los equipos y las reglas del juego y los contenidos del mismo (tipo de preguntas y materias sobre la que versaría), varios días antes de su realización. Cada equipo con su capitán al frente se organizaron previamente según su criterio y estrategia.</v>
       </c>
-      <c r="F243" s="292"/>
-      <c r="G243" s="292"/>
-      <c r="H243" s="292"/>
+      <c r="F243" s="279"/>
+      <c r="G243" s="279"/>
+      <c r="H243" s="279"/>
       <c r="I243" s="95"/>
       <c r="J243" s="95"/>
       <c r="K243" s="95"/>
@@ -49688,17 +49680,17 @@
         <v>567</v>
       </c>
       <c r="B244" s="214"/>
-      <c r="C244" s="292" t="s">
+      <c r="C244" s="279" t="s">
         <v>568</v>
       </c>
-      <c r="D244" s="292"/>
-      <c r="E244" s="292">
+      <c r="D244" s="279"/>
+      <c r="E244" s="279">
         <f>'Resultados Informe Final'!D13</f>
         <v>10</v>
       </c>
-      <c r="F244" s="292"/>
-      <c r="G244" s="292"/>
-      <c r="H244" s="292"/>
+      <c r="F244" s="279"/>
+      <c r="G244" s="279"/>
+      <c r="H244" s="279"/>
       <c r="I244" s="95"/>
       <c r="J244" s="95"/>
       <c r="K244" s="95"/>
@@ -49716,17 +49708,17 @@
     <row r="245" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="214"/>
       <c r="B245" s="214"/>
-      <c r="C245" s="292" t="s">
+      <c r="C245" s="279" t="s">
         <v>569</v>
       </c>
-      <c r="D245" s="292"/>
-      <c r="E245" s="292" t="str">
+      <c r="D245" s="279"/>
+      <c r="E245" s="279" t="str">
         <f>'Resultados Informe Final'!D14</f>
         <v>Excelente, mejor de lo habitual. Me sorprendió lo bien que funcionó. Algunos alumnos que no suelen participar en clase lo han hecho de forma completa y activa durante el juego.</v>
       </c>
-      <c r="F245" s="292"/>
-      <c r="G245" s="292"/>
-      <c r="H245" s="292"/>
+      <c r="F245" s="279"/>
+      <c r="G245" s="279"/>
+      <c r="H245" s="279"/>
       <c r="I245" s="95"/>
       <c r="J245" s="95"/>
       <c r="K245" s="95"/>
@@ -49746,17 +49738,17 @@
         <v>570</v>
       </c>
       <c r="B246" s="214"/>
-      <c r="C246" s="292" t="s">
+      <c r="C246" s="279" t="s">
         <v>571</v>
       </c>
-      <c r="D246" s="292"/>
-      <c r="E246" s="292">
+      <c r="D246" s="279"/>
+      <c r="E246" s="279">
         <f>'Resultados Informe Final'!D15</f>
         <v>10</v>
       </c>
-      <c r="F246" s="292"/>
-      <c r="G246" s="292"/>
-      <c r="H246" s="292"/>
+      <c r="F246" s="279"/>
+      <c r="G246" s="279"/>
+      <c r="H246" s="279"/>
       <c r="I246" s="95"/>
       <c r="J246" s="95"/>
       <c r="K246" s="95"/>
@@ -49774,18 +49766,18 @@
     <row r="247" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="214"/>
       <c r="B247" s="214"/>
-      <c r="C247" s="292" t="s">
+      <c r="C247" s="279" t="s">
         <v>572</v>
       </c>
-      <c r="D247" s="292"/>
-      <c r="E247" s="292" t="str">
+      <c r="D247" s="279"/>
+      <c r="E247" s="279" t="str">
         <f>'Resultados Informe Final'!D16</f>
         <v>Todo muy bien._x000D_
 Todos han respectado perfectamente las reglas y han mantenido una actitud excelente durante el juego.</v>
       </c>
-      <c r="F247" s="292"/>
-      <c r="G247" s="292"/>
-      <c r="H247" s="292"/>
+      <c r="F247" s="279"/>
+      <c r="G247" s="279"/>
+      <c r="H247" s="279"/>
       <c r="I247" s="95"/>
       <c r="J247" s="95"/>
       <c r="K247" s="95"/>
@@ -49805,17 +49797,17 @@
         <v>573</v>
       </c>
       <c r="B248" s="214"/>
-      <c r="C248" s="292" t="s">
+      <c r="C248" s="279" t="s">
         <v>574</v>
       </c>
-      <c r="D248" s="292"/>
-      <c r="E248" s="292">
+      <c r="D248" s="279"/>
+      <c r="E248" s="279">
         <f>'Resultados Informe Final'!D17</f>
         <v>10</v>
       </c>
-      <c r="F248" s="292"/>
-      <c r="G248" s="292"/>
-      <c r="H248" s="292"/>
+      <c r="F248" s="279"/>
+      <c r="G248" s="279"/>
+      <c r="H248" s="279"/>
       <c r="I248" s="95"/>
       <c r="J248" s="95"/>
       <c r="K248" s="95"/>
@@ -49833,17 +49825,17 @@
     <row r="249" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="214"/>
       <c r="B249" s="214"/>
-      <c r="C249" s="292" t="s">
+      <c r="C249" s="279" t="s">
         <v>575</v>
       </c>
-      <c r="D249" s="292"/>
-      <c r="E249" s="292" t="str">
+      <c r="D249" s="279"/>
+      <c r="E249" s="279" t="str">
         <f>'Resultados Informe Final'!D18</f>
         <v>El juego se desarrolló por equipos y mejoró positivamente la integración. Hubo una buena dinámica dentro de los grupos y un ambiente positivo, de respeto y 'buen rollo' entre los diferentes equipos.</v>
       </c>
-      <c r="F249" s="292"/>
-      <c r="G249" s="292"/>
-      <c r="H249" s="292"/>
+      <c r="F249" s="279"/>
+      <c r="G249" s="279"/>
+      <c r="H249" s="279"/>
       <c r="I249" s="95"/>
       <c r="J249" s="95"/>
       <c r="K249" s="95"/>
@@ -49863,17 +49855,17 @@
         <v>576</v>
       </c>
       <c r="B250" s="214"/>
-      <c r="C250" s="292" t="s">
+      <c r="C250" s="279" t="s">
         <v>577</v>
       </c>
-      <c r="D250" s="292"/>
-      <c r="E250" s="292">
+      <c r="D250" s="279"/>
+      <c r="E250" s="279">
         <f>'Resultados Informe Final'!D19</f>
         <v>10</v>
       </c>
-      <c r="F250" s="292"/>
-      <c r="G250" s="292"/>
-      <c r="H250" s="292"/>
+      <c r="F250" s="279"/>
+      <c r="G250" s="279"/>
+      <c r="H250" s="279"/>
       <c r="I250" s="95"/>
       <c r="J250" s="95"/>
       <c r="K250" s="95"/>
@@ -49891,17 +49883,17 @@
     <row r="251" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="214"/>
       <c r="B251" s="214"/>
-      <c r="C251" s="292" t="s">
+      <c r="C251" s="279" t="s">
         <v>578</v>
       </c>
-      <c r="D251" s="292"/>
-      <c r="E251" s="292" t="str">
+      <c r="D251" s="279"/>
+      <c r="E251" s="279" t="str">
         <f>'Resultados Informe Final'!D20</f>
         <v>Aumentó la competitividad y la colaboración, al tratarse de juegos por equipo. Se observó una buena dinámica, colaboración e interacción.</v>
       </c>
-      <c r="F251" s="292"/>
-      <c r="G251" s="292"/>
-      <c r="H251" s="292"/>
+      <c r="F251" s="279"/>
+      <c r="G251" s="279"/>
+      <c r="H251" s="279"/>
       <c r="I251" s="95"/>
       <c r="J251" s="95"/>
       <c r="K251" s="95"/>
@@ -49921,17 +49913,17 @@
         <v>579</v>
       </c>
       <c r="B252" s="214"/>
-      <c r="C252" s="292" t="s">
+      <c r="C252" s="279" t="s">
         <v>580</v>
       </c>
-      <c r="D252" s="292"/>
-      <c r="E252" s="292">
+      <c r="D252" s="279"/>
+      <c r="E252" s="279">
         <f>'Resultados Informe Final'!D21</f>
         <v>5</v>
       </c>
-      <c r="F252" s="292"/>
-      <c r="G252" s="292"/>
-      <c r="H252" s="292"/>
+      <c r="F252" s="279"/>
+      <c r="G252" s="279"/>
+      <c r="H252" s="279"/>
       <c r="I252" s="95"/>
       <c r="J252" s="95"/>
       <c r="K252" s="95"/>
@@ -49949,17 +49941,17 @@
     <row r="253" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="214"/>
       <c r="B253" s="214"/>
-      <c r="C253" s="292" t="s">
+      <c r="C253" s="279" t="s">
         <v>581</v>
       </c>
-      <c r="D253" s="292"/>
-      <c r="E253" s="292" t="str">
+      <c r="D253" s="279"/>
+      <c r="E253" s="279" t="str">
         <f>'Resultados Informe Final'!D22</f>
         <v>Ambas son complementarias, cada una tiene su lugar y cada una debe aplicarse cuando corresponda. Por supuesto, en mi opinión, debe estar incorporada a la enseñanza, pero de forma adecuada. No es ni más ni menos compleja, es simplemente diferente.</v>
       </c>
-      <c r="F253" s="292"/>
-      <c r="G253" s="292"/>
-      <c r="H253" s="292"/>
+      <c r="F253" s="279"/>
+      <c r="G253" s="279"/>
+      <c r="H253" s="279"/>
       <c r="I253" s="95"/>
       <c r="J253" s="95"/>
       <c r="K253" s="95"/>
@@ -49975,21 +49967,21 @@
       <c r="U253" s="95"/>
     </row>
     <row r="254" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="291" t="s">
+      <c r="A254" s="280" t="s">
         <v>582</v>
       </c>
-      <c r="B254" s="291"/>
-      <c r="C254" s="292" t="s">
+      <c r="B254" s="280"/>
+      <c r="C254" s="279" t="s">
         <v>583</v>
       </c>
-      <c r="D254" s="292"/>
-      <c r="E254" s="292" t="str">
+      <c r="D254" s="279"/>
+      <c r="E254" s="279" t="str">
         <f>'Resultados Informe Final'!D23</f>
         <v>N/A</v>
       </c>
-      <c r="F254" s="292"/>
-      <c r="G254" s="292"/>
-      <c r="H254" s="292"/>
+      <c r="F254" s="279"/>
+      <c r="G254" s="279"/>
+      <c r="H254" s="279"/>
       <c r="I254" s="95"/>
       <c r="J254" s="95"/>
       <c r="K254" s="95"/>
@@ -50005,19 +49997,19 @@
       <c r="U254" s="95"/>
     </row>
     <row r="255" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="291"/>
-      <c r="B255" s="291"/>
-      <c r="C255" s="292" t="s">
+      <c r="A255" s="280"/>
+      <c r="B255" s="280"/>
+      <c r="C255" s="279" t="s">
         <v>584</v>
       </c>
-      <c r="D255" s="292"/>
-      <c r="E255" s="292" t="str">
+      <c r="D255" s="279"/>
+      <c r="E255" s="279" t="str">
         <f>'Resultados Informe Final'!D24</f>
         <v>Este grupo no tiene problemas de partes, por lo que no puede mejorar en este sentido.</v>
       </c>
-      <c r="F255" s="292"/>
-      <c r="G255" s="292"/>
-      <c r="H255" s="292"/>
+      <c r="F255" s="279"/>
+      <c r="G255" s="279"/>
+      <c r="H255" s="279"/>
       <c r="I255" s="95"/>
       <c r="J255" s="95"/>
       <c r="K255" s="95"/>
@@ -50037,17 +50029,17 @@
         <v>585</v>
       </c>
       <c r="B256" s="214"/>
-      <c r="C256" s="292" t="s">
+      <c r="C256" s="279" t="s">
         <v>586</v>
       </c>
-      <c r="D256" s="292"/>
-      <c r="E256" s="292">
+      <c r="D256" s="279"/>
+      <c r="E256" s="279">
         <f>'Resultados Informe Final'!D25</f>
         <v>10</v>
       </c>
-      <c r="F256" s="292"/>
-      <c r="G256" s="292"/>
-      <c r="H256" s="292"/>
+      <c r="F256" s="279"/>
+      <c r="G256" s="279"/>
+      <c r="H256" s="279"/>
       <c r="I256" s="95"/>
       <c r="J256" s="95"/>
       <c r="K256" s="95"/>
@@ -50065,17 +50057,17 @@
     <row r="257" spans="1:21" ht="351.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="214"/>
       <c r="B257" s="214"/>
-      <c r="C257" s="292" t="s">
+      <c r="C257" s="279" t="s">
         <v>587</v>
       </c>
-      <c r="D257" s="292"/>
-      <c r="E257" s="292" t="str">
+      <c r="D257" s="279"/>
+      <c r="E257" s="279" t="str">
         <f>'Resultados Informe Final'!D26</f>
         <v>Todo ha funcionado incluso mejor de lo esperado. Todo estaba bien preparado y organizado previamente. En las dos sesiones funcionó muy bien y se realizó un video de la actividad. El juego se proyecta en pantalla grande con altavoces, conectada a un ordenador. Los jugadores cuentan con tarjetas de respuestas. El profesor explica las reglas, se organiza y se juega de forma dinámica. Después se guardan los resultados. El alumnado ha manifestado una percepción muy positiva y favorable hacia la metodología basada en juegos empleada y hacia las actividades de este tipo realizadas. Temporalmente, la experiencia se ha realizado de la siguiente forma: antes del 3-11-2023, impartición de la materia de forma tradicional, seguido por la realización de la primera prueba objetiva o examen el 3-11-2023, análisis de resultados el 7-11-2023, explicación de la nueva metodología basada en juegos y formación de equipos el 7-11-2023, realización de la primera sesión con el juego el 10-11-2023, repaso y corrección de actividades el 14 y 15-11-2023, realización de la segunda sesión con el juego el 16-11-2023, segunda prueba objetiva o examen el 17-11-2023, y finalización con la entrega de resultados al observador externo el 19-11-2023. En cuanto a las cosas a mejorar, se menciona la introducción de las mejores tecnologías en el juego en colaboración con el departamento de Ingeniería Telemática de la ETSI.</v>
       </c>
-      <c r="F257" s="292"/>
-      <c r="G257" s="292"/>
-      <c r="H257" s="292"/>
+      <c r="F257" s="279"/>
+      <c r="G257" s="279"/>
+      <c r="H257" s="279"/>
       <c r="I257" s="95"/>
       <c r="J257" s="95"/>
       <c r="K257" s="95"/>
@@ -50095,17 +50087,17 @@
         <v>588</v>
       </c>
       <c r="B258" s="214"/>
-      <c r="C258" s="292" t="s">
+      <c r="C258" s="279" t="s">
         <v>589</v>
       </c>
-      <c r="D258" s="292"/>
-      <c r="E258" s="292">
+      <c r="D258" s="279"/>
+      <c r="E258" s="279">
         <f>'Resultados Informe Final'!D27</f>
         <v>10</v>
       </c>
-      <c r="F258" s="292"/>
-      <c r="G258" s="292"/>
-      <c r="H258" s="292"/>
+      <c r="F258" s="279"/>
+      <c r="G258" s="279"/>
+      <c r="H258" s="279"/>
       <c r="I258" s="95"/>
       <c r="J258" s="95"/>
       <c r="K258" s="95"/>
@@ -50123,17 +50115,17 @@
     <row r="259" spans="1:21" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="214"/>
       <c r="B259" s="214"/>
-      <c r="C259" s="292" t="s">
+      <c r="C259" s="279" t="s">
         <v>590</v>
       </c>
-      <c r="D259" s="292"/>
-      <c r="E259" s="292" t="str">
+      <c r="D259" s="279"/>
+      <c r="E259" s="279" t="str">
         <f>'Resultados Informe Final'!D28</f>
         <v>Creo que ha mejorado la percepción hacia la asignatura, la motivación, la participación, la socialización y el aprendizaje. La prueba objetiva o examen previo a la utilización de los juegos en el aula fue de 2,05 puntos y 0 alumnos aprobados. En la prueba realizada dos semanas después, tras la aplicación de los juegos en el aula, la nota media del grupo ha sido de 3,07 puntos y dos alumnos aprobaron con una alta calificación, en torno a 8 puntos. Salvo dos excepciones, todos los alumnos mejoraron sus calificaciones. La mejora de las calificaciones fue más significativa en los capitanes de equipo. Los dos exámenes realizados han tenido la misma estructura, duración, contenidos, sistema de puntuación, grado de dificultad y, por descontado, han sido evaluados los mismos alumnos por el mismo profesor y con los mismos criterios de corrección.</v>
       </c>
-      <c r="F259" s="292"/>
-      <c r="G259" s="292"/>
-      <c r="H259" s="292"/>
+      <c r="F259" s="279"/>
+      <c r="G259" s="279"/>
+      <c r="H259" s="279"/>
       <c r="I259" s="95"/>
       <c r="J259" s="95"/>
       <c r="K259" s="95"/>
@@ -50153,17 +50145,17 @@
         <v>591</v>
       </c>
       <c r="B260" s="214"/>
-      <c r="C260" s="292" t="s">
+      <c r="C260" s="279" t="s">
         <v>589</v>
       </c>
-      <c r="D260" s="292"/>
-      <c r="E260" s="292">
+      <c r="D260" s="279"/>
+      <c r="E260" s="279">
         <f>'Resultados Informe Final'!D29</f>
         <v>10</v>
       </c>
-      <c r="F260" s="292"/>
-      <c r="G260" s="292"/>
-      <c r="H260" s="292"/>
+      <c r="F260" s="279"/>
+      <c r="G260" s="279"/>
+      <c r="H260" s="279"/>
       <c r="I260" s="95"/>
       <c r="J260" s="95"/>
       <c r="K260" s="95"/>
@@ -50181,17 +50173,17 @@
     <row r="261" spans="1:21" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="214"/>
       <c r="B261" s="214"/>
-      <c r="C261" s="292" t="s">
+      <c r="C261" s="279" t="s">
         <v>592</v>
       </c>
-      <c r="D261" s="292"/>
-      <c r="E261" s="292" t="str">
+      <c r="D261" s="279"/>
+      <c r="E261" s="279" t="str">
         <f>'Resultados Informe Final'!D30</f>
         <v>En esta experiencia, la aplicación de los juegos ha sido totalmente adecuada y efectiva. Permiten realizar una valoración parcial y complementaria, al menos tal y como se han aplicado. Se podrían diseñar experiencias basadas en juegos muy orientadas a la evaluación y la calificación del alumnado y, en este caso, sería una herramienta totalmente válida en este sentido.</v>
       </c>
-      <c r="F261" s="292"/>
-      <c r="G261" s="292"/>
-      <c r="H261" s="292"/>
+      <c r="F261" s="279"/>
+      <c r="G261" s="279"/>
+      <c r="H261" s="279"/>
       <c r="I261" s="95"/>
       <c r="J261" s="95"/>
       <c r="K261" s="95"/>
@@ -50211,17 +50203,17 @@
         <v>593</v>
       </c>
       <c r="B262" s="214"/>
-      <c r="C262" s="292" t="s">
+      <c r="C262" s="279" t="s">
         <v>594</v>
       </c>
-      <c r="D262" s="292"/>
-      <c r="E262" s="292">
+      <c r="D262" s="279"/>
+      <c r="E262" s="279">
         <f>'Resultados Informe Final'!D31</f>
         <v>10</v>
       </c>
-      <c r="F262" s="292"/>
-      <c r="G262" s="292"/>
-      <c r="H262" s="292"/>
+      <c r="F262" s="279"/>
+      <c r="G262" s="279"/>
+      <c r="H262" s="279"/>
       <c r="I262" s="95"/>
       <c r="J262" s="95"/>
       <c r="K262" s="95"/>
@@ -50239,17 +50231,17 @@
     <row r="263" spans="1:21" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="214"/>
       <c r="B263" s="214"/>
-      <c r="C263" s="292" t="s">
+      <c r="C263" s="279" t="s">
         <v>562</v>
       </c>
-      <c r="D263" s="292"/>
-      <c r="E263" s="292" t="str">
+      <c r="D263" s="279"/>
+      <c r="E263" s="279" t="str">
         <f>'Resultados Informe Final'!D32</f>
         <v>Sí, ha sido muy útil. El juego elegido, el diseño de la experiencia, la preparación previa, la mecánica y la dinámica seguidas han ayudado mucho en este sentido. Se ha apreciado una muy buena motivación y participación. Excelente valoración en este sentido.</v>
       </c>
-      <c r="F263" s="292"/>
-      <c r="G263" s="292"/>
-      <c r="H263" s="292"/>
+      <c r="F263" s="279"/>
+      <c r="G263" s="279"/>
+      <c r="H263" s="279"/>
       <c r="I263" s="95"/>
       <c r="J263" s="95"/>
       <c r="K263" s="95"/>
@@ -50707,19 +50699,19 @@
       <c r="U282" s="95"/>
     </row>
     <row r="283" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="302" t="s">
+      <c r="A283" s="270" t="s">
         <v>246</v>
       </c>
-      <c r="B283" s="302"/>
-      <c r="C283" s="302" t="s">
+      <c r="B283" s="270"/>
+      <c r="C283" s="270" t="s">
         <v>248</v>
       </c>
-      <c r="D283" s="302"/>
-      <c r="E283" s="302"/>
-      <c r="F283" s="303" t="s">
+      <c r="D283" s="270"/>
+      <c r="E283" s="270"/>
+      <c r="F283" s="271" t="s">
         <v>363</v>
       </c>
-      <c r="G283" s="303"/>
+      <c r="G283" s="271"/>
       <c r="H283" s="186" t="str">
         <f>Cálculos!I178</f>
         <v>Puntuación del criterio</v>
@@ -50739,21 +50731,21 @@
       <c r="U283" s="95"/>
     </row>
     <row r="284" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="297" t="s">
+      <c r="A284" s="276" t="s">
         <v>250</v>
       </c>
-      <c r="B284" s="297"/>
-      <c r="C284" s="300" t="s">
+      <c r="B284" s="276"/>
+      <c r="C284" s="268" t="s">
         <v>135</v>
       </c>
-      <c r="D284" s="300"/>
-      <c r="E284" s="300"/>
-      <c r="F284" s="304">
+      <c r="D284" s="268"/>
+      <c r="E284" s="268"/>
+      <c r="F284" s="264">
         <f>Cálculos!E179</f>
         <v>5</v>
       </c>
-      <c r="G284" s="304"/>
-      <c r="H284" s="293">
+      <c r="G284" s="264"/>
+      <c r="H284" s="272">
         <f>Cálculos!I179</f>
         <v>5</v>
       </c>
@@ -50772,19 +50764,19 @@
       <c r="U284" s="95"/>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A285" s="297"/>
-      <c r="B285" s="297"/>
-      <c r="C285" s="301" t="s">
+      <c r="A285" s="276"/>
+      <c r="B285" s="276"/>
+      <c r="C285" s="269" t="s">
         <v>136</v>
       </c>
-      <c r="D285" s="301"/>
-      <c r="E285" s="301"/>
-      <c r="F285" s="305">
+      <c r="D285" s="269"/>
+      <c r="E285" s="269"/>
+      <c r="F285" s="265">
         <f>Cálculos!E180</f>
         <v>5</v>
       </c>
-      <c r="G285" s="305"/>
-      <c r="H285" s="293"/>
+      <c r="G285" s="265"/>
+      <c r="H285" s="272"/>
       <c r="I285" s="95"/>
       <c r="J285" s="95"/>
       <c r="K285" s="95"/>
@@ -50800,19 +50792,19 @@
       <c r="U285" s="95"/>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A286" s="297"/>
-      <c r="B286" s="297"/>
-      <c r="C286" s="300" t="s">
+      <c r="A286" s="276"/>
+      <c r="B286" s="276"/>
+      <c r="C286" s="268" t="s">
         <v>137</v>
       </c>
-      <c r="D286" s="300"/>
-      <c r="E286" s="300"/>
-      <c r="F286" s="304">
+      <c r="D286" s="268"/>
+      <c r="E286" s="268"/>
+      <c r="F286" s="264">
         <f>Cálculos!E181</f>
         <v>5</v>
       </c>
-      <c r="G286" s="304"/>
-      <c r="H286" s="293"/>
+      <c r="G286" s="264"/>
+      <c r="H286" s="272"/>
       <c r="I286" s="95"/>
       <c r="J286" s="95"/>
       <c r="K286" s="95"/>
@@ -50828,19 +50820,19 @@
       <c r="U286" s="95"/>
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A287" s="297"/>
-      <c r="B287" s="297"/>
-      <c r="C287" s="301" t="s">
+      <c r="A287" s="276"/>
+      <c r="B287" s="276"/>
+      <c r="C287" s="269" t="s">
         <v>138</v>
       </c>
-      <c r="D287" s="301"/>
-      <c r="E287" s="301"/>
-      <c r="F287" s="305">
+      <c r="D287" s="269"/>
+      <c r="E287" s="269"/>
+      <c r="F287" s="265">
         <f>Cálculos!E182</f>
         <v>5</v>
       </c>
-      <c r="G287" s="305"/>
-      <c r="H287" s="293"/>
+      <c r="G287" s="265"/>
+      <c r="H287" s="272"/>
       <c r="I287" s="95"/>
       <c r="J287" s="95"/>
       <c r="K287" s="95"/>
@@ -50856,19 +50848,19 @@
       <c r="U287" s="95"/>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A288" s="297"/>
-      <c r="B288" s="297"/>
-      <c r="C288" s="300" t="s">
+      <c r="A288" s="276"/>
+      <c r="B288" s="276"/>
+      <c r="C288" s="268" t="s">
         <v>251</v>
       </c>
-      <c r="D288" s="300"/>
-      <c r="E288" s="300"/>
-      <c r="F288" s="304" t="str">
+      <c r="D288" s="268"/>
+      <c r="E288" s="268"/>
+      <c r="F288" s="264" t="str">
         <f>Cálculos!E183</f>
         <v>N/A</v>
       </c>
-      <c r="G288" s="304"/>
-      <c r="H288" s="293"/>
+      <c r="G288" s="264"/>
+      <c r="H288" s="272"/>
       <c r="I288" s="95"/>
       <c r="J288" s="95"/>
       <c r="K288" s="95"/>
@@ -50888,17 +50880,17 @@
         <v>252</v>
       </c>
       <c r="B289" s="214"/>
-      <c r="C289" s="301" t="s">
+      <c r="C289" s="269" t="s">
         <v>91</v>
       </c>
-      <c r="D289" s="301"/>
-      <c r="E289" s="301"/>
-      <c r="F289" s="305">
+      <c r="D289" s="269"/>
+      <c r="E289" s="269"/>
+      <c r="F289" s="265">
         <f>Cálculos!E184</f>
         <v>0.55961754780652395</v>
       </c>
-      <c r="G289" s="305"/>
-      <c r="H289" s="294">
+      <c r="G289" s="265"/>
+      <c r="H289" s="273">
         <f>Cálculos!I184</f>
         <v>0.55961754780652395</v>
       </c>
@@ -50919,17 +50911,17 @@
     <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="214"/>
       <c r="B290" s="214"/>
-      <c r="C290" s="300" t="s">
+      <c r="C290" s="268" t="s">
         <v>95</v>
       </c>
-      <c r="D290" s="300"/>
-      <c r="E290" s="300"/>
-      <c r="F290" s="304">
+      <c r="D290" s="268"/>
+      <c r="E290" s="268"/>
+      <c r="F290" s="264">
         <f>Cálculos!E185</f>
         <v>0</v>
       </c>
-      <c r="G290" s="304"/>
-      <c r="H290" s="294"/>
+      <c r="G290" s="264"/>
+      <c r="H290" s="273"/>
       <c r="I290" s="95"/>
       <c r="J290" s="95"/>
       <c r="K290" s="95"/>
@@ -50945,21 +50937,21 @@
       <c r="U290" s="95"/>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A291" s="297" t="s">
+      <c r="A291" s="276" t="s">
         <v>253</v>
       </c>
-      <c r="B291" s="297"/>
-      <c r="C291" s="301" t="s">
+      <c r="B291" s="276"/>
+      <c r="C291" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="D291" s="301"/>
-      <c r="E291" s="301"/>
-      <c r="F291" s="305">
+      <c r="D291" s="269"/>
+      <c r="E291" s="269"/>
+      <c r="F291" s="265">
         <f>Cálculos!E186</f>
         <v>4.6590909090909092</v>
       </c>
-      <c r="G291" s="305"/>
-      <c r="H291" s="295">
+      <c r="G291" s="265"/>
+      <c r="H291" s="274">
         <f>Cálculos!I186</f>
         <v>4.631839517487391</v>
       </c>
@@ -50978,19 +50970,19 @@
       <c r="U291" s="95"/>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A292" s="297"/>
-      <c r="B292" s="297"/>
-      <c r="C292" s="300" t="s">
+      <c r="A292" s="276"/>
+      <c r="B292" s="276"/>
+      <c r="C292" s="268" t="s">
         <v>107</v>
       </c>
-      <c r="D292" s="300"/>
-      <c r="E292" s="300"/>
-      <c r="F292" s="304">
+      <c r="D292" s="268"/>
+      <c r="E292" s="268"/>
+      <c r="F292" s="264">
         <f>Cálculos!E187</f>
         <v>4.8863636363636367</v>
       </c>
-      <c r="G292" s="304"/>
-      <c r="H292" s="295"/>
+      <c r="G292" s="264"/>
+      <c r="H292" s="274"/>
       <c r="I292" s="95"/>
       <c r="J292" s="95"/>
       <c r="K292" s="95"/>
@@ -51006,19 +50998,19 @@
       <c r="U292" s="95"/>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A293" s="297"/>
-      <c r="B293" s="297"/>
-      <c r="C293" s="301" t="s">
+      <c r="A293" s="276"/>
+      <c r="B293" s="276"/>
+      <c r="C293" s="269" t="s">
         <v>108</v>
       </c>
-      <c r="D293" s="301"/>
-      <c r="E293" s="301"/>
-      <c r="F293" s="305">
+      <c r="D293" s="269"/>
+      <c r="E293" s="269"/>
+      <c r="F293" s="265">
         <f>Cálculos!E188</f>
         <v>4.8295454545454541</v>
       </c>
-      <c r="G293" s="305"/>
-      <c r="H293" s="295"/>
+      <c r="G293" s="265"/>
+      <c r="H293" s="274"/>
       <c r="I293" s="95"/>
       <c r="J293" s="95"/>
       <c r="K293" s="95"/>
@@ -51034,19 +51026,19 @@
       <c r="U293" s="95"/>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A294" s="297"/>
-      <c r="B294" s="297"/>
-      <c r="C294" s="300" t="s">
+      <c r="A294" s="276"/>
+      <c r="B294" s="276"/>
+      <c r="C294" s="268" t="s">
         <v>109</v>
       </c>
-      <c r="D294" s="300"/>
-      <c r="E294" s="300"/>
-      <c r="F294" s="304">
+      <c r="D294" s="268"/>
+      <c r="E294" s="268"/>
+      <c r="F294" s="264">
         <f>Cálculos!E189</f>
         <v>4.9431818181818183</v>
       </c>
-      <c r="G294" s="304"/>
-      <c r="H294" s="295"/>
+      <c r="G294" s="264"/>
+      <c r="H294" s="274"/>
       <c r="I294" s="95"/>
       <c r="J294" s="95"/>
       <c r="K294" s="95"/>
@@ -51062,19 +51054,19 @@
       <c r="U294" s="95"/>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A295" s="297"/>
-      <c r="B295" s="297"/>
-      <c r="C295" s="301" t="s">
+      <c r="A295" s="276"/>
+      <c r="B295" s="276"/>
+      <c r="C295" s="269" t="s">
         <v>110</v>
       </c>
-      <c r="D295" s="301"/>
-      <c r="E295" s="301"/>
-      <c r="F295" s="305">
+      <c r="D295" s="269"/>
+      <c r="E295" s="269"/>
+      <c r="F295" s="265">
         <f>Cálculos!E190</f>
         <v>4.6590909090909092</v>
       </c>
-      <c r="G295" s="305"/>
-      <c r="H295" s="295"/>
+      <c r="G295" s="265"/>
+      <c r="H295" s="274"/>
       <c r="I295" s="95"/>
       <c r="J295" s="95"/>
       <c r="K295" s="95"/>
@@ -51090,19 +51082,19 @@
       <c r="U295" s="95"/>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A296" s="297"/>
-      <c r="B296" s="297"/>
-      <c r="C296" s="300" t="s">
+      <c r="A296" s="276"/>
+      <c r="B296" s="276"/>
+      <c r="C296" s="268" t="s">
         <v>111</v>
       </c>
-      <c r="D296" s="300"/>
-      <c r="E296" s="300"/>
-      <c r="F296" s="304">
+      <c r="D296" s="268"/>
+      <c r="E296" s="268"/>
+      <c r="F296" s="264">
         <f>Cálculos!E191</f>
         <v>4.4318181818181825</v>
       </c>
-      <c r="G296" s="304"/>
-      <c r="H296" s="295"/>
+      <c r="G296" s="264"/>
+      <c r="H296" s="274"/>
       <c r="I296" s="95"/>
       <c r="J296" s="95"/>
       <c r="K296" s="95"/>
@@ -51118,19 +51110,19 @@
       <c r="U296" s="95"/>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A297" s="297"/>
-      <c r="B297" s="297"/>
-      <c r="C297" s="301" t="s">
+      <c r="A297" s="276"/>
+      <c r="B297" s="276"/>
+      <c r="C297" s="269" t="s">
         <v>112</v>
       </c>
-      <c r="D297" s="301"/>
-      <c r="E297" s="301"/>
-      <c r="F297" s="305">
+      <c r="D297" s="269"/>
+      <c r="E297" s="269"/>
+      <c r="F297" s="265">
         <f>Cálculos!E192</f>
         <v>4.6590909090909092</v>
       </c>
-      <c r="G297" s="305"/>
-      <c r="H297" s="295"/>
+      <c r="G297" s="265"/>
+      <c r="H297" s="274"/>
       <c r="I297" s="95"/>
       <c r="J297" s="95"/>
       <c r="K297" s="95"/>
@@ -51146,19 +51138,19 @@
       <c r="U297" s="95"/>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A298" s="297"/>
-      <c r="B298" s="297"/>
-      <c r="C298" s="300" t="s">
+      <c r="A298" s="276"/>
+      <c r="B298" s="276"/>
+      <c r="C298" s="268" t="s">
         <v>113</v>
       </c>
-      <c r="D298" s="300"/>
-      <c r="E298" s="300"/>
-      <c r="F298" s="304">
+      <c r="D298" s="268"/>
+      <c r="E298" s="268"/>
+      <c r="F298" s="264">
         <f>Cálculos!E193</f>
         <v>4.4318181818181817</v>
       </c>
-      <c r="G298" s="304"/>
-      <c r="H298" s="295"/>
+      <c r="G298" s="264"/>
+      <c r="H298" s="274"/>
       <c r="I298" s="95"/>
       <c r="J298" s="95"/>
       <c r="K298" s="95"/>
@@ -51174,19 +51166,19 @@
       <c r="U298" s="95"/>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A299" s="297"/>
-      <c r="B299" s="297"/>
-      <c r="C299" s="301" t="s">
+      <c r="A299" s="276"/>
+      <c r="B299" s="276"/>
+      <c r="C299" s="269" t="s">
         <v>114</v>
       </c>
-      <c r="D299" s="301"/>
-      <c r="E299" s="301"/>
-      <c r="F299" s="305">
+      <c r="D299" s="269"/>
+      <c r="E299" s="269"/>
+      <c r="F299" s="265">
         <f>Cálculos!E194</f>
         <v>3.8749999999999996</v>
       </c>
-      <c r="G299" s="305"/>
-      <c r="H299" s="295"/>
+      <c r="G299" s="265"/>
+      <c r="H299" s="274"/>
       <c r="I299" s="95"/>
       <c r="J299" s="95"/>
       <c r="K299" s="95"/>
@@ -51206,17 +51198,17 @@
         <v>367</v>
       </c>
       <c r="B300" s="214"/>
-      <c r="C300" s="300" t="s">
+      <c r="C300" s="268" t="s">
         <v>372</v>
       </c>
-      <c r="D300" s="300"/>
-      <c r="E300" s="300"/>
-      <c r="F300" s="304">
+      <c r="D300" s="268"/>
+      <c r="E300" s="268"/>
+      <c r="F300" s="264">
         <f>Cálculos!E195</f>
         <v>5</v>
       </c>
-      <c r="G300" s="304"/>
-      <c r="H300" s="294">
+      <c r="G300" s="264"/>
+      <c r="H300" s="273">
         <f>Cálculos!I195</f>
         <v>4.9424883367515298</v>
       </c>
@@ -51237,17 +51229,17 @@
     <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="214"/>
       <c r="B301" s="214"/>
-      <c r="C301" s="301" t="s">
+      <c r="C301" s="269" t="s">
         <v>373</v>
       </c>
-      <c r="D301" s="301"/>
-      <c r="E301" s="301"/>
-      <c r="F301" s="305">
+      <c r="D301" s="269"/>
+      <c r="E301" s="269"/>
+      <c r="F301" s="265">
         <f>Cálculos!E196</f>
         <v>4.7272727272727275</v>
       </c>
-      <c r="G301" s="305"/>
-      <c r="H301" s="294"/>
+      <c r="G301" s="265"/>
+      <c r="H301" s="273"/>
       <c r="I301" s="95"/>
       <c r="J301" s="95"/>
       <c r="K301" s="95"/>
@@ -51265,17 +51257,17 @@
     <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="214"/>
       <c r="B302" s="214"/>
-      <c r="C302" s="300" t="s">
+      <c r="C302" s="268" t="s">
         <v>368</v>
       </c>
-      <c r="D302" s="300"/>
-      <c r="E302" s="300"/>
-      <c r="F302" s="304">
+      <c r="D302" s="268"/>
+      <c r="E302" s="268"/>
+      <c r="F302" s="264">
         <f>Cálculos!E197</f>
         <v>5</v>
       </c>
-      <c r="G302" s="304"/>
-      <c r="H302" s="294"/>
+      <c r="G302" s="264"/>
+      <c r="H302" s="273"/>
       <c r="I302" s="95"/>
       <c r="J302" s="95"/>
       <c r="K302" s="95"/>
@@ -51293,17 +51285,17 @@
     <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="214"/>
       <c r="B303" s="214"/>
-      <c r="C303" s="301" t="s">
+      <c r="C303" s="269" t="s">
         <v>369</v>
       </c>
-      <c r="D303" s="301"/>
-      <c r="E303" s="301"/>
-      <c r="F303" s="305">
+      <c r="D303" s="269"/>
+      <c r="E303" s="269"/>
+      <c r="F303" s="265">
         <f>Cálculos!E198</f>
         <v>5</v>
       </c>
-      <c r="G303" s="305"/>
-      <c r="H303" s="294"/>
+      <c r="G303" s="265"/>
+      <c r="H303" s="273"/>
       <c r="I303" s="95"/>
       <c r="J303" s="95"/>
       <c r="K303" s="95"/>
@@ -51321,17 +51313,17 @@
     <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="214"/>
       <c r="B304" s="214"/>
-      <c r="C304" s="300" t="s">
+      <c r="C304" s="268" t="s">
         <v>370</v>
       </c>
-      <c r="D304" s="300"/>
-      <c r="E304" s="300"/>
-      <c r="F304" s="304">
+      <c r="D304" s="268"/>
+      <c r="E304" s="268"/>
+      <c r="F304" s="264">
         <f>Cálculos!E199</f>
         <v>5</v>
       </c>
-      <c r="G304" s="304"/>
-      <c r="H304" s="294"/>
+      <c r="G304" s="264"/>
+      <c r="H304" s="273"/>
       <c r="I304" s="95"/>
       <c r="J304" s="95"/>
       <c r="K304" s="95"/>
@@ -51400,19 +51392,19 @@
       <c r="U306" s="95"/>
     </row>
     <row r="307" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="302" t="s">
+      <c r="A307" s="270" t="s">
         <v>246</v>
       </c>
-      <c r="B307" s="302"/>
-      <c r="C307" s="302" t="s">
+      <c r="B307" s="270"/>
+      <c r="C307" s="270" t="s">
         <v>248</v>
       </c>
-      <c r="D307" s="302"/>
-      <c r="E307" s="302"/>
-      <c r="F307" s="308" t="s">
+      <c r="D307" s="270"/>
+      <c r="E307" s="270"/>
+      <c r="F307" s="266" t="s">
         <v>363</v>
       </c>
-      <c r="G307" s="309"/>
+      <c r="G307" s="267"/>
       <c r="H307" s="186" t="s">
         <v>365</v>
       </c>
@@ -51431,21 +51423,21 @@
       <c r="U307" s="95"/>
     </row>
     <row r="308" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A308" s="298" t="s">
+      <c r="A308" s="277" t="s">
         <v>254</v>
       </c>
-      <c r="B308" s="298"/>
-      <c r="C308" s="301" t="s">
+      <c r="B308" s="277"/>
+      <c r="C308" s="269" t="s">
         <v>102</v>
       </c>
-      <c r="D308" s="301"/>
-      <c r="E308" s="301"/>
-      <c r="F308" s="305">
+      <c r="D308" s="269"/>
+      <c r="E308" s="269"/>
+      <c r="F308" s="265">
         <f>Cálculos!E202</f>
         <v>4.1477272727272734</v>
       </c>
-      <c r="G308" s="305"/>
-      <c r="H308" s="296">
+      <c r="G308" s="265"/>
+      <c r="H308" s="275">
         <f>Cálculos!I202</f>
         <v>4.4321220068880818</v>
       </c>
@@ -51464,19 +51456,19 @@
       <c r="U308" s="95"/>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A309" s="299"/>
-      <c r="B309" s="299"/>
-      <c r="C309" s="300" t="s">
+      <c r="A309" s="278"/>
+      <c r="B309" s="278"/>
+      <c r="C309" s="268" t="s">
         <v>103</v>
       </c>
-      <c r="D309" s="300"/>
-      <c r="E309" s="300"/>
-      <c r="F309" s="304">
+      <c r="D309" s="268"/>
+      <c r="E309" s="268"/>
+      <c r="F309" s="264">
         <f>Cálculos!E203</f>
         <v>4.6590909090909092</v>
       </c>
-      <c r="G309" s="304"/>
-      <c r="H309" s="295"/>
+      <c r="G309" s="264"/>
+      <c r="H309" s="274"/>
       <c r="I309" s="95"/>
       <c r="J309" s="95"/>
       <c r="K309" s="95"/>
@@ -51492,19 +51484,19 @@
       <c r="U309" s="95"/>
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A310" s="299"/>
-      <c r="B310" s="299"/>
-      <c r="C310" s="301" t="s">
+      <c r="A310" s="278"/>
+      <c r="B310" s="278"/>
+      <c r="C310" s="269" t="s">
         <v>104</v>
       </c>
-      <c r="D310" s="301"/>
-      <c r="E310" s="301"/>
-      <c r="F310" s="305">
+      <c r="D310" s="269"/>
+      <c r="E310" s="269"/>
+      <c r="F310" s="265">
         <f>Cálculos!E204</f>
         <v>4.2045454545454541</v>
       </c>
-      <c r="G310" s="305"/>
-      <c r="H310" s="295"/>
+      <c r="G310" s="265"/>
+      <c r="H310" s="274"/>
       <c r="I310" s="95"/>
       <c r="J310" s="95"/>
       <c r="K310" s="95"/>
@@ -51520,19 +51512,19 @@
       <c r="U310" s="95"/>
     </row>
     <row r="311" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A311" s="299"/>
-      <c r="B311" s="299"/>
-      <c r="C311" s="300" t="s">
+      <c r="A311" s="278"/>
+      <c r="B311" s="278"/>
+      <c r="C311" s="268" t="s">
         <v>139</v>
       </c>
-      <c r="D311" s="300"/>
-      <c r="E311" s="300"/>
-      <c r="F311" s="304">
+      <c r="D311" s="268"/>
+      <c r="E311" s="268"/>
+      <c r="F311" s="264">
         <f>Cálculos!E205</f>
         <v>5</v>
       </c>
-      <c r="G311" s="304"/>
-      <c r="H311" s="295"/>
+      <c r="G311" s="264"/>
+      <c r="H311" s="274"/>
       <c r="I311" s="95"/>
       <c r="J311" s="95"/>
       <c r="K311" s="95"/>
@@ -51548,19 +51540,19 @@
       <c r="U311" s="95"/>
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A312" s="299"/>
-      <c r="B312" s="299"/>
-      <c r="C312" s="301" t="s">
+      <c r="A312" s="278"/>
+      <c r="B312" s="278"/>
+      <c r="C312" s="269" t="s">
         <v>141</v>
       </c>
-      <c r="D312" s="301"/>
-      <c r="E312" s="301"/>
-      <c r="F312" s="305">
+      <c r="D312" s="269"/>
+      <c r="E312" s="269"/>
+      <c r="F312" s="265">
         <f>Cálculos!E206</f>
         <v>2.5</v>
       </c>
-      <c r="G312" s="305"/>
-      <c r="H312" s="295"/>
+      <c r="G312" s="265"/>
+      <c r="H312" s="274"/>
       <c r="I312" s="95"/>
       <c r="J312" s="95"/>
       <c r="K312" s="95"/>
@@ -51576,19 +51568,19 @@
       <c r="U312" s="95"/>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A313" s="299"/>
-      <c r="B313" s="299"/>
-      <c r="C313" s="300" t="s">
+      <c r="A313" s="278"/>
+      <c r="B313" s="278"/>
+      <c r="C313" s="268" t="s">
         <v>142</v>
       </c>
-      <c r="D313" s="300"/>
-      <c r="E313" s="300"/>
-      <c r="F313" s="304">
+      <c r="D313" s="268"/>
+      <c r="E313" s="268"/>
+      <c r="F313" s="264">
         <f>Cálculos!E207</f>
         <v>5</v>
       </c>
-      <c r="G313" s="304"/>
-      <c r="H313" s="295"/>
+      <c r="G313" s="264"/>
+      <c r="H313" s="274"/>
       <c r="I313" s="95"/>
       <c r="J313" s="95"/>
       <c r="K313" s="95"/>
@@ -51604,19 +51596,19 @@
       <c r="U313" s="95"/>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A314" s="299"/>
-      <c r="B314" s="299"/>
-      <c r="C314" s="301" t="s">
+      <c r="A314" s="278"/>
+      <c r="B314" s="278"/>
+      <c r="C314" s="269" t="s">
         <v>143</v>
       </c>
-      <c r="D314" s="301"/>
-      <c r="E314" s="301"/>
-      <c r="F314" s="305">
+      <c r="D314" s="269"/>
+      <c r="E314" s="269"/>
+      <c r="F314" s="265">
         <f>Cálculos!E208</f>
         <v>5</v>
       </c>
-      <c r="G314" s="305"/>
-      <c r="H314" s="295"/>
+      <c r="G314" s="265"/>
+      <c r="H314" s="274"/>
       <c r="I314" s="95"/>
       <c r="J314" s="95"/>
       <c r="K314" s="95"/>
@@ -51632,21 +51624,21 @@
       <c r="U314" s="95"/>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A315" s="226" t="s">
+      <c r="A315" s="225" t="s">
         <v>255</v>
       </c>
-      <c r="B315" s="226"/>
-      <c r="C315" s="300" t="s">
+      <c r="B315" s="225"/>
+      <c r="C315" s="268" t="s">
         <v>115</v>
       </c>
-      <c r="D315" s="300"/>
-      <c r="E315" s="300"/>
-      <c r="F315" s="304">
+      <c r="D315" s="268"/>
+      <c r="E315" s="268"/>
+      <c r="F315" s="264">
         <f>Cálculos!E209</f>
         <v>4.6590909090909092</v>
       </c>
-      <c r="G315" s="304"/>
-      <c r="H315" s="294">
+      <c r="G315" s="264"/>
+      <c r="H315" s="273">
         <f>Cálculos!I209</f>
         <v>4.5010138826140977</v>
       </c>
@@ -51665,19 +51657,19 @@
       <c r="U315" s="95"/>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A316" s="226"/>
-      <c r="B316" s="226"/>
-      <c r="C316" s="301" t="s">
+      <c r="A316" s="225"/>
+      <c r="B316" s="225"/>
+      <c r="C316" s="269" t="s">
         <v>116</v>
       </c>
-      <c r="D316" s="301"/>
-      <c r="E316" s="301"/>
-      <c r="F316" s="305">
+      <c r="D316" s="269"/>
+      <c r="E316" s="269"/>
+      <c r="F316" s="265">
         <f>Cálculos!E210</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="G316" s="305"/>
-      <c r="H316" s="294"/>
+      <c r="G316" s="265"/>
+      <c r="H316" s="273"/>
       <c r="I316" s="95"/>
       <c r="J316" s="95"/>
       <c r="K316" s="95"/>
@@ -51693,19 +51685,19 @@
       <c r="U316" s="95"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A317" s="226"/>
-      <c r="B317" s="226"/>
-      <c r="C317" s="300" t="s">
+      <c r="A317" s="225"/>
+      <c r="B317" s="225"/>
+      <c r="C317" s="268" t="s">
         <v>117</v>
       </c>
-      <c r="D317" s="300"/>
-      <c r="E317" s="300"/>
-      <c r="F317" s="304">
+      <c r="D317" s="268"/>
+      <c r="E317" s="268"/>
+      <c r="F317" s="264">
         <f>Cálculos!E211</f>
         <v>4.4318181818181817</v>
       </c>
-      <c r="G317" s="304"/>
-      <c r="H317" s="294"/>
+      <c r="G317" s="264"/>
+      <c r="H317" s="273"/>
       <c r="I317" s="95"/>
       <c r="J317" s="95"/>
       <c r="K317" s="95"/>
@@ -51721,19 +51713,19 @@
       <c r="U317" s="95"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A318" s="226"/>
-      <c r="B318" s="226"/>
-      <c r="C318" s="301" t="s">
+      <c r="A318" s="225"/>
+      <c r="B318" s="225"/>
+      <c r="C318" s="269" t="s">
         <v>118</v>
       </c>
-      <c r="D318" s="301"/>
-      <c r="E318" s="301"/>
-      <c r="F318" s="305">
+      <c r="D318" s="269"/>
+      <c r="E318" s="269"/>
+      <c r="F318" s="265">
         <f>Cálculos!E212</f>
         <v>3.9204545454545459</v>
       </c>
-      <c r="G318" s="305"/>
-      <c r="H318" s="294"/>
+      <c r="G318" s="265"/>
+      <c r="H318" s="273"/>
       <c r="I318" s="95"/>
       <c r="J318" s="95"/>
       <c r="K318" s="95"/>
@@ -51749,21 +51741,21 @@
       <c r="U318" s="95"/>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A319" s="299" t="s">
+      <c r="A319" s="278" t="s">
         <v>256</v>
       </c>
-      <c r="B319" s="299"/>
-      <c r="C319" s="300" t="s">
+      <c r="B319" s="278"/>
+      <c r="C319" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="D319" s="300"/>
-      <c r="E319" s="300"/>
-      <c r="F319" s="304">
+      <c r="D319" s="268"/>
+      <c r="E319" s="268"/>
+      <c r="F319" s="264">
         <f>Cálculos!E213</f>
         <v>4.4318181818181825</v>
       </c>
-      <c r="G319" s="304"/>
-      <c r="H319" s="295">
+      <c r="G319" s="264"/>
+      <c r="H319" s="274">
         <f>Cálculos!I213</f>
         <v>4.5885046214001441</v>
       </c>
@@ -51782,19 +51774,19 @@
       <c r="U319" s="95"/>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A320" s="299"/>
-      <c r="B320" s="299"/>
-      <c r="C320" s="301" t="s">
+      <c r="A320" s="278"/>
+      <c r="B320" s="278"/>
+      <c r="C320" s="269" t="s">
         <v>140</v>
       </c>
-      <c r="D320" s="301"/>
-      <c r="E320" s="301"/>
-      <c r="F320" s="305">
+      <c r="D320" s="269"/>
+      <c r="E320" s="269"/>
+      <c r="F320" s="265">
         <f>Cálculos!E214</f>
         <v>5</v>
       </c>
-      <c r="G320" s="305"/>
-      <c r="H320" s="295"/>
+      <c r="G320" s="265"/>
+      <c r="H320" s="274"/>
       <c r="I320" s="95"/>
       <c r="J320" s="95"/>
       <c r="K320" s="95"/>
@@ -51810,19 +51802,19 @@
       <c r="U320" s="95"/>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A321" s="299"/>
-      <c r="B321" s="299"/>
-      <c r="C321" s="300" t="s">
+      <c r="A321" s="278"/>
+      <c r="B321" s="278"/>
+      <c r="C321" s="268" t="s">
         <v>144</v>
       </c>
-      <c r="D321" s="300"/>
-      <c r="E321" s="300"/>
-      <c r="F321" s="304">
+      <c r="D321" s="268"/>
+      <c r="E321" s="268"/>
+      <c r="F321" s="264">
         <f>Cálculos!E215</f>
         <v>5</v>
       </c>
-      <c r="G321" s="304"/>
-      <c r="H321" s="295"/>
+      <c r="G321" s="264"/>
+      <c r="H321" s="274"/>
       <c r="I321" s="95"/>
       <c r="J321" s="95"/>
       <c r="K321" s="95"/>
@@ -51838,19 +51830,19 @@
       <c r="U321" s="95"/>
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A322" s="299"/>
-      <c r="B322" s="299"/>
-      <c r="C322" s="301" t="s">
+      <c r="A322" s="278"/>
+      <c r="B322" s="278"/>
+      <c r="C322" s="269" t="s">
         <v>119</v>
       </c>
-      <c r="D322" s="301"/>
-      <c r="E322" s="301"/>
-      <c r="F322" s="305">
+      <c r="D322" s="269"/>
+      <c r="E322" s="269"/>
+      <c r="F322" s="265">
         <f>Cálculos!E216</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="G322" s="305"/>
-      <c r="H322" s="295"/>
+      <c r="G322" s="265"/>
+      <c r="H322" s="274"/>
       <c r="I322" s="95"/>
       <c r="J322" s="95"/>
       <c r="K322" s="95"/>
@@ -51866,19 +51858,19 @@
       <c r="U322" s="95"/>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A323" s="299"/>
-      <c r="B323" s="299"/>
-      <c r="C323" s="300" t="s">
+      <c r="A323" s="278"/>
+      <c r="B323" s="278"/>
+      <c r="C323" s="268" t="s">
         <v>513</v>
       </c>
-      <c r="D323" s="300"/>
-      <c r="E323" s="300"/>
-      <c r="F323" s="304">
+      <c r="D323" s="268"/>
+      <c r="E323" s="268"/>
+      <c r="F323" s="264">
         <f>Cálculos!E217</f>
         <v>3.8636363636363633</v>
       </c>
-      <c r="G323" s="304"/>
-      <c r="H323" s="295"/>
+      <c r="G323" s="264"/>
+      <c r="H323" s="274"/>
       <c r="I323" s="95"/>
       <c r="J323" s="95"/>
       <c r="K323" s="95"/>
@@ -51894,19 +51886,19 @@
       <c r="U323" s="95"/>
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A324" s="299"/>
-      <c r="B324" s="299"/>
-      <c r="C324" s="301" t="s">
+      <c r="A324" s="278"/>
+      <c r="B324" s="278"/>
+      <c r="C324" s="269" t="s">
         <v>514</v>
       </c>
-      <c r="D324" s="301"/>
-      <c r="E324" s="301"/>
-      <c r="F324" s="305">
+      <c r="D324" s="269"/>
+      <c r="E324" s="269"/>
+      <c r="F324" s="265">
         <f>Cálculos!E218</f>
         <v>4.5454545454545459</v>
       </c>
-      <c r="G324" s="305"/>
-      <c r="H324" s="295"/>
+      <c r="G324" s="265"/>
+      <c r="H324" s="274"/>
       <c r="I324" s="95"/>
       <c r="J324" s="95"/>
       <c r="K324" s="95"/>
@@ -51922,19 +51914,19 @@
       <c r="U324" s="95"/>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A325" s="299"/>
-      <c r="B325" s="299"/>
-      <c r="C325" s="300" t="s">
+      <c r="A325" s="278"/>
+      <c r="B325" s="278"/>
+      <c r="C325" s="268" t="s">
         <v>515</v>
       </c>
-      <c r="D325" s="300"/>
-      <c r="E325" s="300"/>
-      <c r="F325" s="304">
+      <c r="D325" s="268"/>
+      <c r="E325" s="268"/>
+      <c r="F325" s="264">
         <f>Cálculos!E219</f>
         <v>5</v>
       </c>
-      <c r="G325" s="304"/>
-      <c r="H325" s="295"/>
+      <c r="G325" s="264"/>
+      <c r="H325" s="274"/>
       <c r="I325" s="95"/>
       <c r="J325" s="95"/>
       <c r="K325" s="95"/>
@@ -52053,18 +52045,18 @@
       <c r="U329" s="95"/>
     </row>
     <row r="330" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="310" t="s">
+      <c r="A330" s="262" t="s">
         <v>248</v>
       </c>
-      <c r="B330" s="311"/>
+      <c r="B330" s="263"/>
       <c r="C330" s="193" t="s">
         <v>247</v>
       </c>
       <c r="E330" s="192"/>
-      <c r="F330" s="310" t="s">
+      <c r="F330" s="262" t="s">
         <v>248</v>
       </c>
-      <c r="G330" s="311"/>
+      <c r="G330" s="263"/>
       <c r="H330" s="193" t="s">
         <v>247</v>
       </c>
@@ -52083,19 +52075,19 @@
       <c r="U330" s="95"/>
     </row>
     <row r="331" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="306" t="s">
+      <c r="A331" s="260" t="s">
         <v>135</v>
       </c>
-      <c r="B331" s="307"/>
+      <c r="B331" s="261"/>
       <c r="C331" s="194">
         <f>Cálculos!G179</f>
         <v>2.6128116550517354E-2</v>
       </c>
       <c r="E331" s="95"/>
-      <c r="F331" s="312" t="s">
+      <c r="F331" s="258" t="s">
         <v>102</v>
       </c>
-      <c r="G331" s="313"/>
+      <c r="G331" s="259"/>
       <c r="H331" s="194">
         <f>Cálculos!G202</f>
         <v>4.0039304033037543E-2</v>
@@ -52115,19 +52107,19 @@
       <c r="U331" s="95"/>
     </row>
     <row r="332" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="306" t="s">
+      <c r="A332" s="260" t="s">
         <v>136</v>
       </c>
-      <c r="B332" s="307"/>
+      <c r="B332" s="261"/>
       <c r="C332" s="194">
         <f>Cálculos!G180</f>
         <v>1.4517567630783573E-2</v>
       </c>
       <c r="E332" s="95"/>
-      <c r="F332" s="312" t="s">
+      <c r="F332" s="258" t="s">
         <v>103</v>
       </c>
-      <c r="G332" s="313"/>
+      <c r="G332" s="259"/>
       <c r="H332" s="194">
         <f>Cálculos!G203</f>
         <v>5.1770898899226848E-2</v>
@@ -52147,19 +52139,19 @@
       <c r="U332" s="95"/>
     </row>
     <row r="333" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="306" t="s">
+      <c r="A333" s="260" t="s">
         <v>137</v>
       </c>
-      <c r="B333" s="307"/>
+      <c r="B333" s="261"/>
       <c r="C333" s="194">
         <f>Cálculos!G181</f>
         <v>2.4230467883974215E-2</v>
       </c>
       <c r="E333" s="95"/>
-      <c r="F333" s="312" t="s">
+      <c r="F333" s="258" t="s">
         <v>104</v>
       </c>
-      <c r="G333" s="313"/>
+      <c r="G333" s="259"/>
       <c r="H333" s="194">
         <f>Cálculos!G204</f>
         <v>6.4023537314098308E-2</v>
@@ -52179,19 +52171,19 @@
       <c r="U333" s="95"/>
     </row>
     <row r="334" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="306" t="s">
+      <c r="A334" s="260" t="s">
         <v>138</v>
       </c>
-      <c r="B334" s="307"/>
+      <c r="B334" s="261"/>
       <c r="C334" s="194">
         <f>Cálculos!G182</f>
         <v>2.2875861139430131E-2</v>
       </c>
       <c r="E334" s="95"/>
-      <c r="F334" s="312" t="s">
+      <c r="F334" s="258" t="s">
         <v>139</v>
       </c>
-      <c r="G334" s="313"/>
+      <c r="G334" s="259"/>
       <c r="H334" s="194">
         <f>Cálculos!G205</f>
         <v>3.5662159454218488E-2</v>
@@ -52211,19 +52203,19 @@
       <c r="U334" s="95"/>
     </row>
     <row r="335" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="306" t="s">
+      <c r="A335" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="B335" s="307"/>
+      <c r="B335" s="261"/>
       <c r="C335" s="194">
         <f>Cálculos!G183</f>
         <v>0</v>
       </c>
       <c r="E335" s="95"/>
-      <c r="F335" s="312" t="s">
+      <c r="F335" s="258" t="s">
         <v>141</v>
       </c>
-      <c r="G335" s="313"/>
+      <c r="G335" s="259"/>
       <c r="H335" s="194">
         <f>Cálculos!G206</f>
         <v>1.9923081841449874E-2</v>
@@ -52243,19 +52235,19 @@
       <c r="U335" s="95"/>
     </row>
     <row r="336" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="306" t="s">
+      <c r="A336" s="260" t="s">
         <v>91</v>
       </c>
-      <c r="B336" s="307"/>
+      <c r="B336" s="261"/>
       <c r="C336" s="194">
         <f>Cálculos!G184</f>
         <v>0.48840466019622913</v>
       </c>
       <c r="E336" s="95"/>
-      <c r="F336" s="312" t="s">
+      <c r="F336" s="258" t="s">
         <v>142</v>
       </c>
-      <c r="G336" s="313"/>
+      <c r="G336" s="259"/>
       <c r="H336" s="194">
         <f>Cálculos!G207</f>
         <v>3.2427733839372461E-2</v>
@@ -52275,19 +52267,19 @@
       <c r="U336" s="95"/>
     </row>
     <row r="337" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="306" t="s">
+      <c r="A337" s="260" t="s">
         <v>95</v>
       </c>
-      <c r="B337" s="307"/>
+      <c r="B337" s="261"/>
       <c r="C337" s="194">
         <f>Cálculos!G185</f>
         <v>0</v>
       </c>
       <c r="E337" s="95"/>
-      <c r="F337" s="312" t="s">
+      <c r="F337" s="258" t="s">
         <v>143</v>
       </c>
-      <c r="G337" s="313"/>
+      <c r="G337" s="259"/>
       <c r="H337" s="194">
         <f>Cálculos!G208</f>
         <v>2.4712899802991864E-2</v>
@@ -52307,19 +52299,19 @@
       <c r="U337" s="95"/>
     </row>
     <row r="338" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="306" t="s">
+      <c r="A338" s="260" t="s">
         <v>105</v>
       </c>
-      <c r="B338" s="307"/>
+      <c r="B338" s="261"/>
       <c r="C338" s="194">
         <f>Cálculos!G186</f>
         <v>4.072502413904748E-2</v>
       </c>
       <c r="E338" s="95"/>
-      <c r="F338" s="312" t="s">
+      <c r="F338" s="258" t="s">
         <v>115</v>
       </c>
-      <c r="G338" s="313"/>
+      <c r="G338" s="259"/>
       <c r="H338" s="194">
         <f>Cálculos!G209</f>
         <v>0.14309075020879949</v>
@@ -52339,19 +52331,19 @@
       <c r="U338" s="95"/>
     </row>
     <row r="339" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="306" t="s">
+      <c r="A339" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="B339" s="307"/>
+      <c r="B339" s="261"/>
       <c r="C339" s="194">
         <f>Cálculos!G187</f>
         <v>2.400535348428735E-2</v>
       </c>
       <c r="E339" s="95"/>
-      <c r="F339" s="312" t="s">
+      <c r="F339" s="258" t="s">
         <v>116</v>
       </c>
-      <c r="G339" s="313"/>
+      <c r="G339" s="259"/>
       <c r="H339" s="194">
         <f>Cálculos!G210</f>
         <v>9.7505046036705553E-2</v>
@@ -52371,19 +52363,19 @@
       <c r="U339" s="95"/>
     </row>
     <row r="340" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="306" t="s">
+      <c r="A340" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="B340" s="307"/>
+      <c r="B340" s="261"/>
       <c r="C340" s="194">
         <f>Cálculos!G188</f>
         <v>2.6095035299770735E-2</v>
       </c>
       <c r="E340" s="95"/>
-      <c r="F340" s="312" t="s">
+      <c r="F340" s="258" t="s">
         <v>117</v>
       </c>
-      <c r="G340" s="313"/>
+      <c r="G340" s="259"/>
       <c r="H340" s="194">
         <f>Cálculos!G211</f>
         <v>0.1093282358925427</v>
@@ -52403,19 +52395,19 @@
       <c r="U340" s="95"/>
     </row>
     <row r="341" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="306" t="s">
+      <c r="A341" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="B341" s="307"/>
+      <c r="B341" s="261"/>
       <c r="C341" s="194">
         <f>Cálculos!G189</f>
         <v>3.4112868400961345E-2</v>
       </c>
       <c r="E341" s="95"/>
-      <c r="F341" s="312" t="s">
+      <c r="F341" s="258" t="s">
         <v>118</v>
       </c>
-      <c r="G341" s="313"/>
+      <c r="G341" s="259"/>
       <c r="H341" s="194">
         <f>Cálculos!G212</f>
         <v>3.339452842321429E-2</v>
@@ -52435,19 +52427,19 @@
       <c r="U341" s="95"/>
     </row>
     <row r="342" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="306" t="s">
+      <c r="A342" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="B342" s="307"/>
+      <c r="B342" s="261"/>
       <c r="C342" s="194">
         <f>Cálculos!G190</f>
         <v>7.0872688070960019E-2</v>
       </c>
       <c r="E342" s="95"/>
-      <c r="F342" s="312" t="s">
+      <c r="F342" s="258" t="s">
         <v>106</v>
       </c>
-      <c r="G342" s="313"/>
+      <c r="G342" s="259"/>
       <c r="H342" s="194">
         <f>Cálculos!G213</f>
         <v>9.623867478495586E-2</v>
@@ -52467,19 +52459,19 @@
       <c r="U342" s="95"/>
     </row>
     <row r="343" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="306" t="s">
+      <c r="A343" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="B343" s="307"/>
+      <c r="B343" s="261"/>
       <c r="C343" s="194">
         <f>Cálculos!G191</f>
         <v>5.6986024290717058E-2</v>
       </c>
       <c r="E343" s="95"/>
-      <c r="F343" s="312" t="s">
+      <c r="F343" s="258" t="s">
         <v>140</v>
       </c>
-      <c r="G343" s="313"/>
+      <c r="G343" s="259"/>
       <c r="H343" s="194">
         <f>Cálculos!G214</f>
         <v>6.6083631331290499E-2</v>
@@ -52499,19 +52491,19 @@
       <c r="U343" s="95"/>
     </row>
     <row r="344" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="306" t="s">
+      <c r="A344" s="260" t="s">
         <v>112</v>
       </c>
-      <c r="B344" s="307"/>
+      <c r="B344" s="261"/>
       <c r="C344" s="194">
         <f>Cálculos!G192</f>
         <v>1.2418200646032959E-2</v>
       </c>
       <c r="E344" s="95"/>
-      <c r="F344" s="312" t="s">
+      <c r="F344" s="258" t="s">
         <v>144</v>
       </c>
-      <c r="G344" s="313"/>
+      <c r="G344" s="259"/>
       <c r="H344" s="194">
         <f>Cálculos!G215</f>
         <v>4.8238510895504884E-2</v>
@@ -52531,19 +52523,19 @@
       <c r="U344" s="95"/>
     </row>
     <row r="345" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="306" t="s">
+      <c r="A345" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="B345" s="307"/>
+      <c r="B345" s="261"/>
       <c r="C345" s="194">
         <f>Cálculos!G193</f>
         <v>1.2917546884692517E-2</v>
       </c>
       <c r="E345" s="95"/>
-      <c r="F345" s="312" t="s">
+      <c r="F345" s="258" t="s">
         <v>119</v>
       </c>
-      <c r="G345" s="313"/>
+      <c r="G345" s="259"/>
       <c r="H345" s="194">
         <f>Cálculos!G216</f>
         <v>5.3178522196048211E-2</v>
@@ -52563,19 +52555,19 @@
       <c r="U345" s="95"/>
     </row>
     <row r="346" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="306" t="s">
+      <c r="A346" s="260" t="s">
         <v>114</v>
       </c>
-      <c r="B346" s="307"/>
+      <c r="B346" s="261"/>
       <c r="C346" s="194">
         <f>Cálculos!G194</f>
         <v>1.4913682560965764E-2</v>
       </c>
       <c r="E346" s="95"/>
-      <c r="F346" s="312" t="s">
+      <c r="F346" s="258" t="s">
         <v>513</v>
       </c>
-      <c r="G346" s="313"/>
+      <c r="G346" s="259"/>
       <c r="H346" s="194">
         <f>Cálculos!G217</f>
         <v>4.8951053570051056E-2</v>
@@ -52595,19 +52587,19 @@
       <c r="U346" s="95"/>
     </row>
     <row r="347" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="306" t="s">
+      <c r="A347" s="260" t="s">
         <v>372</v>
       </c>
-      <c r="B347" s="307"/>
+      <c r="B347" s="261"/>
       <c r="C347" s="194">
         <f>Cálculos!G195</f>
         <v>3.8014314195291388E-2</v>
       </c>
       <c r="E347" s="95"/>
-      <c r="F347" s="312" t="s">
+      <c r="F347" s="258" t="s">
         <v>514</v>
       </c>
-      <c r="G347" s="313"/>
+      <c r="G347" s="259"/>
       <c r="H347" s="194">
         <f>Cálculos!G218</f>
         <v>1.9296648512538296E-2</v>
@@ -52627,19 +52619,19 @@
       <c r="U347" s="95"/>
     </row>
     <row r="348" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="306" t="s">
+      <c r="A348" s="260" t="s">
         <v>373</v>
       </c>
-      <c r="B348" s="307"/>
+      <c r="B348" s="261"/>
       <c r="C348" s="194">
         <f>Cálculos!G196</f>
         <v>2.758194057307508E-2</v>
       </c>
       <c r="E348" s="95"/>
-      <c r="F348" s="314" t="s">
+      <c r="F348" s="245" t="s">
         <v>515</v>
       </c>
-      <c r="G348" s="315"/>
+      <c r="G348" s="246"/>
       <c r="H348" s="195">
         <f>Cálculos!G219</f>
         <v>1.6134782963953837E-2</v>
@@ -52659,17 +52651,17 @@
       <c r="U348" s="95"/>
     </row>
     <row r="349" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="306" t="s">
+      <c r="A349" s="260" t="s">
         <v>368</v>
       </c>
-      <c r="B349" s="307"/>
+      <c r="B349" s="261"/>
       <c r="C349" s="194">
         <f>Cálculos!G197</f>
         <v>1.4832627563729384E-2</v>
       </c>
       <c r="E349" s="95"/>
-      <c r="F349" s="316"/>
-      <c r="G349" s="316"/>
+      <c r="F349" s="247"/>
+      <c r="G349" s="247"/>
       <c r="H349" s="197"/>
       <c r="I349" s="95"/>
       <c r="J349" s="95"/>
@@ -52686,17 +52678,17 @@
       <c r="U349" s="95"/>
     </row>
     <row r="350" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="306" t="s">
+      <c r="A350" s="260" t="s">
         <v>369</v>
       </c>
-      <c r="B350" s="307"/>
+      <c r="B350" s="261"/>
       <c r="C350" s="194">
         <f>Cálculos!G198</f>
         <v>2.9034348178648764E-2</v>
       </c>
       <c r="E350" s="95"/>
-      <c r="F350" s="317"/>
-      <c r="G350" s="317"/>
+      <c r="F350" s="248"/>
+      <c r="G350" s="248"/>
       <c r="H350" s="196"/>
       <c r="I350" s="95"/>
       <c r="J350" s="95"/>
@@ -52713,17 +52705,17 @@
       <c r="U350" s="95"/>
     </row>
     <row r="351" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="306" t="s">
+      <c r="A351" s="260" t="s">
         <v>370</v>
       </c>
-      <c r="B351" s="307"/>
+      <c r="B351" s="261"/>
       <c r="C351" s="194">
         <f>Cálculos!G199</f>
         <v>2.1333672310885579E-2</v>
       </c>
       <c r="E351" s="95"/>
-      <c r="F351" s="317"/>
-      <c r="G351" s="317"/>
+      <c r="F351" s="248"/>
+      <c r="G351" s="248"/>
       <c r="H351" s="196"/>
       <c r="I351" s="95"/>
       <c r="J351" s="95"/>
@@ -54659,14 +54651,14 @@
     </row>
     <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435" s="95"/>
-      <c r="B435" s="318" t="s">
+      <c r="B435" s="249" t="s">
         <v>723</v>
       </c>
-      <c r="C435" s="319"/>
-      <c r="D435" s="319"/>
-      <c r="E435" s="319"/>
-      <c r="F435" s="319"/>
-      <c r="G435" s="320"/>
+      <c r="C435" s="250"/>
+      <c r="D435" s="250"/>
+      <c r="E435" s="250"/>
+      <c r="F435" s="250"/>
+      <c r="G435" s="251"/>
       <c r="H435" s="95"/>
       <c r="I435" s="95"/>
       <c r="J435" s="95"/>
@@ -54684,12 +54676,12 @@
     </row>
     <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="95"/>
-      <c r="B436" s="321"/>
-      <c r="C436" s="322"/>
-      <c r="D436" s="322"/>
-      <c r="E436" s="322"/>
-      <c r="F436" s="322"/>
-      <c r="G436" s="323"/>
+      <c r="B436" s="252"/>
+      <c r="C436" s="253"/>
+      <c r="D436" s="253"/>
+      <c r="E436" s="253"/>
+      <c r="F436" s="253"/>
+      <c r="G436" s="254"/>
       <c r="H436" s="95"/>
       <c r="I436" s="95"/>
       <c r="J436" s="95"/>
@@ -54707,12 +54699,12 @@
     </row>
     <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="95"/>
-      <c r="B437" s="321"/>
-      <c r="C437" s="322"/>
-      <c r="D437" s="322"/>
-      <c r="E437" s="322"/>
-      <c r="F437" s="322"/>
-      <c r="G437" s="323"/>
+      <c r="B437" s="252"/>
+      <c r="C437" s="253"/>
+      <c r="D437" s="253"/>
+      <c r="E437" s="253"/>
+      <c r="F437" s="253"/>
+      <c r="G437" s="254"/>
       <c r="H437" s="95"/>
       <c r="I437" s="95"/>
       <c r="J437" s="95"/>
@@ -54730,12 +54722,12 @@
     </row>
     <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="95"/>
-      <c r="B438" s="321"/>
-      <c r="C438" s="322"/>
-      <c r="D438" s="322"/>
-      <c r="E438" s="322"/>
-      <c r="F438" s="322"/>
-      <c r="G438" s="323"/>
+      <c r="B438" s="252"/>
+      <c r="C438" s="253"/>
+      <c r="D438" s="253"/>
+      <c r="E438" s="253"/>
+      <c r="F438" s="253"/>
+      <c r="G438" s="254"/>
       <c r="H438" s="95"/>
       <c r="I438" s="95"/>
       <c r="J438" s="95"/>
@@ -54753,12 +54745,12 @@
     </row>
     <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="95"/>
-      <c r="B439" s="321"/>
-      <c r="C439" s="322"/>
-      <c r="D439" s="322"/>
-      <c r="E439" s="322"/>
-      <c r="F439" s="322"/>
-      <c r="G439" s="323"/>
+      <c r="B439" s="252"/>
+      <c r="C439" s="253"/>
+      <c r="D439" s="253"/>
+      <c r="E439" s="253"/>
+      <c r="F439" s="253"/>
+      <c r="G439" s="254"/>
       <c r="H439" s="95"/>
       <c r="I439" s="95"/>
       <c r="J439" s="95"/>
@@ -54776,12 +54768,12 @@
     </row>
     <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="95"/>
-      <c r="B440" s="321"/>
-      <c r="C440" s="322"/>
-      <c r="D440" s="322"/>
-      <c r="E440" s="322"/>
-      <c r="F440" s="322"/>
-      <c r="G440" s="323"/>
+      <c r="B440" s="252"/>
+      <c r="C440" s="253"/>
+      <c r="D440" s="253"/>
+      <c r="E440" s="253"/>
+      <c r="F440" s="253"/>
+      <c r="G440" s="254"/>
       <c r="H440" s="95"/>
       <c r="I440" s="95"/>
       <c r="J440" s="95"/>
@@ -54799,12 +54791,12 @@
     </row>
     <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="95"/>
-      <c r="B441" s="321"/>
-      <c r="C441" s="322"/>
-      <c r="D441" s="322"/>
-      <c r="E441" s="322"/>
-      <c r="F441" s="322"/>
-      <c r="G441" s="323"/>
+      <c r="B441" s="252"/>
+      <c r="C441" s="253"/>
+      <c r="D441" s="253"/>
+      <c r="E441" s="253"/>
+      <c r="F441" s="253"/>
+      <c r="G441" s="254"/>
       <c r="H441" s="95"/>
       <c r="I441" s="95"/>
       <c r="J441" s="95"/>
@@ -54822,12 +54814,12 @@
     </row>
     <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="95"/>
-      <c r="B442" s="321"/>
-      <c r="C442" s="322"/>
-      <c r="D442" s="322"/>
-      <c r="E442" s="322"/>
-      <c r="F442" s="322"/>
-      <c r="G442" s="323"/>
+      <c r="B442" s="252"/>
+      <c r="C442" s="253"/>
+      <c r="D442" s="253"/>
+      <c r="E442" s="253"/>
+      <c r="F442" s="253"/>
+      <c r="G442" s="254"/>
       <c r="H442" s="95"/>
       <c r="I442" s="95"/>
       <c r="J442" s="95"/>
@@ -54845,12 +54837,12 @@
     </row>
     <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443" s="95"/>
-      <c r="B443" s="321"/>
-      <c r="C443" s="322"/>
-      <c r="D443" s="322"/>
-      <c r="E443" s="322"/>
-      <c r="F443" s="322"/>
-      <c r="G443" s="323"/>
+      <c r="B443" s="252"/>
+      <c r="C443" s="253"/>
+      <c r="D443" s="253"/>
+      <c r="E443" s="253"/>
+      <c r="F443" s="253"/>
+      <c r="G443" s="254"/>
       <c r="H443" s="95"/>
       <c r="I443" s="95"/>
       <c r="J443" s="95"/>
@@ -54868,12 +54860,12 @@
     </row>
     <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" s="95"/>
-      <c r="B444" s="321"/>
-      <c r="C444" s="322"/>
-      <c r="D444" s="322"/>
-      <c r="E444" s="322"/>
-      <c r="F444" s="322"/>
-      <c r="G444" s="323"/>
+      <c r="B444" s="252"/>
+      <c r="C444" s="253"/>
+      <c r="D444" s="253"/>
+      <c r="E444" s="253"/>
+      <c r="F444" s="253"/>
+      <c r="G444" s="254"/>
       <c r="H444" s="95"/>
       <c r="I444" s="95"/>
       <c r="J444" s="95"/>
@@ -54891,12 +54883,12 @@
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="95"/>
-      <c r="B445" s="321"/>
-      <c r="C445" s="322"/>
-      <c r="D445" s="322"/>
-      <c r="E445" s="322"/>
-      <c r="F445" s="322"/>
-      <c r="G445" s="323"/>
+      <c r="B445" s="252"/>
+      <c r="C445" s="253"/>
+      <c r="D445" s="253"/>
+      <c r="E445" s="253"/>
+      <c r="F445" s="253"/>
+      <c r="G445" s="254"/>
       <c r="H445" s="95"/>
       <c r="I445" s="95"/>
       <c r="J445" s="95"/>
@@ -54914,12 +54906,12 @@
     </row>
     <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="95"/>
-      <c r="B446" s="321"/>
-      <c r="C446" s="322"/>
-      <c r="D446" s="322"/>
-      <c r="E446" s="322"/>
-      <c r="F446" s="322"/>
-      <c r="G446" s="323"/>
+      <c r="B446" s="252"/>
+      <c r="C446" s="253"/>
+      <c r="D446" s="253"/>
+      <c r="E446" s="253"/>
+      <c r="F446" s="253"/>
+      <c r="G446" s="254"/>
       <c r="H446" s="95"/>
       <c r="I446" s="95"/>
       <c r="J446" s="95"/>
@@ -54937,12 +54929,12 @@
     </row>
     <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="95"/>
-      <c r="B447" s="321"/>
-      <c r="C447" s="322"/>
-      <c r="D447" s="322"/>
-      <c r="E447" s="322"/>
-      <c r="F447" s="322"/>
-      <c r="G447" s="323"/>
+      <c r="B447" s="252"/>
+      <c r="C447" s="253"/>
+      <c r="D447" s="253"/>
+      <c r="E447" s="253"/>
+      <c r="F447" s="253"/>
+      <c r="G447" s="254"/>
       <c r="H447" s="95"/>
       <c r="I447" s="95"/>
       <c r="J447" s="95"/>
@@ -54960,12 +54952,12 @@
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="95"/>
-      <c r="B448" s="321"/>
-      <c r="C448" s="322"/>
-      <c r="D448" s="322"/>
-      <c r="E448" s="322"/>
-      <c r="F448" s="322"/>
-      <c r="G448" s="323"/>
+      <c r="B448" s="252"/>
+      <c r="C448" s="253"/>
+      <c r="D448" s="253"/>
+      <c r="E448" s="253"/>
+      <c r="F448" s="253"/>
+      <c r="G448" s="254"/>
       <c r="H448" s="95"/>
       <c r="I448" s="95"/>
       <c r="J448" s="95"/>
@@ -54983,12 +54975,12 @@
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="95"/>
-      <c r="B449" s="324"/>
-      <c r="C449" s="270"/>
-      <c r="D449" s="270"/>
-      <c r="E449" s="270"/>
-      <c r="F449" s="270"/>
-      <c r="G449" s="271"/>
+      <c r="B449" s="255"/>
+      <c r="C449" s="256"/>
+      <c r="D449" s="256"/>
+      <c r="E449" s="256"/>
+      <c r="F449" s="256"/>
+      <c r="G449" s="257"/>
       <c r="H449" s="95"/>
       <c r="I449" s="95"/>
       <c r="J449" s="95"/>
@@ -64689,6 +64681,375 @@
     </row>
   </sheetData>
   <mergeCells count="393">
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="B160:H160"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="B174:H174"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B171:H171"/>
+    <mergeCell ref="B172:H172"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="B167:H167"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B191:H191"/>
+    <mergeCell ref="B193:H193"/>
+    <mergeCell ref="B194:H194"/>
+    <mergeCell ref="B195:H195"/>
+    <mergeCell ref="B192:H192"/>
+    <mergeCell ref="B198:H198"/>
+    <mergeCell ref="B189:H189"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B190:H190"/>
+    <mergeCell ref="B179:H179"/>
+    <mergeCell ref="B181:H181"/>
+    <mergeCell ref="B182:H182"/>
+    <mergeCell ref="B183:H183"/>
+    <mergeCell ref="B184:H184"/>
+    <mergeCell ref="B180:H180"/>
+    <mergeCell ref="B186:H186"/>
+    <mergeCell ref="B185:H185"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B188:H188"/>
+    <mergeCell ref="B173:H173"/>
+    <mergeCell ref="B175:H175"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="B177:H177"/>
+    <mergeCell ref="B178:H178"/>
+    <mergeCell ref="B202:H202"/>
+    <mergeCell ref="B203:H203"/>
+    <mergeCell ref="B205:H205"/>
+    <mergeCell ref="B206:H206"/>
+    <mergeCell ref="B207:H207"/>
+    <mergeCell ref="B204:H204"/>
+    <mergeCell ref="B210:H210"/>
+    <mergeCell ref="B196:H196"/>
+    <mergeCell ref="B197:H197"/>
+    <mergeCell ref="B199:H199"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B201:H201"/>
+    <mergeCell ref="B221:H221"/>
+    <mergeCell ref="B214:H214"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B217:H217"/>
+    <mergeCell ref="B218:H218"/>
+    <mergeCell ref="B219:H219"/>
+    <mergeCell ref="B216:H216"/>
+    <mergeCell ref="B208:H208"/>
+    <mergeCell ref="B209:H209"/>
+    <mergeCell ref="B211:H211"/>
+    <mergeCell ref="B212:H212"/>
+    <mergeCell ref="B213:H213"/>
+    <mergeCell ref="A252:B253"/>
+    <mergeCell ref="A254:B255"/>
+    <mergeCell ref="A256:B257"/>
+    <mergeCell ref="A258:B259"/>
+    <mergeCell ref="A260:B261"/>
+    <mergeCell ref="A262:B263"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B220:H220"/>
+    <mergeCell ref="A234:B235"/>
+    <mergeCell ref="A236:B237"/>
+    <mergeCell ref="A238:B239"/>
+    <mergeCell ref="A240:B241"/>
+    <mergeCell ref="A242:B243"/>
+    <mergeCell ref="A244:B245"/>
+    <mergeCell ref="A246:B247"/>
+    <mergeCell ref="A248:B249"/>
+    <mergeCell ref="A250:B251"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C262:D262"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="E234:H234"/>
+    <mergeCell ref="E235:H235"/>
+    <mergeCell ref="E236:H236"/>
+    <mergeCell ref="E237:H237"/>
+    <mergeCell ref="E238:H238"/>
+    <mergeCell ref="E239:H239"/>
+    <mergeCell ref="E240:H240"/>
+    <mergeCell ref="E241:H241"/>
+    <mergeCell ref="E242:H242"/>
+    <mergeCell ref="E243:H243"/>
+    <mergeCell ref="E244:H244"/>
+    <mergeCell ref="E245:H245"/>
+    <mergeCell ref="E246:H246"/>
+    <mergeCell ref="E247:H247"/>
+    <mergeCell ref="E248:H248"/>
+    <mergeCell ref="E249:H249"/>
+    <mergeCell ref="E250:H250"/>
+    <mergeCell ref="E251:H251"/>
+    <mergeCell ref="E252:H252"/>
+    <mergeCell ref="E253:H253"/>
+    <mergeCell ref="E254:H254"/>
+    <mergeCell ref="E255:H255"/>
+    <mergeCell ref="E256:H256"/>
+    <mergeCell ref="E257:H257"/>
+    <mergeCell ref="E258:H258"/>
+    <mergeCell ref="E259:H259"/>
+    <mergeCell ref="E260:H260"/>
+    <mergeCell ref="E261:H261"/>
+    <mergeCell ref="E262:H262"/>
+    <mergeCell ref="E263:H263"/>
+    <mergeCell ref="H284:H288"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="H291:H299"/>
+    <mergeCell ref="H300:H304"/>
+    <mergeCell ref="H308:H314"/>
+    <mergeCell ref="H315:H318"/>
+    <mergeCell ref="H319:H325"/>
+    <mergeCell ref="A284:B288"/>
+    <mergeCell ref="A289:B290"/>
+    <mergeCell ref="A291:B299"/>
+    <mergeCell ref="A300:B304"/>
+    <mergeCell ref="A308:B314"/>
+    <mergeCell ref="A315:B318"/>
+    <mergeCell ref="A319:B325"/>
+    <mergeCell ref="C296:E296"/>
+    <mergeCell ref="C297:E297"/>
+    <mergeCell ref="C298:E298"/>
+    <mergeCell ref="C299:E299"/>
+    <mergeCell ref="C300:E300"/>
+    <mergeCell ref="C301:E301"/>
+    <mergeCell ref="C284:E284"/>
+    <mergeCell ref="C285:E285"/>
+    <mergeCell ref="C286:E286"/>
+    <mergeCell ref="C287:E287"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="C290:E290"/>
+    <mergeCell ref="C291:E291"/>
+    <mergeCell ref="C292:E292"/>
+    <mergeCell ref="C317:E317"/>
+    <mergeCell ref="C318:E318"/>
+    <mergeCell ref="C319:E319"/>
+    <mergeCell ref="C320:E320"/>
+    <mergeCell ref="C321:E321"/>
+    <mergeCell ref="C322:E322"/>
+    <mergeCell ref="C302:E302"/>
+    <mergeCell ref="C303:E303"/>
+    <mergeCell ref="C304:E304"/>
+    <mergeCell ref="C308:E308"/>
+    <mergeCell ref="C309:E309"/>
+    <mergeCell ref="C310:E310"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C312:E312"/>
+    <mergeCell ref="C313:E313"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="C283:E283"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="C307:E307"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="F287:G287"/>
+    <mergeCell ref="F288:G288"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="C293:E293"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C295:E295"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="F301:G301"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="F309:G309"/>
+    <mergeCell ref="F310:G310"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="A349:B349"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="F323:G323"/>
+    <mergeCell ref="F324:G324"/>
+    <mergeCell ref="F325:G325"/>
+    <mergeCell ref="F307:G307"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="F313:G313"/>
+    <mergeCell ref="F314:G314"/>
+    <mergeCell ref="F315:G315"/>
+    <mergeCell ref="F316:G316"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="F319:G319"/>
+    <mergeCell ref="F320:G320"/>
+    <mergeCell ref="C323:E323"/>
+    <mergeCell ref="C324:E324"/>
+    <mergeCell ref="C325:E325"/>
+    <mergeCell ref="C314:E314"/>
+    <mergeCell ref="C315:E315"/>
+    <mergeCell ref="C316:E316"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="F332:G332"/>
+    <mergeCell ref="F333:G333"/>
+    <mergeCell ref="F334:G334"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="F336:G336"/>
+    <mergeCell ref="F337:G337"/>
+    <mergeCell ref="F338:G338"/>
     <mergeCell ref="F348:G348"/>
     <mergeCell ref="F349:G349"/>
     <mergeCell ref="F350:G350"/>
@@ -64713,375 +65074,6 @@
     <mergeCell ref="A346:B346"/>
     <mergeCell ref="A347:B347"/>
     <mergeCell ref="A348:B348"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="F332:G332"/>
-    <mergeCell ref="F333:G333"/>
-    <mergeCell ref="F334:G334"/>
-    <mergeCell ref="F335:G335"/>
-    <mergeCell ref="F336:G336"/>
-    <mergeCell ref="F337:G337"/>
-    <mergeCell ref="F338:G338"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="A338:B338"/>
-    <mergeCell ref="A349:B349"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="F321:G321"/>
-    <mergeCell ref="F322:G322"/>
-    <mergeCell ref="F323:G323"/>
-    <mergeCell ref="F324:G324"/>
-    <mergeCell ref="F325:G325"/>
-    <mergeCell ref="F307:G307"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="F313:G313"/>
-    <mergeCell ref="F314:G314"/>
-    <mergeCell ref="F315:G315"/>
-    <mergeCell ref="F316:G316"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="F319:G319"/>
-    <mergeCell ref="F320:G320"/>
-    <mergeCell ref="C323:E323"/>
-    <mergeCell ref="C324:E324"/>
-    <mergeCell ref="C325:E325"/>
-    <mergeCell ref="C314:E314"/>
-    <mergeCell ref="C315:E315"/>
-    <mergeCell ref="C316:E316"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="F301:G301"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="F310:G310"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="C283:E283"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="C307:E307"/>
-    <mergeCell ref="F283:G283"/>
-    <mergeCell ref="F284:G284"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="F286:G286"/>
-    <mergeCell ref="F287:G287"/>
-    <mergeCell ref="F288:G288"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="F294:G294"/>
-    <mergeCell ref="F295:G295"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="C293:E293"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C295:E295"/>
-    <mergeCell ref="C321:E321"/>
-    <mergeCell ref="C322:E322"/>
-    <mergeCell ref="C302:E302"/>
-    <mergeCell ref="C303:E303"/>
-    <mergeCell ref="C304:E304"/>
-    <mergeCell ref="C308:E308"/>
-    <mergeCell ref="C309:E309"/>
-    <mergeCell ref="C310:E310"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C312:E312"/>
-    <mergeCell ref="C313:E313"/>
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="C290:E290"/>
-    <mergeCell ref="C291:E291"/>
-    <mergeCell ref="C292:E292"/>
-    <mergeCell ref="C317:E317"/>
-    <mergeCell ref="C318:E318"/>
-    <mergeCell ref="C319:E319"/>
-    <mergeCell ref="C320:E320"/>
-    <mergeCell ref="H284:H288"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="H291:H299"/>
-    <mergeCell ref="H300:H304"/>
-    <mergeCell ref="H308:H314"/>
-    <mergeCell ref="H315:H318"/>
-    <mergeCell ref="H319:H325"/>
-    <mergeCell ref="A284:B288"/>
-    <mergeCell ref="A289:B290"/>
-    <mergeCell ref="A291:B299"/>
-    <mergeCell ref="A300:B304"/>
-    <mergeCell ref="A308:B314"/>
-    <mergeCell ref="A315:B318"/>
-    <mergeCell ref="A319:B325"/>
-    <mergeCell ref="C296:E296"/>
-    <mergeCell ref="C297:E297"/>
-    <mergeCell ref="C298:E298"/>
-    <mergeCell ref="C299:E299"/>
-    <mergeCell ref="C300:E300"/>
-    <mergeCell ref="C301:E301"/>
-    <mergeCell ref="C284:E284"/>
-    <mergeCell ref="C285:E285"/>
-    <mergeCell ref="C286:E286"/>
-    <mergeCell ref="C287:E287"/>
-    <mergeCell ref="E255:H255"/>
-    <mergeCell ref="E256:H256"/>
-    <mergeCell ref="E257:H257"/>
-    <mergeCell ref="E258:H258"/>
-    <mergeCell ref="E259:H259"/>
-    <mergeCell ref="E260:H260"/>
-    <mergeCell ref="E261:H261"/>
-    <mergeCell ref="E262:H262"/>
-    <mergeCell ref="E263:H263"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C262:D262"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="E234:H234"/>
-    <mergeCell ref="E235:H235"/>
-    <mergeCell ref="E236:H236"/>
-    <mergeCell ref="E237:H237"/>
-    <mergeCell ref="E238:H238"/>
-    <mergeCell ref="E239:H239"/>
-    <mergeCell ref="E240:H240"/>
-    <mergeCell ref="E241:H241"/>
-    <mergeCell ref="E242:H242"/>
-    <mergeCell ref="E243:H243"/>
-    <mergeCell ref="E244:H244"/>
-    <mergeCell ref="E245:H245"/>
-    <mergeCell ref="E246:H246"/>
-    <mergeCell ref="E247:H247"/>
-    <mergeCell ref="E248:H248"/>
-    <mergeCell ref="E249:H249"/>
-    <mergeCell ref="E250:H250"/>
-    <mergeCell ref="E251:H251"/>
-    <mergeCell ref="E252:H252"/>
-    <mergeCell ref="E253:H253"/>
-    <mergeCell ref="E254:H254"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="A234:B235"/>
-    <mergeCell ref="A236:B237"/>
-    <mergeCell ref="A238:B239"/>
-    <mergeCell ref="A240:B241"/>
-    <mergeCell ref="A242:B243"/>
-    <mergeCell ref="A244:B245"/>
-    <mergeCell ref="A246:B247"/>
-    <mergeCell ref="A248:B249"/>
-    <mergeCell ref="A250:B251"/>
-    <mergeCell ref="A252:B253"/>
-    <mergeCell ref="A254:B255"/>
-    <mergeCell ref="A256:B257"/>
-    <mergeCell ref="A258:B259"/>
-    <mergeCell ref="A260:B261"/>
-    <mergeCell ref="A262:B263"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B220:H220"/>
-    <mergeCell ref="B221:H221"/>
-    <mergeCell ref="B214:H214"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B217:H217"/>
-    <mergeCell ref="B218:H218"/>
-    <mergeCell ref="B219:H219"/>
-    <mergeCell ref="B216:H216"/>
-    <mergeCell ref="B208:H208"/>
-    <mergeCell ref="B209:H209"/>
-    <mergeCell ref="B211:H211"/>
-    <mergeCell ref="B212:H212"/>
-    <mergeCell ref="B213:H213"/>
-    <mergeCell ref="B202:H202"/>
-    <mergeCell ref="B203:H203"/>
-    <mergeCell ref="B205:H205"/>
-    <mergeCell ref="B206:H206"/>
-    <mergeCell ref="B207:H207"/>
-    <mergeCell ref="B204:H204"/>
-    <mergeCell ref="B210:H210"/>
-    <mergeCell ref="B196:H196"/>
-    <mergeCell ref="B197:H197"/>
-    <mergeCell ref="B199:H199"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B201:H201"/>
-    <mergeCell ref="B191:H191"/>
-    <mergeCell ref="B193:H193"/>
-    <mergeCell ref="B194:H194"/>
-    <mergeCell ref="B195:H195"/>
-    <mergeCell ref="B192:H192"/>
-    <mergeCell ref="B198:H198"/>
-    <mergeCell ref="B189:H189"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B190:H190"/>
-    <mergeCell ref="B179:H179"/>
-    <mergeCell ref="B181:H181"/>
-    <mergeCell ref="B182:H182"/>
-    <mergeCell ref="B183:H183"/>
-    <mergeCell ref="B184:H184"/>
-    <mergeCell ref="B180:H180"/>
-    <mergeCell ref="B186:H186"/>
-    <mergeCell ref="B185:H185"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B188:H188"/>
-    <mergeCell ref="B173:H173"/>
-    <mergeCell ref="B175:H175"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="B177:H177"/>
-    <mergeCell ref="B178:H178"/>
-    <mergeCell ref="A111:H111"/>
-    <mergeCell ref="A114:H114"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B174:H174"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="B171:H171"/>
-    <mergeCell ref="B172:H172"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="B167:H167"/>
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="B160:H160"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B157:H157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
